--- a/stage2_excels/SP/SP_merge_data.xlsx
+++ b/stage2_excels/SP/SP_merge_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CP23"/>
+  <dimension ref="A1:BF23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,12 +476,12 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>hsv_h_percentile_25</t>
+          <t>hsv_h_25</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>hsv_h_percentile_75</t>
+          <t>hsv_h_75</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -506,12 +506,12 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>hsv_s_percentile_25</t>
+          <t>hsv_s_25</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>hsv_s_percentile_75</t>
+          <t>hsv_s_75</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
@@ -536,12 +536,12 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>hsv_v_percentile_25</t>
+          <t>hsv_v_25</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>hsv_v_percentile_75</t>
+          <t>hsv_v_75</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
@@ -566,12 +566,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>lab_l_percentile_25</t>
+          <t>lab_l_25</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>lab_l_percentile_75</t>
+          <t>lab_l_75</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
@@ -596,12 +596,12 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>lab_a_percentile_25</t>
+          <t>lab_a_25</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>lab_a_percentile_75</t>
+          <t>lab_a_75</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
@@ -626,282 +626,102 @@
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>lab_b_percentile_25</t>
+          <t>lab_b_25</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>lab_b_percentile_75</t>
+          <t>lab_b_75</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>luv_l_mean</t>
+          <t>xyz_x_mean</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>luv_l_median</t>
+          <t>xyz_x_median</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>luv_l_variance</t>
+          <t>xyz_x_variance</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>luv_l_std_dev</t>
+          <t>xyz_x_std_dev</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>luv_l_percentile_25</t>
+          <t>xyz_x_25</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>luv_l_percentile_75</t>
+          <t>xyz_x_75</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>luv_u_mean</t>
+          <t>xyz_y_mean</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>luv_u_median</t>
+          <t>xyz_y_median</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>luv_u_variance</t>
+          <t>xyz_y_variance</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>luv_u_std_dev</t>
+          <t>xyz_y_std_dev</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>luv_u_percentile_25</t>
+          <t>xyz_y_25</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>luv_u_percentile_75</t>
+          <t>xyz_y_75</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>luv_v_mean</t>
+          <t>xyz_z_mean</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>luv_v_median</t>
+          <t>xyz_z_median</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>luv_v_variance</t>
+          <t>xyz_z_variance</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>luv_v_std_dev</t>
+          <t>xyz_z_std_dev</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>luv_v_percentile_25</t>
+          <t>xyz_z_25</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>luv_v_percentile_75</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_x_mean</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_x_median</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_x_variance</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_x_std_dev</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_x_percentile_25</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_x_percentile_75</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_y_mean</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_y_median</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_y_variance</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_y_std_dev</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_y_percentile_25</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_y_percentile_75</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_z_mean</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_z_median</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_z_variance</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_z_std_dev</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_z_percentile_25</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>xyz_z_percentile_75</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_mean</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_median</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_variance</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_std_dev</t>
-        </is>
-      </c>
-      <c r="CC1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_percentile_25</t>
-        </is>
-      </c>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_percentile_75</t>
-        </is>
-      </c>
-      <c r="CE1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_mean</t>
-        </is>
-      </c>
-      <c r="CF1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_median</t>
-        </is>
-      </c>
-      <c r="CG1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_variance</t>
-        </is>
-      </c>
-      <c r="CH1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_std_dev</t>
-        </is>
-      </c>
-      <c r="CI1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_percentile_25</t>
-        </is>
-      </c>
-      <c r="CJ1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_percentile_75</t>
-        </is>
-      </c>
-      <c r="CK1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_mean</t>
-        </is>
-      </c>
-      <c r="CL1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_median</t>
-        </is>
-      </c>
-      <c r="CM1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_variance</t>
-        </is>
-      </c>
-      <c r="CN1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_std_dev</t>
-        </is>
-      </c>
-      <c r="CO1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_percentile_25</t>
-        </is>
-      </c>
-      <c r="CP1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_percentile_75</t>
+          <t>xyz_z_75</t>
         </is>
       </c>
     </row>
@@ -1029,166 +849,58 @@
         <v>144</v>
       </c>
       <c r="AO2" t="n">
-        <v>71.31900453458555</v>
+        <v>67.02901397413683</v>
       </c>
       <c r="AP2" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AQ2" t="n">
-        <v>3432.555054832379</v>
+        <v>2663.219841352181</v>
       </c>
       <c r="AR2" t="n">
-        <v>58.58801118686637</v>
+        <v>51.60639341546918</v>
       </c>
       <c r="AS2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>96</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>67.54964680988607</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>42</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>3014.527059941582</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>54.90470890498903</v>
+      </c>
+      <c r="AY2" t="n">
         <v>27</v>
       </c>
-      <c r="AT2" t="n">
-        <v>107</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>103.0237704006652</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>98</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>86.47456380163692</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>9.299170059829905</v>
-      </c>
-      <c r="AY2" t="n">
+      <c r="AZ2" t="n">
         <v>96</v>
       </c>
-      <c r="AZ2" t="n">
-        <v>108</v>
-      </c>
       <c r="BA2" t="n">
-        <v>144.5247500676799</v>
+        <v>48.93111785378384</v>
       </c>
       <c r="BB2" t="n">
-        <v>139</v>
+        <v>26</v>
       </c>
       <c r="BC2" t="n">
-        <v>148.4985303161546</v>
+        <v>2527.132938093012</v>
       </c>
       <c r="BD2" t="n">
-        <v>12.18599730494614</v>
+        <v>50.27059715273942</v>
       </c>
       <c r="BE2" t="n">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="BF2" t="n">
-        <v>148</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>67.02901397413683</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>44</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>2663.219841352181</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>51.60639341546918</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>29</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>96</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>67.54964680988607</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>42</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>3014.527059941582</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>54.90470890498903</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>27</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>96</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>48.93111785378384</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>26</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>2527.132938093012</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>50.27059715273942</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>17</v>
-      </c>
-      <c r="BX2" t="n">
         <v>58</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>68.78029465803704</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>44</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>2995.55562549959</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>54.73166931036902</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>29</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>98</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>120.5265747669877</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>125</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>99.71436126832039</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>9.985707850138636</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>116</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>138.0008733238129</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>133</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>144.9046875334614</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>12.03763629345319</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>146</v>
       </c>
     </row>
     <row r="3">
@@ -1315,166 +1027,58 @@
         <v>140</v>
       </c>
       <c r="AO3" t="n">
-        <v>65.75100129096811</v>
+        <v>61.97728586174278</v>
       </c>
       <c r="AP3" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AQ3" t="n">
-        <v>2046.409134956867</v>
+        <v>1498.659971913943</v>
       </c>
       <c r="AR3" t="n">
-        <v>45.23725383969352</v>
+        <v>38.71252990846689</v>
       </c>
       <c r="AS3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AT3" t="n">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="AU3" t="n">
-        <v>102.4919309968561</v>
+        <v>62.27442943905663</v>
       </c>
       <c r="AV3" t="n">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>63.13247451370751</v>
+        <v>1636.541110421577</v>
       </c>
       <c r="AX3" t="n">
-        <v>7.945594660798367</v>
+        <v>40.45418532638591</v>
       </c>
       <c r="AY3" t="n">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="AZ3" t="n">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="BA3" t="n">
-        <v>142.3136468788151</v>
+        <v>53.96637349135473</v>
       </c>
       <c r="BB3" t="n">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="BC3" t="n">
-        <v>104.4610982399621</v>
+        <v>1515.306384187431</v>
       </c>
       <c r="BD3" t="n">
-        <v>10.22062122573585</v>
+        <v>38.92693648603022</v>
       </c>
       <c r="BE3" t="n">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="BF3" t="n">
-        <v>147</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>61.97728586174278</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>52</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>1498.659971913943</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>38.71252990846689</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>26</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>94</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>62.27442943905663</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>51</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>1636.541110421577</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>40.45418532638591</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>26</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>95</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>53.96637349135473</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>39</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>1515.306384187431</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>38.92693648603022</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>22</v>
-      </c>
-      <c r="BX3" t="n">
         <v>80</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>63.43821418953176</v>
-      </c>
-      <c r="BZ3" t="n">
-        <v>53</v>
-      </c>
-      <c r="CA3" t="n">
-        <v>1647.779843045558</v>
-      </c>
-      <c r="CB3" t="n">
-        <v>40.59285458113975</v>
-      </c>
-      <c r="CC3" t="n">
-        <v>26</v>
-      </c>
-      <c r="CD3" t="n">
-        <v>96</v>
-      </c>
-      <c r="CE3" t="n">
-        <v>122.6413571185489</v>
-      </c>
-      <c r="CF3" t="n">
-        <v>126</v>
-      </c>
-      <c r="CG3" t="n">
-        <v>63.91549314910007</v>
-      </c>
-      <c r="CH3" t="n">
-        <v>7.994716577158947</v>
-      </c>
-      <c r="CI3" t="n">
-        <v>119</v>
-      </c>
-      <c r="CJ3" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK3" t="n">
-        <v>137.1424827650938</v>
-      </c>
-      <c r="CL3" t="n">
-        <v>134</v>
-      </c>
-      <c r="CM3" t="n">
-        <v>107.2942975278393</v>
-      </c>
-      <c r="CN3" t="n">
-        <v>10.35829607260959</v>
-      </c>
-      <c r="CO3" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP3" t="n">
-        <v>144</v>
       </c>
     </row>
     <row r="4">
@@ -1601,166 +1205,58 @@
         <v>140</v>
       </c>
       <c r="AO4" t="n">
-        <v>55.6526474925191</v>
+        <v>53.28309125491722</v>
       </c>
       <c r="AP4" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1353.980963934169</v>
+        <v>986.2083769473109</v>
       </c>
       <c r="AR4" t="n">
-        <v>36.79648031991876</v>
+        <v>31.40395479788032</v>
       </c>
       <c r="AS4" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AT4" t="n">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AU4" t="n">
-        <v>102.4339331985677</v>
+        <v>52.83068740183576</v>
       </c>
       <c r="AV4" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="AW4" t="n">
-        <v>48.41030742994177</v>
+        <v>1053.22510431189</v>
       </c>
       <c r="AX4" t="n">
-        <v>6.957751607375889</v>
+        <v>32.45342977732693</v>
       </c>
       <c r="AY4" t="n">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="AZ4" t="n">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="BA4" t="n">
-        <v>141.7483839370716</v>
+        <v>44.12395531635902</v>
       </c>
       <c r="BB4" t="n">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="BC4" t="n">
-        <v>54.21726170260608</v>
+        <v>1048.727278465378</v>
       </c>
       <c r="BD4" t="n">
-        <v>7.363237175495985</v>
+        <v>32.38405901775405</v>
       </c>
       <c r="BE4" t="n">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="BF4" t="n">
-        <v>146</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>53.28309125491722</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>45</v>
-      </c>
-      <c r="BI4" t="n">
-        <v>986.2083769473107</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>31.40395479788032</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>27</v>
-      </c>
-      <c r="BL4" t="n">
-        <v>75</v>
-      </c>
-      <c r="BM4" t="n">
-        <v>52.83068740183576</v>
-      </c>
-      <c r="BN4" t="n">
-        <v>43</v>
-      </c>
-      <c r="BO4" t="n">
-        <v>1053.22510431189</v>
-      </c>
-      <c r="BP4" t="n">
-        <v>32.45342977732693</v>
-      </c>
-      <c r="BQ4" t="n">
-        <v>26</v>
-      </c>
-      <c r="BR4" t="n">
-        <v>74</v>
-      </c>
-      <c r="BS4" t="n">
-        <v>44.12395531635902</v>
-      </c>
-      <c r="BT4" t="n">
-        <v>31</v>
-      </c>
-      <c r="BU4" t="n">
-        <v>1048.727278465378</v>
-      </c>
-      <c r="BV4" t="n">
-        <v>32.38405901775405</v>
-      </c>
-      <c r="BW4" t="n">
-        <v>21</v>
-      </c>
-      <c r="BX4" t="n">
         <v>57</v>
-      </c>
-      <c r="BY4" t="n">
-        <v>54.09702949610225</v>
-      </c>
-      <c r="BZ4" t="n">
-        <v>45</v>
-      </c>
-      <c r="CA4" t="n">
-        <v>1069.430729707402</v>
-      </c>
-      <c r="CB4" t="n">
-        <v>32.70215175959224</v>
-      </c>
-      <c r="CC4" t="n">
-        <v>27</v>
-      </c>
-      <c r="CD4" t="n">
-        <v>76</v>
-      </c>
-      <c r="CE4" t="n">
-        <v>122.8739508397031</v>
-      </c>
-      <c r="CF4" t="n">
-        <v>125</v>
-      </c>
-      <c r="CG4" t="n">
-        <v>36.97929236419241</v>
-      </c>
-      <c r="CH4" t="n">
-        <v>6.08106013489362</v>
-      </c>
-      <c r="CI4" t="n">
-        <v>119</v>
-      </c>
-      <c r="CJ4" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK4" t="n">
-        <v>137.3656029288848</v>
-      </c>
-      <c r="CL4" t="n">
-        <v>135</v>
-      </c>
-      <c r="CM4" t="n">
-        <v>83.7022502350661</v>
-      </c>
-      <c r="CN4" t="n">
-        <v>9.148893388550666</v>
-      </c>
-      <c r="CO4" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP4" t="n">
-        <v>145</v>
       </c>
     </row>
     <row r="5">
@@ -1887,166 +1383,58 @@
         <v>148</v>
       </c>
       <c r="AO5" t="n">
-        <v>73.74616355060336</v>
+        <v>68.16738807477243</v>
       </c>
       <c r="AP5" t="n">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1125.137584764843</v>
+        <v>797.5440375562184</v>
       </c>
       <c r="AR5" t="n">
-        <v>33.54307059237188</v>
+        <v>28.24082218272369</v>
       </c>
       <c r="AS5" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AT5" t="n">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="AU5" t="n">
-        <v>106.0122208606999</v>
+        <v>67.03460060781427</v>
       </c>
       <c r="AV5" t="n">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="AW5" t="n">
-        <v>122.5077381125775</v>
+        <v>942.44648163261</v>
       </c>
       <c r="AX5" t="n">
-        <v>11.0683213773624</v>
+        <v>30.69929122361964</v>
       </c>
       <c r="AY5" t="n">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="AZ5" t="n">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="BA5" t="n">
-        <v>145.3709484364278</v>
+        <v>47.47228043179832</v>
       </c>
       <c r="BB5" t="n">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="BC5" t="n">
-        <v>127.2381270879204</v>
+        <v>894.106375650702</v>
       </c>
       <c r="BD5" t="n">
-        <v>11.27998790282686</v>
+        <v>29.9016115895231</v>
       </c>
       <c r="BE5" t="n">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="BF5" t="n">
-        <v>153</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>68.16738807477243</v>
-      </c>
-      <c r="BH5" t="n">
-        <v>63</v>
-      </c>
-      <c r="BI5" t="n">
-        <v>797.5440375562184</v>
-      </c>
-      <c r="BJ5" t="n">
-        <v>28.24082218272369</v>
-      </c>
-      <c r="BK5" t="n">
-        <v>48</v>
-      </c>
-      <c r="BL5" t="n">
-        <v>84</v>
-      </c>
-      <c r="BM5" t="n">
-        <v>67.03460060781427</v>
-      </c>
-      <c r="BN5" t="n">
-        <v>60</v>
-      </c>
-      <c r="BO5" t="n">
-        <v>942.44648163261</v>
-      </c>
-      <c r="BP5" t="n">
-        <v>30.69929122361964</v>
-      </c>
-      <c r="BQ5" t="n">
-        <v>44</v>
-      </c>
-      <c r="BR5" t="n">
-        <v>84</v>
-      </c>
-      <c r="BS5" t="n">
-        <v>47.47228043179832</v>
-      </c>
-      <c r="BT5" t="n">
-        <v>37</v>
-      </c>
-      <c r="BU5" t="n">
-        <v>894.106375650702</v>
-      </c>
-      <c r="BV5" t="n">
-        <v>29.9016115895231</v>
-      </c>
-      <c r="BW5" t="n">
-        <v>28</v>
-      </c>
-      <c r="BX5" t="n">
         <v>55</v>
-      </c>
-      <c r="BY5" t="n">
-        <v>68.93612186046435</v>
-      </c>
-      <c r="BZ5" t="n">
-        <v>63</v>
-      </c>
-      <c r="CA5" t="n">
-        <v>920.070344943714</v>
-      </c>
-      <c r="CB5" t="n">
-        <v>30.33266135609788</v>
-      </c>
-      <c r="CC5" t="n">
-        <v>47</v>
-      </c>
-      <c r="CD5" t="n">
-        <v>86</v>
-      </c>
-      <c r="CE5" t="n">
-        <v>119.5850014704441</v>
-      </c>
-      <c r="CF5" t="n">
-        <v>123</v>
-      </c>
-      <c r="CG5" t="n">
-        <v>99.77237380893781</v>
-      </c>
-      <c r="CH5" t="n">
-        <v>9.988612206354686</v>
-      </c>
-      <c r="CI5" t="n">
-        <v>113</v>
-      </c>
-      <c r="CJ5" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK5" t="n">
-        <v>141.2847908814211</v>
-      </c>
-      <c r="CL5" t="n">
-        <v>139</v>
-      </c>
-      <c r="CM5" t="n">
-        <v>195.2216818950341</v>
-      </c>
-      <c r="CN5" t="n">
-        <v>13.97217527427401</v>
-      </c>
-      <c r="CO5" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP5" t="n">
-        <v>153</v>
       </c>
     </row>
     <row r="6">
@@ -2107,7 +1495,7 @@
         <v>61</v>
       </c>
       <c r="S6" t="n">
-        <v>929.0687829268671</v>
+        <v>929.0687829268672</v>
       </c>
       <c r="T6" t="n">
         <v>30.48062963468549</v>
@@ -2125,7 +1513,7 @@
         <v>43</v>
       </c>
       <c r="Y6" t="n">
-        <v>919.1972839745317</v>
+        <v>919.1972839745316</v>
       </c>
       <c r="Z6" t="n">
         <v>30.31826650675351</v>
@@ -2173,166 +1561,58 @@
         <v>140</v>
       </c>
       <c r="AO6" t="n">
-        <v>50.84533532162812</v>
+        <v>49.25064659075714</v>
       </c>
       <c r="AP6" t="n">
+        <v>42</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>636.687355707014</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>25.23266445912944</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>62</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>48.00677904707418</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>709.1439660555368</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>26.62975715352164</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>60</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>38.47127072010237</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>29</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>733.7305343648301</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>27.08746083273273</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>22</v>
+      </c>
+      <c r="BF6" t="n">
         <v>43</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>913.778110350946</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>30.22876296428529</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>27</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>103.4920391692353</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>55.71348160112328</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>7.464146408071272</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>96</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>108</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>142.0469128610974</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>140</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>49.28135224160071</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>7.0200678231482</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>136</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>146</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>49.25064659075714</v>
-      </c>
-      <c r="BH6" t="n">
-        <v>42</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>636.687355707014</v>
-      </c>
-      <c r="BJ6" t="n">
-        <v>25.23266445912944</v>
-      </c>
-      <c r="BK6" t="n">
-        <v>30</v>
-      </c>
-      <c r="BL6" t="n">
-        <v>62</v>
-      </c>
-      <c r="BM6" t="n">
-        <v>48.00677904707418</v>
-      </c>
-      <c r="BN6" t="n">
-        <v>40</v>
-      </c>
-      <c r="BO6" t="n">
-        <v>709.1439660555368</v>
-      </c>
-      <c r="BP6" t="n">
-        <v>26.62975715352164</v>
-      </c>
-      <c r="BQ6" t="n">
-        <v>28</v>
-      </c>
-      <c r="BR6" t="n">
-        <v>60</v>
-      </c>
-      <c r="BS6" t="n">
-        <v>38.47127072010237</v>
-      </c>
-      <c r="BT6" t="n">
-        <v>29</v>
-      </c>
-      <c r="BU6" t="n">
-        <v>733.7305343648301</v>
-      </c>
-      <c r="BV6" t="n">
-        <v>27.08746083273274</v>
-      </c>
-      <c r="BW6" t="n">
-        <v>22</v>
-      </c>
-      <c r="BX6" t="n">
-        <v>43</v>
-      </c>
-      <c r="BY6" t="n">
-        <v>49.51361395146507</v>
-      </c>
-      <c r="BZ6" t="n">
-        <v>42</v>
-      </c>
-      <c r="CA6" t="n">
-        <v>707.5216189024344</v>
-      </c>
-      <c r="CB6" t="n">
-        <v>26.59927854101375</v>
-      </c>
-      <c r="CC6" t="n">
-        <v>29</v>
-      </c>
-      <c r="CD6" t="n">
-        <v>62</v>
-      </c>
-      <c r="CE6" t="n">
-        <v>122.3833167453706</v>
-      </c>
-      <c r="CF6" t="n">
-        <v>123</v>
-      </c>
-      <c r="CG6" t="n">
-        <v>35.493915844955</v>
-      </c>
-      <c r="CH6" t="n">
-        <v>5.957677051079137</v>
-      </c>
-      <c r="CI6" t="n">
-        <v>119</v>
-      </c>
-      <c r="CJ6" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK6" t="n">
-        <v>138.9567549733991</v>
-      </c>
-      <c r="CL6" t="n">
-        <v>138</v>
-      </c>
-      <c r="CM6" t="n">
-        <v>95.26561615291041</v>
-      </c>
-      <c r="CN6" t="n">
-        <v>9.760410654932015</v>
-      </c>
-      <c r="CO6" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP6" t="n">
-        <v>146</v>
       </c>
     </row>
     <row r="7">
@@ -2459,166 +1739,58 @@
         <v>135</v>
       </c>
       <c r="AO7" t="n">
-        <v>51.7927464966737</v>
+        <v>49.98812750189575</v>
       </c>
       <c r="AP7" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1080.318934527863</v>
+        <v>760.8688008483263</v>
       </c>
       <c r="AR7" t="n">
-        <v>32.86820552643334</v>
+        <v>27.58385036299911</v>
       </c>
       <c r="AS7" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AT7" t="n">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="AU7" t="n">
-        <v>99.53196062251732</v>
+        <v>49.44503654358789</v>
       </c>
       <c r="AV7" t="n">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="AW7" t="n">
-        <v>31.45206795362944</v>
+        <v>852.5812740597537</v>
       </c>
       <c r="AX7" t="n">
-        <v>5.608214328431951</v>
+        <v>29.19899440151585</v>
       </c>
       <c r="AY7" t="n">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="BA7" t="n">
-        <v>138.8754799772941</v>
+        <v>42.86839073763012</v>
       </c>
       <c r="BB7" t="n">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="BC7" t="n">
-        <v>37.31541786791505</v>
+        <v>939.139498589493</v>
       </c>
       <c r="BD7" t="n">
-        <v>6.108634697533898</v>
+        <v>30.64538298976688</v>
       </c>
       <c r="BE7" t="n">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="BF7" t="n">
-        <v>140</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>49.98812750189575</v>
-      </c>
-      <c r="BH7" t="n">
-        <v>39</v>
-      </c>
-      <c r="BI7" t="n">
-        <v>760.8688008483263</v>
-      </c>
-      <c r="BJ7" t="n">
-        <v>27.58385036299911</v>
-      </c>
-      <c r="BK7" t="n">
-        <v>30</v>
-      </c>
-      <c r="BL7" t="n">
-        <v>63</v>
-      </c>
-      <c r="BM7" t="n">
-        <v>49.44503654358789</v>
-      </c>
-      <c r="BN7" t="n">
-        <v>37</v>
-      </c>
-      <c r="BO7" t="n">
-        <v>852.5812740597537</v>
-      </c>
-      <c r="BP7" t="n">
-        <v>29.19899440151585</v>
-      </c>
-      <c r="BQ7" t="n">
-        <v>29</v>
-      </c>
-      <c r="BR7" t="n">
-        <v>62</v>
-      </c>
-      <c r="BS7" t="n">
-        <v>42.86839073763012</v>
-      </c>
-      <c r="BT7" t="n">
-        <v>31</v>
-      </c>
-      <c r="BU7" t="n">
-        <v>939.139498589493</v>
-      </c>
-      <c r="BV7" t="n">
-        <v>30.64538298976688</v>
-      </c>
-      <c r="BW7" t="n">
-        <v>24</v>
-      </c>
-      <c r="BX7" t="n">
         <v>48</v>
-      </c>
-      <c r="BY7" t="n">
-        <v>50.66468564626668</v>
-      </c>
-      <c r="BZ7" t="n">
-        <v>39</v>
-      </c>
-      <c r="CA7" t="n">
-        <v>849.2878310335478</v>
-      </c>
-      <c r="CB7" t="n">
-        <v>29.14254331786345</v>
-      </c>
-      <c r="CC7" t="n">
-        <v>30</v>
-      </c>
-      <c r="CD7" t="n">
-        <v>63</v>
-      </c>
-      <c r="CE7" t="n">
-        <v>125.3774684436015</v>
-      </c>
-      <c r="CF7" t="n">
-        <v>128</v>
-      </c>
-      <c r="CG7" t="n">
-        <v>24.63273034880106</v>
-      </c>
-      <c r="CH7" t="n">
-        <v>4.963137147893564</v>
-      </c>
-      <c r="CI7" t="n">
-        <v>124</v>
-      </c>
-      <c r="CJ7" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK7" t="n">
-        <v>133.2911587024449</v>
-      </c>
-      <c r="CL7" t="n">
-        <v>128</v>
-      </c>
-      <c r="CM7" t="n">
-        <v>60.79514737353071</v>
-      </c>
-      <c r="CN7" t="n">
-        <v>7.797124301531348</v>
-      </c>
-      <c r="CO7" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP7" t="n">
-        <v>138</v>
       </c>
     </row>
     <row r="8">
@@ -2745,166 +1917,58 @@
         <v>147</v>
       </c>
       <c r="AO8" t="n">
-        <v>110.6573680379448</v>
+        <v>100.1334376582951</v>
       </c>
       <c r="AP8" t="n">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1135.530012570611</v>
+        <v>940.854211576692</v>
       </c>
       <c r="AR8" t="n">
-        <v>33.69762621566407</v>
+        <v>30.67334692492314</v>
       </c>
       <c r="AS8" t="n">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AT8" t="n">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="AU8" t="n">
-        <v>101.6824175166425</v>
+        <v>102.310922855811</v>
       </c>
       <c r="AV8" t="n">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="AW8" t="n">
-        <v>66.18674312779008</v>
+        <v>1036.398867853111</v>
       </c>
       <c r="AX8" t="n">
-        <v>8.135523531266447</v>
+        <v>32.19314939320338</v>
       </c>
       <c r="AY8" t="n">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AZ8" t="n">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="BA8" t="n">
-        <v>144.020009618342</v>
+        <v>80.15273642974344</v>
       </c>
       <c r="BB8" t="n">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="BC8" t="n">
-        <v>133.1180007835976</v>
+        <v>1058.425014165307</v>
       </c>
       <c r="BD8" t="n">
-        <v>11.53767744321176</v>
+        <v>32.53344454811552</v>
       </c>
       <c r="BE8" t="n">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="BF8" t="n">
-        <v>155</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>100.1334376582951</v>
-      </c>
-      <c r="BH8" t="n">
-        <v>105</v>
-      </c>
-      <c r="BI8" t="n">
-        <v>940.8542115766919</v>
-      </c>
-      <c r="BJ8" t="n">
-        <v>30.67334692492314</v>
-      </c>
-      <c r="BK8" t="n">
-        <v>73</v>
-      </c>
-      <c r="BL8" t="n">
-        <v>127</v>
-      </c>
-      <c r="BM8" t="n">
-        <v>102.310922855811</v>
-      </c>
-      <c r="BN8" t="n">
-        <v>107</v>
-      </c>
-      <c r="BO8" t="n">
-        <v>1036.398867853111</v>
-      </c>
-      <c r="BP8" t="n">
-        <v>32.19314939320338</v>
-      </c>
-      <c r="BQ8" t="n">
-        <v>74</v>
-      </c>
-      <c r="BR8" t="n">
-        <v>131</v>
-      </c>
-      <c r="BS8" t="n">
-        <v>80.15273642974344</v>
-      </c>
-      <c r="BT8" t="n">
-        <v>83</v>
-      </c>
-      <c r="BU8" t="n">
-        <v>1058.425014165307</v>
-      </c>
-      <c r="BV8" t="n">
-        <v>32.53344454811552</v>
-      </c>
-      <c r="BW8" t="n">
-        <v>49</v>
-      </c>
-      <c r="BX8" t="n">
         <v>109</v>
-      </c>
-      <c r="BY8" t="n">
-        <v>103.5911618122167</v>
-      </c>
-      <c r="BZ8" t="n">
-        <v>108</v>
-      </c>
-      <c r="CA8" t="n">
-        <v>1039.592994542014</v>
-      </c>
-      <c r="CB8" t="n">
-        <v>32.2427200239374</v>
-      </c>
-      <c r="CC8" t="n">
-        <v>76</v>
-      </c>
-      <c r="CD8" t="n">
-        <v>132</v>
-      </c>
-      <c r="CE8" t="n">
-        <v>121.8355774649891</v>
-      </c>
-      <c r="CF8" t="n">
-        <v>128</v>
-      </c>
-      <c r="CG8" t="n">
-        <v>77.82548057754728</v>
-      </c>
-      <c r="CH8" t="n">
-        <v>8.821875116864174</v>
-      </c>
-      <c r="CI8" t="n">
-        <v>113</v>
-      </c>
-      <c r="CJ8" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK8" t="n">
-        <v>135.6084045354</v>
-      </c>
-      <c r="CL8" t="n">
-        <v>128</v>
-      </c>
-      <c r="CM8" t="n">
-        <v>117.6624221448069</v>
-      </c>
-      <c r="CN8" t="n">
-        <v>10.84723108193086</v>
-      </c>
-      <c r="CO8" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP8" t="n">
-        <v>147</v>
       </c>
     </row>
     <row r="9">
@@ -3031,166 +2095,58 @@
         <v>152</v>
       </c>
       <c r="AO9" t="n">
-        <v>133.2510439674651</v>
+        <v>119.3499868183792</v>
       </c>
       <c r="AP9" t="n">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2240.31936898498</v>
+        <v>1849.101694374655</v>
       </c>
       <c r="AR9" t="n">
-        <v>47.33201209525092</v>
+        <v>43.00118247646981</v>
       </c>
       <c r="AS9" t="n">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AT9" t="n">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="AU9" t="n">
-        <v>102.0260830254185</v>
+        <v>125.6430915632557</v>
       </c>
       <c r="AV9" t="n">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="AW9" t="n">
-        <v>39.1317177006522</v>
+        <v>2151.565738941644</v>
       </c>
       <c r="AX9" t="n">
-        <v>6.255534965185008</v>
+        <v>46.38497320190714</v>
       </c>
       <c r="AY9" t="n">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="AZ9" t="n">
+        <v>167</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>101.0311698857424</v>
+      </c>
+      <c r="BB9" t="n">
         <v>107</v>
       </c>
-      <c r="BA9" t="n">
-        <v>150.5563701513981</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>149</v>
-      </c>
       <c r="BC9" t="n">
-        <v>228.7032361692704</v>
+        <v>2312.904920538207</v>
       </c>
       <c r="BD9" t="n">
-        <v>15.12293741867864</v>
+        <v>48.09267013317317</v>
       </c>
       <c r="BE9" t="n">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="BF9" t="n">
-        <v>163</v>
-      </c>
-      <c r="BG9" t="n">
-        <v>119.3499868183792</v>
-      </c>
-      <c r="BH9" t="n">
-        <v>128</v>
-      </c>
-      <c r="BI9" t="n">
-        <v>1849.101694374655</v>
-      </c>
-      <c r="BJ9" t="n">
-        <v>43.00118247646981</v>
-      </c>
-      <c r="BK9" t="n">
-        <v>82</v>
-      </c>
-      <c r="BL9" t="n">
-        <v>158</v>
-      </c>
-      <c r="BM9" t="n">
-        <v>125.6430915632557</v>
-      </c>
-      <c r="BN9" t="n">
-        <v>136</v>
-      </c>
-      <c r="BO9" t="n">
-        <v>2151.565738941644</v>
-      </c>
-      <c r="BP9" t="n">
-        <v>46.38497320190714</v>
-      </c>
-      <c r="BQ9" t="n">
-        <v>85</v>
-      </c>
-      <c r="BR9" t="n">
-        <v>167</v>
-      </c>
-      <c r="BS9" t="n">
-        <v>101.0311698857424</v>
-      </c>
-      <c r="BT9" t="n">
-        <v>107</v>
-      </c>
-      <c r="BU9" t="n">
-        <v>2312.904920538207</v>
-      </c>
-      <c r="BV9" t="n">
-        <v>48.09267013317317</v>
-      </c>
-      <c r="BW9" t="n">
-        <v>53</v>
-      </c>
-      <c r="BX9" t="n">
         <v>144</v>
-      </c>
-      <c r="BY9" t="n">
-        <v>125.7834525875691</v>
-      </c>
-      <c r="BZ9" t="n">
-        <v>136</v>
-      </c>
-      <c r="CA9" t="n">
-        <v>2113.526801350488</v>
-      </c>
-      <c r="CB9" t="n">
-        <v>45.97310954623896</v>
-      </c>
-      <c r="CC9" t="n">
-        <v>85</v>
-      </c>
-      <c r="CD9" t="n">
-        <v>167</v>
-      </c>
-      <c r="CE9" t="n">
-        <v>117.4574715469056</v>
-      </c>
-      <c r="CF9" t="n">
-        <v>118</v>
-      </c>
-      <c r="CG9" t="n">
-        <v>119.2199784467729</v>
-      </c>
-      <c r="CH9" t="n">
-        <v>10.91879015490145</v>
-      </c>
-      <c r="CI9" t="n">
-        <v>108</v>
-      </c>
-      <c r="CJ9" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK9" t="n">
-        <v>136.640396381367</v>
-      </c>
-      <c r="CL9" t="n">
-        <v>137</v>
-      </c>
-      <c r="CM9" t="n">
-        <v>77.81366349503701</v>
-      </c>
-      <c r="CN9" t="n">
-        <v>8.821205331191255</v>
-      </c>
-      <c r="CO9" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP9" t="n">
-        <v>145</v>
       </c>
     </row>
     <row r="10">
@@ -3317,166 +2273,58 @@
         <v>141</v>
       </c>
       <c r="AO10" t="n">
-        <v>134.0377715488372</v>
+        <v>121.3890368809487</v>
       </c>
       <c r="AP10" t="n">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1113.673299012889</v>
+        <v>956.712748476529</v>
       </c>
       <c r="AR10" t="n">
-        <v>33.37174402114592</v>
+        <v>30.93077348655428</v>
       </c>
       <c r="AS10" t="n">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="AT10" t="n">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="AU10" t="n">
-        <v>101.1873411049554</v>
+        <v>126.1582856630856</v>
       </c>
       <c r="AV10" t="n">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="AW10" t="n">
-        <v>27.14218093427843</v>
+        <v>1073.520853654286</v>
       </c>
       <c r="AX10" t="n">
-        <v>5.209815825370263</v>
+        <v>32.76462808661631</v>
       </c>
       <c r="AY10" t="n">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="AZ10" t="n">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="BA10" t="n">
-        <v>144.8636693982764</v>
+        <v>118.4611888351853</v>
       </c>
       <c r="BB10" t="n">
+        <v>119</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>1136.51358941314</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>33.71221721295026</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>97</v>
+      </c>
+      <c r="BF10" t="n">
         <v>144</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>86.87436852997595</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>9.320642066401646</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>136</v>
-      </c>
-      <c r="BF10" t="n">
-        <v>151</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>121.3890368809487</v>
-      </c>
-      <c r="BH10" t="n">
-        <v>126</v>
-      </c>
-      <c r="BI10" t="n">
-        <v>956.712748476529</v>
-      </c>
-      <c r="BJ10" t="n">
-        <v>30.93077348655428</v>
-      </c>
-      <c r="BK10" t="n">
-        <v>102</v>
-      </c>
-      <c r="BL10" t="n">
-        <v>144</v>
-      </c>
-      <c r="BM10" t="n">
-        <v>126.1582856630856</v>
-      </c>
-      <c r="BN10" t="n">
-        <v>130</v>
-      </c>
-      <c r="BO10" t="n">
-        <v>1073.520853654286</v>
-      </c>
-      <c r="BP10" t="n">
-        <v>32.76462808661631</v>
-      </c>
-      <c r="BQ10" t="n">
-        <v>106</v>
-      </c>
-      <c r="BR10" t="n">
-        <v>150</v>
-      </c>
-      <c r="BS10" t="n">
-        <v>118.4611888351853</v>
-      </c>
-      <c r="BT10" t="n">
-        <v>119</v>
-      </c>
-      <c r="BU10" t="n">
-        <v>1136.513589413139</v>
-      </c>
-      <c r="BV10" t="n">
-        <v>33.71221721295026</v>
-      </c>
-      <c r="BW10" t="n">
-        <v>97</v>
-      </c>
-      <c r="BX10" t="n">
-        <v>144</v>
-      </c>
-      <c r="BY10" t="n">
-        <v>126.8033286139682</v>
-      </c>
-      <c r="BZ10" t="n">
-        <v>131</v>
-      </c>
-      <c r="CA10" t="n">
-        <v>1068.158853438541</v>
-      </c>
-      <c r="CB10" t="n">
-        <v>32.68269960450851</v>
-      </c>
-      <c r="CC10" t="n">
-        <v>107</v>
-      </c>
-      <c r="CD10" t="n">
-        <v>150</v>
-      </c>
-      <c r="CE10" t="n">
-        <v>121.9274682594644</v>
-      </c>
-      <c r="CF10" t="n">
-        <v>122</v>
-      </c>
-      <c r="CG10" t="n">
-        <v>41.83845317400782</v>
-      </c>
-      <c r="CH10" t="n">
-        <v>6.468265082230924</v>
-      </c>
-      <c r="CI10" t="n">
-        <v>118</v>
-      </c>
-      <c r="CJ10" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK10" t="n">
-        <v>135.2175374447161</v>
-      </c>
-      <c r="CL10" t="n">
-        <v>135</v>
-      </c>
-      <c r="CM10" t="n">
-        <v>53.5067230630505</v>
-      </c>
-      <c r="CN10" t="n">
-        <v>7.314828983855365</v>
-      </c>
-      <c r="CO10" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP10" t="n">
-        <v>141</v>
       </c>
     </row>
     <row r="11">
@@ -3603,166 +2451,58 @@
         <v>150</v>
       </c>
       <c r="AO11" t="n">
-        <v>113.5201052513442</v>
+        <v>104.0738808685355</v>
       </c>
       <c r="AP11" t="n">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1779.965331735451</v>
+        <v>1458.423654380082</v>
       </c>
       <c r="AR11" t="n">
-        <v>42.18963535911931</v>
+        <v>38.18931335308455</v>
       </c>
       <c r="AS11" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AT11" t="n">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="AU11" t="n">
-        <v>104.4255679296148</v>
+        <v>105.0648729928931</v>
       </c>
       <c r="AV11" t="n">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="AW11" t="n">
-        <v>109.4519307051889</v>
+        <v>1621.685917129646</v>
       </c>
       <c r="AX11" t="n">
-        <v>10.46192767635052</v>
+        <v>40.27016162283989</v>
       </c>
       <c r="AY11" t="n">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="AZ11" t="n">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="BA11" t="n">
-        <v>146.1937534409426</v>
+        <v>81.35470020813891</v>
       </c>
       <c r="BB11" t="n">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="BC11" t="n">
-        <v>170.6304707941125</v>
+        <v>1433.350143200029</v>
       </c>
       <c r="BD11" t="n">
-        <v>13.0625598867187</v>
+        <v>37.85961097528643</v>
       </c>
       <c r="BE11" t="n">
-        <v>136</v>
+        <v>47</v>
       </c>
       <c r="BF11" t="n">
-        <v>159</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>104.0738808685355</v>
-      </c>
-      <c r="BH11" t="n">
-        <v>108</v>
-      </c>
-      <c r="BI11" t="n">
-        <v>1458.423654380082</v>
-      </c>
-      <c r="BJ11" t="n">
-        <v>38.18931335308455</v>
-      </c>
-      <c r="BK11" t="n">
-        <v>71</v>
-      </c>
-      <c r="BL11" t="n">
-        <v>136</v>
-      </c>
-      <c r="BM11" t="n">
-        <v>105.0648729928931</v>
-      </c>
-      <c r="BN11" t="n">
-        <v>109</v>
-      </c>
-      <c r="BO11" t="n">
-        <v>1621.685917129646</v>
-      </c>
-      <c r="BP11" t="n">
-        <v>40.27016162283989</v>
-      </c>
-      <c r="BQ11" t="n">
-        <v>70</v>
-      </c>
-      <c r="BR11" t="n">
-        <v>139</v>
-      </c>
-      <c r="BS11" t="n">
-        <v>81.35470020813891</v>
-      </c>
-      <c r="BT11" t="n">
-        <v>83</v>
-      </c>
-      <c r="BU11" t="n">
-        <v>1433.350143200029</v>
-      </c>
-      <c r="BV11" t="n">
-        <v>37.85961097528643</v>
-      </c>
-      <c r="BW11" t="n">
-        <v>47</v>
-      </c>
-      <c r="BX11" t="n">
         <v>111</v>
-      </c>
-      <c r="BY11" t="n">
-        <v>106.9109733597433</v>
-      </c>
-      <c r="BZ11" t="n">
-        <v>111</v>
-      </c>
-      <c r="CA11" t="n">
-        <v>1621.488777372853</v>
-      </c>
-      <c r="CB11" t="n">
-        <v>40.26771383345289</v>
-      </c>
-      <c r="CC11" t="n">
-        <v>72</v>
-      </c>
-      <c r="CD11" t="n">
-        <v>141</v>
-      </c>
-      <c r="CE11" t="n">
-        <v>119.9385876564018</v>
-      </c>
-      <c r="CF11" t="n">
-        <v>128</v>
-      </c>
-      <c r="CG11" t="n">
-        <v>103.6502492636417</v>
-      </c>
-      <c r="CH11" t="n">
-        <v>10.18087664514416</v>
-      </c>
-      <c r="CI11" t="n">
-        <v>110</v>
-      </c>
-      <c r="CJ11" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK11" t="n">
-        <v>139.0929741952269</v>
-      </c>
-      <c r="CL11" t="n">
-        <v>128</v>
-      </c>
-      <c r="CM11" t="n">
-        <v>183.7553231369559</v>
-      </c>
-      <c r="CN11" t="n">
-        <v>13.55563805716853</v>
-      </c>
-      <c r="CO11" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP11" t="n">
-        <v>153</v>
       </c>
     </row>
     <row r="12">
@@ -3889,166 +2629,58 @@
         <v>140</v>
       </c>
       <c r="AO12" t="n">
-        <v>127.0074534966212</v>
+        <v>114.6522989804254</v>
       </c>
       <c r="AP12" t="n">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1260.319577695561</v>
+        <v>1062.087562694232</v>
       </c>
       <c r="AR12" t="n">
-        <v>35.50097995401762</v>
+        <v>32.58968491247241</v>
       </c>
       <c r="AS12" t="n">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="AT12" t="n">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AU12" t="n">
-        <v>100.0750099047459</v>
+        <v>119.3615244481452</v>
       </c>
       <c r="AV12" t="n">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="AW12" t="n">
-        <v>22.28677400494992</v>
+        <v>1191.567496502275</v>
       </c>
       <c r="AX12" t="n">
-        <v>4.720886993452599</v>
+        <v>34.51908887126476</v>
       </c>
       <c r="AY12" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AZ12" t="n">
-        <v>104</v>
+        <v>146</v>
       </c>
       <c r="BA12" t="n">
-        <v>143.3820175413959</v>
+        <v>111.7767243735691</v>
       </c>
       <c r="BB12" t="n">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="BC12" t="n">
-        <v>74.34512783985909</v>
+        <v>1213.167948285678</v>
       </c>
       <c r="BD12" t="n">
-        <v>8.622362080071742</v>
+        <v>34.83056055083922</v>
       </c>
       <c r="BE12" t="n">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="BF12" t="n">
-        <v>150</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>114.6522989804254</v>
-      </c>
-      <c r="BH12" t="n">
-        <v>118</v>
-      </c>
-      <c r="BI12" t="n">
-        <v>1062.087562694232</v>
-      </c>
-      <c r="BJ12" t="n">
-        <v>32.58968491247241</v>
-      </c>
-      <c r="BK12" t="n">
-        <v>92</v>
-      </c>
-      <c r="BL12" t="n">
-        <v>140</v>
-      </c>
-      <c r="BM12" t="n">
-        <v>119.3615244481452</v>
-      </c>
-      <c r="BN12" t="n">
-        <v>122</v>
-      </c>
-      <c r="BO12" t="n">
-        <v>1191.567496502275</v>
-      </c>
-      <c r="BP12" t="n">
-        <v>34.51908887126476</v>
-      </c>
-      <c r="BQ12" t="n">
-        <v>95</v>
-      </c>
-      <c r="BR12" t="n">
-        <v>146</v>
-      </c>
-      <c r="BS12" t="n">
-        <v>111.7767243735691</v>
-      </c>
-      <c r="BT12" t="n">
-        <v>114</v>
-      </c>
-      <c r="BU12" t="n">
-        <v>1213.167948285678</v>
-      </c>
-      <c r="BV12" t="n">
-        <v>34.83056055083922</v>
-      </c>
-      <c r="BW12" t="n">
-        <v>87</v>
-      </c>
-      <c r="BX12" t="n">
         <v>138</v>
-      </c>
-      <c r="BY12" t="n">
-        <v>119.8882158786938</v>
-      </c>
-      <c r="BZ12" t="n">
-        <v>123</v>
-      </c>
-      <c r="CA12" t="n">
-        <v>1186.224518677172</v>
-      </c>
-      <c r="CB12" t="n">
-        <v>34.44161027996763</v>
-      </c>
-      <c r="CC12" t="n">
-        <v>96</v>
-      </c>
-      <c r="CD12" t="n">
-        <v>147</v>
-      </c>
-      <c r="CE12" t="n">
-        <v>122.988548659811</v>
-      </c>
-      <c r="CF12" t="n">
-        <v>126</v>
-      </c>
-      <c r="CG12" t="n">
-        <v>35.33483415641474</v>
-      </c>
-      <c r="CH12" t="n">
-        <v>5.944311075003961</v>
-      </c>
-      <c r="CI12" t="n">
-        <v>118</v>
-      </c>
-      <c r="CJ12" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK12" t="n">
-        <v>133.717055199155</v>
-      </c>
-      <c r="CL12" t="n">
-        <v>131</v>
-      </c>
-      <c r="CM12" t="n">
-        <v>43.56426760674143</v>
-      </c>
-      <c r="CN12" t="n">
-        <v>6.600323295622831</v>
-      </c>
-      <c r="CO12" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP12" t="n">
-        <v>139</v>
       </c>
     </row>
     <row r="13">
@@ -4175,166 +2807,58 @@
         <v>143</v>
       </c>
       <c r="AO13" t="n">
-        <v>120.8326913568189</v>
+        <v>108.7505000498524</v>
       </c>
       <c r="AP13" t="n">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1617.109773841386</v>
+        <v>1353.993144412389</v>
       </c>
       <c r="AR13" t="n">
-        <v>40.21330344352955</v>
+        <v>36.79664583100461</v>
       </c>
       <c r="AS13" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AT13" t="n">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="AU13" t="n">
-        <v>101.7041440926222</v>
+        <v>113.5897691224558</v>
       </c>
       <c r="AV13" t="n">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="AW13" t="n">
-        <v>19.58833236895222</v>
+        <v>1515.34768856794</v>
       </c>
       <c r="AX13" t="n">
-        <v>4.425870803463678</v>
+        <v>38.92746701967571</v>
       </c>
       <c r="AY13" t="n">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="AZ13" t="n">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="BA13" t="n">
-        <v>147.3568662829761</v>
+        <v>103.7299578187856</v>
       </c>
       <c r="BB13" t="n">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="BC13" t="n">
-        <v>82.61036523491153</v>
+        <v>1774.621576265031</v>
       </c>
       <c r="BD13" t="n">
-        <v>9.089024438019271</v>
+        <v>42.12625756300969</v>
       </c>
       <c r="BE13" t="n">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="BF13" t="n">
-        <v>154</v>
-      </c>
-      <c r="BG13" t="n">
-        <v>108.7505000498524</v>
-      </c>
-      <c r="BH13" t="n">
-        <v>110</v>
-      </c>
-      <c r="BI13" t="n">
-        <v>1353.993144412389</v>
-      </c>
-      <c r="BJ13" t="n">
-        <v>36.79664583100461</v>
-      </c>
-      <c r="BK13" t="n">
-        <v>80</v>
-      </c>
-      <c r="BL13" t="n">
-        <v>142</v>
-      </c>
-      <c r="BM13" t="n">
-        <v>113.5897691224557</v>
-      </c>
-      <c r="BN13" t="n">
-        <v>115</v>
-      </c>
-      <c r="BO13" t="n">
-        <v>1515.34768856794</v>
-      </c>
-      <c r="BP13" t="n">
-        <v>38.92746701967571</v>
-      </c>
-      <c r="BQ13" t="n">
-        <v>83</v>
-      </c>
-      <c r="BR13" t="n">
-        <v>149</v>
-      </c>
-      <c r="BS13" t="n">
-        <v>103.7299578187856</v>
-      </c>
-      <c r="BT13" t="n">
-        <v>104</v>
-      </c>
-      <c r="BU13" t="n">
-        <v>1774.621576265031</v>
-      </c>
-      <c r="BV13" t="n">
-        <v>42.12625756300969</v>
-      </c>
-      <c r="BW13" t="n">
-        <v>70</v>
-      </c>
-      <c r="BX13" t="n">
         <v>141</v>
-      </c>
-      <c r="BY13" t="n">
-        <v>113.945222921512</v>
-      </c>
-      <c r="BZ13" t="n">
-        <v>115</v>
-      </c>
-      <c r="CA13" t="n">
-        <v>1510.103030388284</v>
-      </c>
-      <c r="CB13" t="n">
-        <v>38.86004413775522</v>
-      </c>
-      <c r="CC13" t="n">
-        <v>83</v>
-      </c>
-      <c r="CD13" t="n">
-        <v>149</v>
-      </c>
-      <c r="CE13" t="n">
-        <v>120.0914336715691</v>
-      </c>
-      <c r="CF13" t="n">
-        <v>120</v>
-      </c>
-      <c r="CG13" t="n">
-        <v>41.34581394873481</v>
-      </c>
-      <c r="CH13" t="n">
-        <v>6.430071068715711</v>
-      </c>
-      <c r="CI13" t="n">
-        <v>116</v>
-      </c>
-      <c r="CJ13" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK13" t="n">
-        <v>136.1157064318047</v>
-      </c>
-      <c r="CL13" t="n">
-        <v>137</v>
-      </c>
-      <c r="CM13" t="n">
-        <v>38.16923237567388</v>
-      </c>
-      <c r="CN13" t="n">
-        <v>6.178125312396462</v>
-      </c>
-      <c r="CO13" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP13" t="n">
-        <v>140</v>
       </c>
     </row>
     <row r="14">
@@ -4461,166 +2985,58 @@
         <v>141</v>
       </c>
       <c r="AO14" t="n">
-        <v>115.161613783686</v>
+        <v>103.9345307174831</v>
       </c>
       <c r="AP14" t="n">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="AQ14" t="n">
-        <v>2539.442380486326</v>
+        <v>2039.91571940014</v>
       </c>
       <c r="AR14" t="n">
-        <v>50.39288025590844</v>
+        <v>45.16542615098567</v>
       </c>
       <c r="AS14" t="n">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="AT14" t="n">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="AU14" t="n">
-        <v>100.1904054775588</v>
+        <v>108.8616765882658</v>
       </c>
       <c r="AV14" t="n">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="AW14" t="n">
-        <v>21.47298729881585</v>
+        <v>2297.686868309642</v>
       </c>
       <c r="AX14" t="n">
-        <v>4.633895477761216</v>
+        <v>47.93419310168517</v>
       </c>
       <c r="AY14" t="n">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="AZ14" t="n">
+        <v>149</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>101.3226611827679</v>
+      </c>
+      <c r="BB14" t="n">
         <v>103</v>
       </c>
-      <c r="BA14" t="n">
-        <v>144.7808913869105</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>143</v>
-      </c>
       <c r="BC14" t="n">
-        <v>82.59004123215128</v>
+        <v>3044.04699725334</v>
       </c>
       <c r="BD14" t="n">
-        <v>9.087906317307153</v>
+        <v>55.1728828071666</v>
       </c>
       <c r="BE14" t="n">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="BF14" t="n">
-        <v>151</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>103.9345307174831</v>
-      </c>
-      <c r="BH14" t="n">
-        <v>113</v>
-      </c>
-      <c r="BI14" t="n">
-        <v>2039.91571940014</v>
-      </c>
-      <c r="BJ14" t="n">
-        <v>45.16542615098567</v>
-      </c>
-      <c r="BK14" t="n">
-        <v>64</v>
-      </c>
-      <c r="BL14" t="n">
-        <v>142</v>
-      </c>
-      <c r="BM14" t="n">
-        <v>108.8616765882658</v>
-      </c>
-      <c r="BN14" t="n">
-        <v>118</v>
-      </c>
-      <c r="BO14" t="n">
-        <v>2297.686868309642</v>
-      </c>
-      <c r="BP14" t="n">
-        <v>47.93419310168517</v>
-      </c>
-      <c r="BQ14" t="n">
-        <v>66</v>
-      </c>
-      <c r="BR14" t="n">
-        <v>149</v>
-      </c>
-      <c r="BS14" t="n">
-        <v>101.3226611827679</v>
-      </c>
-      <c r="BT14" t="n">
-        <v>103</v>
-      </c>
-      <c r="BU14" t="n">
-        <v>3044.04699725334</v>
-      </c>
-      <c r="BV14" t="n">
-        <v>55.1728828071666</v>
-      </c>
-      <c r="BW14" t="n">
-        <v>50</v>
-      </c>
-      <c r="BX14" t="n">
         <v>148</v>
-      </c>
-      <c r="BY14" t="n">
-        <v>109.0979437012887</v>
-      </c>
-      <c r="BZ14" t="n">
-        <v>118</v>
-      </c>
-      <c r="CA14" t="n">
-        <v>2284.268969843717</v>
-      </c>
-      <c r="CB14" t="n">
-        <v>47.7940265079614</v>
-      </c>
-      <c r="CC14" t="n">
-        <v>67</v>
-      </c>
-      <c r="CD14" t="n">
-        <v>149</v>
-      </c>
-      <c r="CE14" t="n">
-        <v>121.7611207057506</v>
-      </c>
-      <c r="CF14" t="n">
-        <v>123</v>
-      </c>
-      <c r="CG14" t="n">
-        <v>43.96282747086256</v>
-      </c>
-      <c r="CH14" t="n">
-        <v>6.630447003849934</v>
-      </c>
-      <c r="CI14" t="n">
-        <v>118</v>
-      </c>
-      <c r="CJ14" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK14" t="n">
-        <v>134.0278273875171</v>
-      </c>
-      <c r="CL14" t="n">
-        <v>133</v>
-      </c>
-      <c r="CM14" t="n">
-        <v>42.59878348920789</v>
-      </c>
-      <c r="CN14" t="n">
-        <v>6.526774355622224</v>
-      </c>
-      <c r="CO14" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP14" t="n">
-        <v>139</v>
       </c>
     </row>
     <row r="15">
@@ -4747,166 +3163,58 @@
         <v>148</v>
       </c>
       <c r="AO15" t="n">
-        <v>128.1533339908171</v>
+        <v>114.0050303773174</v>
       </c>
       <c r="AP15" t="n">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1266.696973221519</v>
+        <v>1076.790227341285</v>
       </c>
       <c r="AR15" t="n">
-        <v>35.59068660789673</v>
+        <v>32.81448197581801</v>
       </c>
       <c r="AS15" t="n">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="AT15" t="n">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="AU15" t="n">
-        <v>101.5297963301724</v>
+        <v>120.1275440318473</v>
       </c>
       <c r="AV15" t="n">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="AW15" t="n">
-        <v>32.08662309596143</v>
+        <v>1254.566895298842</v>
       </c>
       <c r="AX15" t="n">
-        <v>5.664505547350221</v>
+        <v>35.41986582835742</v>
       </c>
       <c r="AY15" t="n">
+        <v>94</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>145</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>101.9608114602559</v>
+      </c>
+      <c r="BB15" t="n">
         <v>96</v>
       </c>
-      <c r="AZ15" t="n">
-        <v>105</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>149.8148649929426</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>150</v>
-      </c>
       <c r="BC15" t="n">
-        <v>163.0119575195182</v>
+        <v>1729.907610014688</v>
       </c>
       <c r="BD15" t="n">
-        <v>12.76761361882158</v>
+        <v>41.59215803507541</v>
       </c>
       <c r="BE15" t="n">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="BF15" t="n">
-        <v>160</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>114.0050303773174</v>
-      </c>
-      <c r="BH15" t="n">
-        <v>111</v>
-      </c>
-      <c r="BI15" t="n">
-        <v>1076.790227341285</v>
-      </c>
-      <c r="BJ15" t="n">
-        <v>32.81448197581801</v>
-      </c>
-      <c r="BK15" t="n">
-        <v>90</v>
-      </c>
-      <c r="BL15" t="n">
-        <v>138</v>
-      </c>
-      <c r="BM15" t="n">
-        <v>120.1275440318473</v>
-      </c>
-      <c r="BN15" t="n">
-        <v>117</v>
-      </c>
-      <c r="BO15" t="n">
-        <v>1254.566895298842</v>
-      </c>
-      <c r="BP15" t="n">
-        <v>35.41986582835742</v>
-      </c>
-      <c r="BQ15" t="n">
-        <v>94</v>
-      </c>
-      <c r="BR15" t="n">
-        <v>145</v>
-      </c>
-      <c r="BS15" t="n">
-        <v>101.9608114602559</v>
-      </c>
-      <c r="BT15" t="n">
-        <v>96</v>
-      </c>
-      <c r="BU15" t="n">
-        <v>1729.907610014688</v>
-      </c>
-      <c r="BV15" t="n">
-        <v>41.59215803507541</v>
-      </c>
-      <c r="BW15" t="n">
-        <v>68</v>
-      </c>
-      <c r="BX15" t="n">
         <v>137</v>
-      </c>
-      <c r="BY15" t="n">
-        <v>120.1746067229285</v>
-      </c>
-      <c r="BZ15" t="n">
-        <v>117</v>
-      </c>
-      <c r="CA15" t="n">
-        <v>1230.433691365475</v>
-      </c>
-      <c r="CB15" t="n">
-        <v>35.07753827402195</v>
-      </c>
-      <c r="CC15" t="n">
-        <v>94</v>
-      </c>
-      <c r="CD15" t="n">
-        <v>145</v>
-      </c>
-      <c r="CE15" t="n">
-        <v>118.2263078028423</v>
-      </c>
-      <c r="CF15" t="n">
-        <v>118</v>
-      </c>
-      <c r="CG15" t="n">
-        <v>88.24439515090936</v>
-      </c>
-      <c r="CH15" t="n">
-        <v>9.393848793274744</v>
-      </c>
-      <c r="CI15" t="n">
-        <v>112</v>
-      </c>
-      <c r="CJ15" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK15" t="n">
-        <v>135.8743178676931</v>
-      </c>
-      <c r="CL15" t="n">
-        <v>135</v>
-      </c>
-      <c r="CM15" t="n">
-        <v>61.51658588442093</v>
-      </c>
-      <c r="CN15" t="n">
-        <v>7.843250976758357</v>
-      </c>
-      <c r="CO15" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP15" t="n">
-        <v>141</v>
       </c>
     </row>
     <row r="16">
@@ -5033,166 +3341,58 @@
         <v>149</v>
       </c>
       <c r="AO16" t="n">
-        <v>99.77609707006879</v>
+        <v>88.93188131031941</v>
       </c>
       <c r="AP16" t="n">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1116.252105674552</v>
+        <v>968.0686613793451</v>
       </c>
       <c r="AR16" t="n">
-        <v>33.41035925689145</v>
+        <v>31.11380178279962</v>
       </c>
       <c r="AS16" t="n">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="AT16" t="n">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="AU16" t="n">
-        <v>103.2400577732971</v>
+        <v>92.55984672875236</v>
       </c>
       <c r="AV16" t="n">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AW16" t="n">
-        <v>32.093644644835</v>
+        <v>1029.189929935731</v>
       </c>
       <c r="AX16" t="n">
-        <v>5.66512529824672</v>
+        <v>32.08099016451536</v>
       </c>
       <c r="AY16" t="n">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="AZ16" t="n">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="BA16" t="n">
-        <v>149.7390067451104</v>
+        <v>73.33866658404065</v>
       </c>
       <c r="BB16" t="n">
-        <v>153</v>
+        <v>61</v>
       </c>
       <c r="BC16" t="n">
-        <v>97.73327993202</v>
+        <v>1234.446864226757</v>
       </c>
       <c r="BD16" t="n">
-        <v>9.886014360298088</v>
+        <v>35.13469601728121</v>
       </c>
       <c r="BE16" t="n">
-        <v>136</v>
+        <v>47</v>
       </c>
       <c r="BF16" t="n">
-        <v>158</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>88.93188131031941</v>
-      </c>
-      <c r="BH16" t="n">
-        <v>78</v>
-      </c>
-      <c r="BI16" t="n">
-        <v>968.0686613793453</v>
-      </c>
-      <c r="BJ16" t="n">
-        <v>31.11380178279963</v>
-      </c>
-      <c r="BK16" t="n">
-        <v>64</v>
-      </c>
-      <c r="BL16" t="n">
-        <v>111</v>
-      </c>
-      <c r="BM16" t="n">
-        <v>92.55984672875236</v>
-      </c>
-      <c r="BN16" t="n">
-        <v>82</v>
-      </c>
-      <c r="BO16" t="n">
-        <v>1029.189929935731</v>
-      </c>
-      <c r="BP16" t="n">
-        <v>32.08099016451536</v>
-      </c>
-      <c r="BQ16" t="n">
-        <v>68</v>
-      </c>
-      <c r="BR16" t="n">
-        <v>115</v>
-      </c>
-      <c r="BS16" t="n">
-        <v>73.33866658404065</v>
-      </c>
-      <c r="BT16" t="n">
-        <v>61</v>
-      </c>
-      <c r="BU16" t="n">
-        <v>1234.446864226757</v>
-      </c>
-      <c r="BV16" t="n">
-        <v>35.13469601728121</v>
-      </c>
-      <c r="BW16" t="n">
-        <v>47</v>
-      </c>
-      <c r="BX16" t="n">
         <v>94</v>
-      </c>
-      <c r="BY16" t="n">
-        <v>93.03829102300682</v>
-      </c>
-      <c r="BZ16" t="n">
-        <v>82</v>
-      </c>
-      <c r="CA16" t="n">
-        <v>1046.04552056255</v>
-      </c>
-      <c r="CB16" t="n">
-        <v>32.34262698920033</v>
-      </c>
-      <c r="CC16" t="n">
-        <v>68</v>
-      </c>
-      <c r="CD16" t="n">
-        <v>116</v>
-      </c>
-      <c r="CE16" t="n">
-        <v>117.7300410137205</v>
-      </c>
-      <c r="CF16" t="n">
-        <v>116</v>
-      </c>
-      <c r="CG16" t="n">
-        <v>55.54204816783632</v>
-      </c>
-      <c r="CH16" t="n">
-        <v>7.452653766802555</v>
-      </c>
-      <c r="CI16" t="n">
-        <v>112</v>
-      </c>
-      <c r="CJ16" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK16" t="n">
-        <v>138.1932676404406</v>
-      </c>
-      <c r="CL16" t="n">
-        <v>139</v>
-      </c>
-      <c r="CM16" t="n">
-        <v>59.64714835898332</v>
-      </c>
-      <c r="CN16" t="n">
-        <v>7.723156631778441</v>
-      </c>
-      <c r="CO16" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP16" t="n">
-        <v>144</v>
       </c>
     </row>
     <row r="17">
@@ -5253,7 +3453,7 @@
         <v>106</v>
       </c>
       <c r="S17" t="n">
-        <v>917.0010731140409</v>
+        <v>917.0010731140408</v>
       </c>
       <c r="T17" t="n">
         <v>30.2820255781221</v>
@@ -5265,7 +3465,7 @@
         <v>130</v>
       </c>
       <c r="W17" t="n">
-        <v>93.89835806032319</v>
+        <v>93.8983580603232</v>
       </c>
       <c r="X17" t="n">
         <v>89</v>
@@ -5319,166 +3519,58 @@
         <v>151</v>
       </c>
       <c r="AO17" t="n">
-        <v>93.36586962957803</v>
+        <v>84.3712221217768</v>
       </c>
       <c r="AP17" t="n">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AQ17" t="n">
-        <v>859.7982481928539</v>
+        <v>700.1290116294285</v>
       </c>
       <c r="AR17" t="n">
-        <v>29.32231655570299</v>
+        <v>26.45995108894627</v>
       </c>
       <c r="AS17" t="n">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="AT17" t="n">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="AU17" t="n">
-        <v>106.9036794669418</v>
+        <v>85.56345587851135</v>
       </c>
       <c r="AV17" t="n">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="AW17" t="n">
-        <v>63.58442918394632</v>
+        <v>771.6724479861984</v>
       </c>
       <c r="AX17" t="n">
-        <v>7.973984523683647</v>
+        <v>27.77899292606192</v>
       </c>
       <c r="AY17" t="n">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="AZ17" t="n">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="BA17" t="n">
-        <v>150.5594066722856</v>
+        <v>62.20503300186343</v>
       </c>
       <c r="BB17" t="n">
-        <v>154</v>
+        <v>56</v>
       </c>
       <c r="BC17" t="n">
-        <v>111.3876607945632</v>
+        <v>740.3696512047178</v>
       </c>
       <c r="BD17" t="n">
-        <v>10.55403528488337</v>
+        <v>27.20973449346241</v>
       </c>
       <c r="BE17" t="n">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="BF17" t="n">
-        <v>159</v>
-      </c>
-      <c r="BG17" t="n">
-        <v>84.3712221217768</v>
-      </c>
-      <c r="BH17" t="n">
-        <v>79</v>
-      </c>
-      <c r="BI17" t="n">
-        <v>700.1290116294285</v>
-      </c>
-      <c r="BJ17" t="n">
-        <v>26.45995108894626</v>
-      </c>
-      <c r="BK17" t="n">
-        <v>64</v>
-      </c>
-      <c r="BL17" t="n">
-        <v>100</v>
-      </c>
-      <c r="BM17" t="n">
-        <v>85.56345587851135</v>
-      </c>
-      <c r="BN17" t="n">
         <v>80</v>
-      </c>
-      <c r="BO17" t="n">
-        <v>771.6724479861984</v>
-      </c>
-      <c r="BP17" t="n">
-        <v>27.77899292606192</v>
-      </c>
-      <c r="BQ17" t="n">
-        <v>64</v>
-      </c>
-      <c r="BR17" t="n">
-        <v>102</v>
-      </c>
-      <c r="BS17" t="n">
-        <v>62.20503300186343</v>
-      </c>
-      <c r="BT17" t="n">
-        <v>56</v>
-      </c>
-      <c r="BU17" t="n">
-        <v>740.3696512047178</v>
-      </c>
-      <c r="BV17" t="n">
-        <v>27.20973449346241</v>
-      </c>
-      <c r="BW17" t="n">
-        <v>41</v>
-      </c>
-      <c r="BX17" t="n">
-        <v>80</v>
-      </c>
-      <c r="BY17" t="n">
-        <v>86.91257807169059</v>
-      </c>
-      <c r="BZ17" t="n">
-        <v>81</v>
-      </c>
-      <c r="CA17" t="n">
-        <v>773.4599997482612</v>
-      </c>
-      <c r="CB17" t="n">
-        <v>27.81114883905843</v>
-      </c>
-      <c r="CC17" t="n">
-        <v>66</v>
-      </c>
-      <c r="CD17" t="n">
-        <v>103</v>
-      </c>
-      <c r="CE17" t="n">
-        <v>116.3546321692937</v>
-      </c>
-      <c r="CF17" t="n">
-        <v>114</v>
-      </c>
-      <c r="CG17" t="n">
-        <v>69.23474911069641</v>
-      </c>
-      <c r="CH17" t="n">
-        <v>8.320742100960491</v>
-      </c>
-      <c r="CI17" t="n">
-        <v>110</v>
-      </c>
-      <c r="CJ17" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK17" t="n">
-        <v>142.6680957109891</v>
-      </c>
-      <c r="CL17" t="n">
-        <v>146</v>
-      </c>
-      <c r="CM17" t="n">
-        <v>109.593004244621</v>
-      </c>
-      <c r="CN17" t="n">
-        <v>10.46866773971841</v>
-      </c>
-      <c r="CO17" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP17" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="18">
@@ -5605,166 +3697,58 @@
         <v>151</v>
       </c>
       <c r="AO18" t="n">
-        <v>103.6990679208109</v>
+        <v>92.7236310101718</v>
       </c>
       <c r="AP18" t="n">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1562.696381772219</v>
+        <v>1288.727199809057</v>
       </c>
       <c r="AR18" t="n">
-        <v>39.53095472882257</v>
+        <v>35.89884677547535</v>
       </c>
       <c r="AS18" t="n">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="AT18" t="n">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="AU18" t="n">
-        <v>104.2938124710454</v>
+        <v>96.40418812543147</v>
       </c>
       <c r="AV18" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="AW18" t="n">
-        <v>42.57340846640772</v>
+        <v>1441.223448850312</v>
       </c>
       <c r="AX18" t="n">
-        <v>6.524830148471891</v>
+        <v>37.96344885347368</v>
       </c>
       <c r="AY18" t="n">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="AZ18" t="n">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="BA18" t="n">
-        <v>151.5186765720456</v>
+        <v>73.44060370263495</v>
       </c>
       <c r="BB18" t="n">
-        <v>154</v>
+        <v>61</v>
       </c>
       <c r="BC18" t="n">
-        <v>129.225350344766</v>
+        <v>1432.099646982</v>
       </c>
       <c r="BD18" t="n">
-        <v>11.36773285861196</v>
+        <v>37.84309246060633</v>
       </c>
       <c r="BE18" t="n">
-        <v>136</v>
+        <v>43</v>
       </c>
       <c r="BF18" t="n">
-        <v>161</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>92.7236310101718</v>
-      </c>
-      <c r="BH18" t="n">
-        <v>86</v>
-      </c>
-      <c r="BI18" t="n">
-        <v>1288.727199809057</v>
-      </c>
-      <c r="BJ18" t="n">
-        <v>35.89884677547535</v>
-      </c>
-      <c r="BK18" t="n">
-        <v>63</v>
-      </c>
-      <c r="BL18" t="n">
-        <v>121</v>
-      </c>
-      <c r="BM18" t="n">
-        <v>96.40418812543149</v>
-      </c>
-      <c r="BN18" t="n">
-        <v>88</v>
-      </c>
-      <c r="BO18" t="n">
-        <v>1441.223448850312</v>
-      </c>
-      <c r="BP18" t="n">
-        <v>37.96344885347368</v>
-      </c>
-      <c r="BQ18" t="n">
-        <v>65</v>
-      </c>
-      <c r="BR18" t="n">
-        <v>126</v>
-      </c>
-      <c r="BS18" t="n">
-        <v>73.44060370263495</v>
-      </c>
-      <c r="BT18" t="n">
-        <v>61</v>
-      </c>
-      <c r="BU18" t="n">
-        <v>1432.099646982</v>
-      </c>
-      <c r="BV18" t="n">
-        <v>37.84309246060633</v>
-      </c>
-      <c r="BW18" t="n">
-        <v>43</v>
-      </c>
-      <c r="BX18" t="n">
         <v>101</v>
-      </c>
-      <c r="BY18" t="n">
-        <v>96.95671619655209</v>
-      </c>
-      <c r="BZ18" t="n">
-        <v>89</v>
-      </c>
-      <c r="CA18" t="n">
-        <v>1437.927478785792</v>
-      </c>
-      <c r="CB18" t="n">
-        <v>37.92001422449353</v>
-      </c>
-      <c r="CC18" t="n">
-        <v>65</v>
-      </c>
-      <c r="CD18" t="n">
-        <v>127</v>
-      </c>
-      <c r="CE18" t="n">
-        <v>116.2893343865297</v>
-      </c>
-      <c r="CF18" t="n">
-        <v>114</v>
-      </c>
-      <c r="CG18" t="n">
-        <v>71.63765250174258</v>
-      </c>
-      <c r="CH18" t="n">
-        <v>8.4639029118807</v>
-      </c>
-      <c r="CI18" t="n">
-        <v>109</v>
-      </c>
-      <c r="CJ18" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK18" t="n">
-        <v>139.5969867250591</v>
-      </c>
-      <c r="CL18" t="n">
-        <v>141</v>
-      </c>
-      <c r="CM18" t="n">
-        <v>76.53568921272947</v>
-      </c>
-      <c r="CN18" t="n">
-        <v>8.74846782086609</v>
-      </c>
-      <c r="CO18" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP18" t="n">
-        <v>146</v>
       </c>
     </row>
     <row r="19">
@@ -5891,166 +3875,58 @@
         <v>136</v>
       </c>
       <c r="AO19" t="n">
-        <v>149.788825801399</v>
+        <v>135.4898453862082</v>
       </c>
       <c r="AP19" t="n">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="AQ19" t="n">
-        <v>2394.654380829994</v>
+        <v>2151.789107439798</v>
       </c>
       <c r="AR19" t="n">
-        <v>48.93520594449352</v>
+        <v>46.38738090730925</v>
       </c>
       <c r="AS19" t="n">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="AT19" t="n">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="AU19" t="n">
-        <v>97.59653382166928</v>
+        <v>143.1110988495927</v>
       </c>
       <c r="AV19" t="n">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="AW19" t="n">
-        <v>9.547349787279083</v>
+        <v>2407.458517744883</v>
       </c>
       <c r="AX19" t="n">
-        <v>3.089878603971211</v>
+        <v>49.0658589830534</v>
       </c>
       <c r="AY19" t="n">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="AZ19" t="n">
-        <v>99</v>
+        <v>185</v>
       </c>
       <c r="BA19" t="n">
-        <v>141.226826497145</v>
+        <v>144.0882147031427</v>
       </c>
       <c r="BB19" t="n">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="BC19" t="n">
-        <v>62.81563443295491</v>
+        <v>3974.563510193985</v>
       </c>
       <c r="BD19" t="n">
-        <v>7.925631484806425</v>
+        <v>63.04413938023094</v>
       </c>
       <c r="BE19" t="n">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="BF19" t="n">
-        <v>148</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>135.4898453862082</v>
-      </c>
-      <c r="BH19" t="n">
-        <v>144</v>
-      </c>
-      <c r="BI19" t="n">
-        <v>2151.789107439798</v>
-      </c>
-      <c r="BJ19" t="n">
-        <v>46.38738090730925</v>
-      </c>
-      <c r="BK19" t="n">
-        <v>98</v>
-      </c>
-      <c r="BL19" t="n">
-        <v>176</v>
-      </c>
-      <c r="BM19" t="n">
-        <v>143.1110988495927</v>
-      </c>
-      <c r="BN19" t="n">
-        <v>152</v>
-      </c>
-      <c r="BO19" t="n">
-        <v>2407.458517744883</v>
-      </c>
-      <c r="BP19" t="n">
-        <v>49.0658589830534</v>
-      </c>
-      <c r="BQ19" t="n">
-        <v>103</v>
-      </c>
-      <c r="BR19" t="n">
-        <v>185</v>
-      </c>
-      <c r="BS19" t="n">
-        <v>144.0882147031427</v>
-      </c>
-      <c r="BT19" t="n">
-        <v>155</v>
-      </c>
-      <c r="BU19" t="n">
-        <v>3974.563510193985</v>
-      </c>
-      <c r="BV19" t="n">
-        <v>63.04413938023094</v>
-      </c>
-      <c r="BW19" t="n">
-        <v>91</v>
-      </c>
-      <c r="BX19" t="n">
         <v>201</v>
-      </c>
-      <c r="BY19" t="n">
-        <v>142.9587713365253</v>
-      </c>
-      <c r="BZ19" t="n">
-        <v>152</v>
-      </c>
-      <c r="CA19" t="n">
-        <v>2398.211130590842</v>
-      </c>
-      <c r="CB19" t="n">
-        <v>48.97153388031502</v>
-      </c>
-      <c r="CC19" t="n">
-        <v>103</v>
-      </c>
-      <c r="CD19" t="n">
-        <v>185</v>
-      </c>
-      <c r="CE19" t="n">
-        <v>124.5422385992493</v>
-      </c>
-      <c r="CF19" t="n">
-        <v>128</v>
-      </c>
-      <c r="CG19" t="n">
-        <v>31.18527308169181</v>
-      </c>
-      <c r="CH19" t="n">
-        <v>5.584377591253283</v>
-      </c>
-      <c r="CI19" t="n">
-        <v>121</v>
-      </c>
-      <c r="CJ19" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK19" t="n">
-        <v>130.1557759285153</v>
-      </c>
-      <c r="CL19" t="n">
-        <v>128</v>
-      </c>
-      <c r="CM19" t="n">
-        <v>22.23960634668132</v>
-      </c>
-      <c r="CN19" t="n">
-        <v>4.715888712287571</v>
-      </c>
-      <c r="CO19" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP19" t="n">
-        <v>132</v>
       </c>
     </row>
     <row r="20">
@@ -6096,7 +3972,7 @@
         <v>848.7229023860918</v>
       </c>
       <c r="N20" t="n">
-        <v>29.13284919787441</v>
+        <v>29.13284919787442</v>
       </c>
       <c r="O20" t="n">
         <v>87</v>
@@ -6168,7 +4044,7 @@
         <v>97.07667775026842</v>
       </c>
       <c r="AL20" t="n">
-        <v>9.852749755792463</v>
+        <v>9.852749755792464</v>
       </c>
       <c r="AM20" t="n">
         <v>128</v>
@@ -6177,166 +4053,58 @@
         <v>148</v>
       </c>
       <c r="AO20" t="n">
-        <v>108.8951409494273</v>
+        <v>97.68688369383705</v>
       </c>
       <c r="AP20" t="n">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1347.413804477689</v>
+        <v>1133.114933942615</v>
       </c>
       <c r="AR20" t="n">
-        <v>36.70713560709538</v>
+        <v>33.66177259061998</v>
       </c>
       <c r="AS20" t="n">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="AT20" t="n">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="AU20" t="n">
-        <v>103.1371793791398</v>
+        <v>101.3852209978011</v>
       </c>
       <c r="AV20" t="n">
         <v>104</v>
       </c>
       <c r="AW20" t="n">
-        <v>40.02233613730647</v>
+        <v>1232.60879711567</v>
       </c>
       <c r="AX20" t="n">
-        <v>6.326320900595106</v>
+        <v>35.10852883724509</v>
       </c>
       <c r="AY20" t="n">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="AZ20" t="n">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="BA20" t="n">
-        <v>148.9747281058058</v>
+        <v>81.70175741019833</v>
       </c>
       <c r="BB20" t="n">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="BC20" t="n">
-        <v>119.1249551405792</v>
+        <v>1259.476222383962</v>
       </c>
       <c r="BD20" t="n">
-        <v>10.91443792142221</v>
+        <v>35.48910005035295</v>
       </c>
       <c r="BE20" t="n">
-        <v>136</v>
+        <v>48</v>
       </c>
       <c r="BF20" t="n">
-        <v>158</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>97.68688369383705</v>
-      </c>
-      <c r="BH20" t="n">
-        <v>100</v>
-      </c>
-      <c r="BI20" t="n">
-        <v>1133.114933942615</v>
-      </c>
-      <c r="BJ20" t="n">
-        <v>33.66177259061998</v>
-      </c>
-      <c r="BK20" t="n">
-        <v>63</v>
-      </c>
-      <c r="BL20" t="n">
-        <v>128</v>
-      </c>
-      <c r="BM20" t="n">
-        <v>101.3852209978011</v>
-      </c>
-      <c r="BN20" t="n">
-        <v>104</v>
-      </c>
-      <c r="BO20" t="n">
-        <v>1232.60879711567</v>
-      </c>
-      <c r="BP20" t="n">
-        <v>35.10852883724509</v>
-      </c>
-      <c r="BQ20" t="n">
-        <v>66</v>
-      </c>
-      <c r="BR20" t="n">
-        <v>133</v>
-      </c>
-      <c r="BS20" t="n">
-        <v>81.70175741019833</v>
-      </c>
-      <c r="BT20" t="n">
-        <v>81</v>
-      </c>
-      <c r="BU20" t="n">
-        <v>1259.476222383962</v>
-      </c>
-      <c r="BV20" t="n">
-        <v>35.48910005035295</v>
-      </c>
-      <c r="BW20" t="n">
-        <v>48</v>
-      </c>
-      <c r="BX20" t="n">
         <v>112</v>
-      </c>
-      <c r="BY20" t="n">
-        <v>102.0021740684243</v>
-      </c>
-      <c r="BZ20" t="n">
-        <v>104</v>
-      </c>
-      <c r="CA20" t="n">
-        <v>1242.845706361596</v>
-      </c>
-      <c r="CB20" t="n">
-        <v>35.25401688264184</v>
-      </c>
-      <c r="CC20" t="n">
-        <v>66</v>
-      </c>
-      <c r="CD20" t="n">
-        <v>134</v>
-      </c>
-      <c r="CE20" t="n">
-        <v>118.4426461559205</v>
-      </c>
-      <c r="CF20" t="n">
-        <v>116</v>
-      </c>
-      <c r="CG20" t="n">
-        <v>64.27591403164671</v>
-      </c>
-      <c r="CH20" t="n">
-        <v>8.017226080861553</v>
-      </c>
-      <c r="CI20" t="n">
-        <v>112</v>
-      </c>
-      <c r="CJ20" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK20" t="n">
-        <v>137.9531999973997</v>
-      </c>
-      <c r="CL20" t="n">
-        <v>139</v>
-      </c>
-      <c r="CM20" t="n">
-        <v>73.80528888042024</v>
-      </c>
-      <c r="CN20" t="n">
-        <v>8.591000458643931</v>
-      </c>
-      <c r="CO20" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP20" t="n">
-        <v>145</v>
       </c>
     </row>
     <row r="21">
@@ -6454,7 +4222,7 @@
         <v>82.78769149195449</v>
       </c>
       <c r="AL21" t="n">
-        <v>9.098774175236711</v>
+        <v>9.098774175236713</v>
       </c>
       <c r="AM21" t="n">
         <v>128</v>
@@ -6463,166 +4231,58 @@
         <v>143</v>
       </c>
       <c r="AO21" t="n">
-        <v>131.0242396998972</v>
+        <v>116.8382525099554</v>
       </c>
       <c r="AP21" t="n">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1736.915508435592</v>
+        <v>1508.936206570697</v>
       </c>
       <c r="AR21" t="n">
-        <v>41.67631831670825</v>
+        <v>38.84502808044675</v>
       </c>
       <c r="AS21" t="n">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="AT21" t="n">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="AU21" t="n">
-        <v>98.7358791288688</v>
+        <v>123.6214756276129</v>
       </c>
       <c r="AV21" t="n">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="AW21" t="n">
-        <v>15.37121230220992</v>
+        <v>1679.640471337485</v>
       </c>
       <c r="AX21" t="n">
-        <v>3.920613766007807</v>
+        <v>40.9834170285676</v>
       </c>
       <c r="AY21" t="n">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="AZ21" t="n">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="BA21" t="n">
-        <v>144.1371986890527</v>
+        <v>109.3203684733192</v>
       </c>
       <c r="BB21" t="n">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="BC21" t="n">
-        <v>109.4525101737079</v>
+        <v>2379.7520470365</v>
       </c>
       <c r="BD21" t="n">
-        <v>10.46195537047009</v>
+        <v>48.78270233429571</v>
       </c>
       <c r="BE21" t="n">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="BF21" t="n">
-        <v>153</v>
-      </c>
-      <c r="BG21" t="n">
-        <v>116.8382525099555</v>
-      </c>
-      <c r="BH21" t="n">
-        <v>123</v>
-      </c>
-      <c r="BI21" t="n">
-        <v>1508.936206570697</v>
-      </c>
-      <c r="BJ21" t="n">
-        <v>38.84502808044675</v>
-      </c>
-      <c r="BK21" t="n">
-        <v>84</v>
-      </c>
-      <c r="BL21" t="n">
-        <v>152</v>
-      </c>
-      <c r="BM21" t="n">
-        <v>123.6214756276129</v>
-      </c>
-      <c r="BN21" t="n">
-        <v>130</v>
-      </c>
-      <c r="BO21" t="n">
-        <v>1679.640471337485</v>
-      </c>
-      <c r="BP21" t="n">
-        <v>40.9834170285676</v>
-      </c>
-      <c r="BQ21" t="n">
-        <v>89</v>
-      </c>
-      <c r="BR21" t="n">
-        <v>160</v>
-      </c>
-      <c r="BS21" t="n">
-        <v>109.3203684733192</v>
-      </c>
-      <c r="BT21" t="n">
-        <v>110</v>
-      </c>
-      <c r="BU21" t="n">
-        <v>2379.7520470365</v>
-      </c>
-      <c r="BV21" t="n">
-        <v>48.78270233429571</v>
-      </c>
-      <c r="BW21" t="n">
-        <v>68</v>
-      </c>
-      <c r="BX21" t="n">
         <v>155</v>
-      </c>
-      <c r="BY21" t="n">
-        <v>123.4154142791247</v>
-      </c>
-      <c r="BZ21" t="n">
-        <v>130</v>
-      </c>
-      <c r="CA21" t="n">
-        <v>1674.813687929063</v>
-      </c>
-      <c r="CB21" t="n">
-        <v>40.92448763184535</v>
-      </c>
-      <c r="CC21" t="n">
-        <v>88</v>
-      </c>
-      <c r="CD21" t="n">
-        <v>160</v>
-      </c>
-      <c r="CE21" t="n">
-        <v>122.4274899609624</v>
-      </c>
-      <c r="CF21" t="n">
-        <v>128</v>
-      </c>
-      <c r="CG21" t="n">
-        <v>53.75224377632456</v>
-      </c>
-      <c r="CH21" t="n">
-        <v>7.331592171985875</v>
-      </c>
-      <c r="CI21" t="n">
-        <v>116</v>
-      </c>
-      <c r="CJ21" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK21" t="n">
-        <v>132.046477566577</v>
-      </c>
-      <c r="CL21" t="n">
-        <v>128</v>
-      </c>
-      <c r="CM21" t="n">
-        <v>31.50353921404433</v>
-      </c>
-      <c r="CN21" t="n">
-        <v>5.612801369551957</v>
-      </c>
-      <c r="CO21" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP21" t="n">
-        <v>136</v>
       </c>
     </row>
     <row r="22">
@@ -6641,7 +4301,7 @@
         <v>57.08770025857025</v>
       </c>
       <c r="E22" t="n">
-        <v>13.93720848813673</v>
+        <v>13.93720848813674</v>
       </c>
       <c r="F22" t="n">
         <v>14</v>
@@ -6749,166 +4409,58 @@
         <v>143</v>
       </c>
       <c r="AO22" t="n">
-        <v>118.8012968839158</v>
+        <v>108.4362717873926</v>
       </c>
       <c r="AP22" t="n">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1193.083073268532</v>
+        <v>1035.167244515268</v>
       </c>
       <c r="AR22" t="n">
-        <v>34.54103462938729</v>
+        <v>32.17401505120659</v>
       </c>
       <c r="AS22" t="n">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AT22" t="n">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="AU22" t="n">
-        <v>100.7536432354144</v>
+        <v>110.0861921967865</v>
       </c>
       <c r="AV22" t="n">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="AW22" t="n">
-        <v>65.383737475247</v>
+        <v>1134.394229590591</v>
       </c>
       <c r="AX22" t="n">
-        <v>8.086021115186814</v>
+        <v>33.68076943287655</v>
       </c>
       <c r="AY22" t="n">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="AZ22" t="n">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="BA22" t="n">
-        <v>142.0210875472764</v>
+        <v>88.95977411700153</v>
       </c>
       <c r="BB22" t="n">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="BC22" t="n">
-        <v>101.9157234802442</v>
+        <v>1365.136967651861</v>
       </c>
       <c r="BD22" t="n">
-        <v>10.09533176672487</v>
+        <v>36.94775998151798</v>
       </c>
       <c r="BE22" t="n">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="BF22" t="n">
-        <v>152</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>108.4362717873926</v>
-      </c>
-      <c r="BH22" t="n">
-        <v>114</v>
-      </c>
-      <c r="BI22" t="n">
-        <v>1035.167244515268</v>
-      </c>
-      <c r="BJ22" t="n">
-        <v>32.17401505120659</v>
-      </c>
-      <c r="BK22" t="n">
-        <v>81</v>
-      </c>
-      <c r="BL22" t="n">
-        <v>136</v>
-      </c>
-      <c r="BM22" t="n">
-        <v>110.0861921967865</v>
-      </c>
-      <c r="BN22" t="n">
-        <v>115</v>
-      </c>
-      <c r="BO22" t="n">
-        <v>1134.394229590591</v>
-      </c>
-      <c r="BP22" t="n">
-        <v>33.68076943287655</v>
-      </c>
-      <c r="BQ22" t="n">
-        <v>81</v>
-      </c>
-      <c r="BR22" t="n">
-        <v>139</v>
-      </c>
-      <c r="BS22" t="n">
-        <v>88.95977411700153</v>
-      </c>
-      <c r="BT22" t="n">
-        <v>91</v>
-      </c>
-      <c r="BU22" t="n">
-        <v>1365.136967651861</v>
-      </c>
-      <c r="BV22" t="n">
-        <v>36.94775998151798</v>
-      </c>
-      <c r="BW22" t="n">
-        <v>55</v>
-      </c>
-      <c r="BX22" t="n">
         <v>120</v>
-      </c>
-      <c r="BY22" t="n">
-        <v>111.7436163189797</v>
-      </c>
-      <c r="BZ22" t="n">
-        <v>117</v>
-      </c>
-      <c r="CA22" t="n">
-        <v>1137.848911603327</v>
-      </c>
-      <c r="CB22" t="n">
-        <v>33.73201612123603</v>
-      </c>
-      <c r="CC22" t="n">
-        <v>82</v>
-      </c>
-      <c r="CD22" t="n">
-        <v>141</v>
-      </c>
-      <c r="CE22" t="n">
-        <v>123.3543438434197</v>
-      </c>
-      <c r="CF22" t="n">
-        <v>128</v>
-      </c>
-      <c r="CG22" t="n">
-        <v>60.91096608268305</v>
-      </c>
-      <c r="CH22" t="n">
-        <v>7.804547782074439</v>
-      </c>
-      <c r="CI22" t="n">
-        <v>115</v>
-      </c>
-      <c r="CJ22" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK22" t="n">
-        <v>134.3233564462472</v>
-      </c>
-      <c r="CL22" t="n">
-        <v>128</v>
-      </c>
-      <c r="CM22" t="n">
-        <v>112.6234536500043</v>
-      </c>
-      <c r="CN22" t="n">
-        <v>10.61241978297147</v>
-      </c>
-      <c r="CO22" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP22" t="n">
-        <v>145</v>
       </c>
     </row>
     <row r="23">
@@ -7035,166 +4587,58 @@
         <v>148</v>
       </c>
       <c r="AO23" t="n">
-        <v>133.0258814105505</v>
+        <v>119.5294862586705</v>
       </c>
       <c r="AP23" t="n">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1772.978198242106</v>
+        <v>1494.631549946504</v>
       </c>
       <c r="AR23" t="n">
-        <v>42.106747656903</v>
+        <v>38.66046494736585</v>
       </c>
       <c r="AS23" t="n">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="AT23" t="n">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="AU23" t="n">
-        <v>100.8255375327866</v>
+        <v>125.0728184622387</v>
       </c>
       <c r="AV23" t="n">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="AW23" t="n">
-        <v>45.00421393874591</v>
+        <v>1691.247431238115</v>
       </c>
       <c r="AX23" t="n">
-        <v>6.708518013596289</v>
+        <v>41.12477879865271</v>
       </c>
       <c r="AY23" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AZ23" t="n">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="BA23" t="n">
-        <v>146.2343847197815</v>
+        <v>101.6320734208677</v>
       </c>
       <c r="BB23" t="n">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="BC23" t="n">
-        <v>179.7596816387011</v>
+        <v>1934.247886341821</v>
       </c>
       <c r="BD23" t="n">
-        <v>13.40744873712747</v>
+        <v>43.98008511067049</v>
       </c>
       <c r="BE23" t="n">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="BF23" t="n">
-        <v>159</v>
-      </c>
-      <c r="BG23" t="n">
-        <v>119.5294862586705</v>
-      </c>
-      <c r="BH23" t="n">
-        <v>128</v>
-      </c>
-      <c r="BI23" t="n">
-        <v>1494.631549946504</v>
-      </c>
-      <c r="BJ23" t="n">
-        <v>38.66046494736585</v>
-      </c>
-      <c r="BK23" t="n">
-        <v>90</v>
-      </c>
-      <c r="BL23" t="n">
-        <v>152</v>
-      </c>
-      <c r="BM23" t="n">
-        <v>125.0728184622387</v>
-      </c>
-      <c r="BN23" t="n">
-        <v>134</v>
-      </c>
-      <c r="BO23" t="n">
-        <v>1691.247431238115</v>
-      </c>
-      <c r="BP23" t="n">
-        <v>41.12477879865271</v>
-      </c>
-      <c r="BQ23" t="n">
-        <v>94</v>
-      </c>
-      <c r="BR23" t="n">
-        <v>159</v>
-      </c>
-      <c r="BS23" t="n">
-        <v>101.6320734208677</v>
-      </c>
-      <c r="BT23" t="n">
-        <v>105</v>
-      </c>
-      <c r="BU23" t="n">
-        <v>1934.247886341821</v>
-      </c>
-      <c r="BV23" t="n">
-        <v>43.98008511067049</v>
-      </c>
-      <c r="BW23" t="n">
-        <v>66</v>
-      </c>
-      <c r="BX23" t="n">
         <v>137</v>
-      </c>
-      <c r="BY23" t="n">
-        <v>125.4703677283604</v>
-      </c>
-      <c r="BZ23" t="n">
-        <v>134</v>
-      </c>
-      <c r="CA23" t="n">
-        <v>1677.242104740956</v>
-      </c>
-      <c r="CB23" t="n">
-        <v>40.95414636811461</v>
-      </c>
-      <c r="CC23" t="n">
-        <v>94</v>
-      </c>
-      <c r="CD23" t="n">
-        <v>159</v>
-      </c>
-      <c r="CE23" t="n">
-        <v>120.5846018935643</v>
-      </c>
-      <c r="CF23" t="n">
-        <v>128</v>
-      </c>
-      <c r="CG23" t="n">
-        <v>95.82936654222338</v>
-      </c>
-      <c r="CH23" t="n">
-        <v>9.789247496218664</v>
-      </c>
-      <c r="CI23" t="n">
-        <v>112</v>
-      </c>
-      <c r="CJ23" t="n">
-        <v>128</v>
-      </c>
-      <c r="CK23" t="n">
-        <v>134.7870206528958</v>
-      </c>
-      <c r="CL23" t="n">
-        <v>128</v>
-      </c>
-      <c r="CM23" t="n">
-        <v>83.40241994848733</v>
-      </c>
-      <c r="CN23" t="n">
-        <v>9.132492537554429</v>
-      </c>
-      <c r="CO23" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP23" t="n">
-        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/stage2_excels/SP/SP_merge_data.xlsx
+++ b/stage2_excels/SP/SP_merge_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BF23"/>
+  <dimension ref="A1:BX23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -724,6 +724,96 @@
           <t>xyz_z_75</t>
         </is>
       </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_y_mean</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_y_median</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_y_variance</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_y_std_dev</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_y_25</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_y_75</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_u_mean</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_u_median</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_u_variance</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_u_std_dev</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_u_25</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_u_75</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_v_mean</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_v_median</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_v_variance</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_v_std_dev</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_v_25</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_v_75</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -902,6 +992,60 @@
       <c r="BF2" t="n">
         <v>58</v>
       </c>
+      <c r="BG2" t="n">
+        <v>68.78029465803704</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>44</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>2995.55562549959</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>54.73166931036902</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>29</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>98</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>120.5265747669877</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>125</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>99.7143612683204</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>9.985707850138636</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>116</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>138.0008733238129</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>133</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>144.9046875334614</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>12.03763629345319</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1080,6 +1224,60 @@
       <c r="BF3" t="n">
         <v>80</v>
       </c>
+      <c r="BG3" t="n">
+        <v>63.43821418953176</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>53</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>1647.779843045558</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>40.59285458113975</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>26</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>96</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>122.6413571185488</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>126</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>63.91549314910007</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>7.994716577158947</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>119</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>137.1424827650937</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>134</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>107.2942975278393</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>10.35829607260959</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1258,6 +1456,60 @@
       <c r="BF4" t="n">
         <v>57</v>
       </c>
+      <c r="BG4" t="n">
+        <v>54.09702949610225</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>45</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>1069.430729707402</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>32.70215175959224</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>27</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>76</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>122.8739508397031</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>125</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>36.97929236419241</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>6.08106013489362</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>119</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>137.3656029288848</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>135</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>83.7022502350661</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>9.148893388550666</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1436,6 +1688,60 @@
       <c r="BF5" t="n">
         <v>55</v>
       </c>
+      <c r="BG5" t="n">
+        <v>68.93612186046435</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>63</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>920.070344943714</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>30.33266135609788</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>47</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>86</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>119.5850014704441</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>123</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>99.7723738089378</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>9.988612206354686</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>113</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>141.2847908814211</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>139</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>195.2216818950341</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>13.97217527427401</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1614,6 +1920,60 @@
       <c r="BF6" t="n">
         <v>43</v>
       </c>
+      <c r="BG6" t="n">
+        <v>49.51361395146507</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>42</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>707.5216189024344</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>26.59927854101374</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>29</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>62</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>122.3833167453706</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>123</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>35.493915844955</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>5.957677051079137</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>119</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>138.9567549733991</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>138</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>95.2656161529104</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>9.760410654932016</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1792,6 +2152,60 @@
       <c r="BF7" t="n">
         <v>48</v>
       </c>
+      <c r="BG7" t="n">
+        <v>50.66468564626667</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>39</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>849.2878310335478</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>29.14254331786345</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>30</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>63</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>125.3774684436015</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>128</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>24.63273034880105</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>4.963137147893564</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>124</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>133.2911587024449</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>128</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>60.79514737353071</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>7.797124301531348</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1970,6 +2384,60 @@
       <c r="BF8" t="n">
         <v>109</v>
       </c>
+      <c r="BG8" t="n">
+        <v>103.5911618122167</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>108</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>1039.592994542014</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>32.2427200239374</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>76</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>132</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>121.8355774649891</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>128</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>77.82548057754728</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>8.821875116864174</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>113</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>135.6084045354</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>128</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>117.6624221448069</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>10.84723108193086</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2148,6 +2616,60 @@
       <c r="BF9" t="n">
         <v>144</v>
       </c>
+      <c r="BG9" t="n">
+        <v>125.7834525875691</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>136</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>2113.526801350488</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>45.97310954623896</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>85</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>167</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>117.4574715469056</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>118</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>119.2199784467729</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>10.91879015490145</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>108</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>136.640396381367</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>137</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>77.81366349503701</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>8.821205331191255</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2326,6 +2848,60 @@
       <c r="BF10" t="n">
         <v>144</v>
       </c>
+      <c r="BG10" t="n">
+        <v>126.8033286139682</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>131</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>1068.158853438541</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>32.68269960450851</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>107</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>150</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>121.9274682594644</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>122</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>41.83845317400782</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>6.468265082230924</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>118</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>135.2175374447161</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>135</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>53.5067230630505</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>7.314828983855365</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2504,6 +3080,60 @@
       <c r="BF11" t="n">
         <v>111</v>
       </c>
+      <c r="BG11" t="n">
+        <v>106.9109733597433</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>111</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>1621.488777372853</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>40.26771383345289</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>72</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>141</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>119.9385876564018</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>128</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>103.6502492636417</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>10.18087664514416</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>110</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>139.0929741952269</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>128</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>183.7553231369559</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>13.55563805716854</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2682,6 +3312,60 @@
       <c r="BF12" t="n">
         <v>138</v>
       </c>
+      <c r="BG12" t="n">
+        <v>119.8882158786938</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>123</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>1186.224518677172</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>34.44161027996763</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>96</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>147</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>122.988548659811</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>126</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>35.33483415641474</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>5.944311075003961</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>118</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>133.717055199155</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>131</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>43.56426760674143</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>6.600323295622831</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2860,6 +3544,60 @@
       <c r="BF13" t="n">
         <v>141</v>
       </c>
+      <c r="BG13" t="n">
+        <v>113.945222921512</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>115</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>1510.103030388284</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>38.86004413775522</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>83</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>149</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>120.0914336715691</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>120</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>41.34581394873481</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>6.430071068715711</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>116</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>136.1157064318047</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>137</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>38.16923237567388</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>6.178125312396462</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3038,6 +3776,60 @@
       <c r="BF14" t="n">
         <v>148</v>
       </c>
+      <c r="BG14" t="n">
+        <v>109.0979437012887</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>118</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>2284.268969843717</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>47.7940265079614</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>67</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>149</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>121.7611207057506</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>123</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>43.96282747086256</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>6.630447003849934</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>118</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>134.0278273875171</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>133</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>42.59878348920789</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>6.526774355622224</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3216,6 +4008,60 @@
       <c r="BF15" t="n">
         <v>137</v>
       </c>
+      <c r="BG15" t="n">
+        <v>120.1746067229285</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>117</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>1230.433691365475</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>35.07753827402195</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>94</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>145</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>118.2263078028423</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>118</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>88.24439515090936</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>9.393848793274744</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>112</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>135.8743178676931</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>135</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>61.51658588442093</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>7.843250976758357</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3394,6 +4240,60 @@
       <c r="BF16" t="n">
         <v>94</v>
       </c>
+      <c r="BG16" t="n">
+        <v>93.03829102300682</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>82</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>1046.04552056255</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>32.34262698920033</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>68</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>116</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>117.7300410137205</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>116</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>55.54204816783632</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>7.452653766802555</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>112</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>138.1932676404406</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>139</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>59.64714835898332</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>7.723156631778441</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3572,6 +4472,60 @@
       <c r="BF17" t="n">
         <v>80</v>
       </c>
+      <c r="BG17" t="n">
+        <v>86.91257807169059</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>81</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>773.4599997482612</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>27.81114883905843</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>66</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>103</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>116.3546321692937</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>114</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>69.23474911069641</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>8.320742100960491</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>110</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>142.6680957109891</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>146</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>109.593004244621</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>10.46866773971841</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3750,6 +4704,60 @@
       <c r="BF18" t="n">
         <v>101</v>
       </c>
+      <c r="BG18" t="n">
+        <v>96.95671619655209</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>89</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>1437.927478785792</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>37.92001422449353</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>65</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>127</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>116.2893343865298</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>114</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>71.63765250174258</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>8.4639029118807</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>109</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>139.5969867250591</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>141</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>76.53568921272947</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>8.74846782086609</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3928,6 +4936,60 @@
       <c r="BF19" t="n">
         <v>201</v>
       </c>
+      <c r="BG19" t="n">
+        <v>142.9587713365253</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>152</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>2398.211130590842</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>48.97153388031502</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>103</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>185</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>124.5422385992493</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>128</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>31.18527308169181</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>5.584377591253283</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>121</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>130.1557759285153</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>128</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>22.23960634668132</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>4.715888712287571</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>132</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4106,6 +5168,60 @@
       <c r="BF20" t="n">
         <v>112</v>
       </c>
+      <c r="BG20" t="n">
+        <v>102.0021740684243</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>104</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>1242.845706361596</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>35.25401688264184</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>66</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>134</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>118.4426461559205</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>116</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>64.27591403164671</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>8.017226080861553</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>112</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>137.9531999973997</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>139</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>73.80528888042024</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>8.591000458643931</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4284,6 +5400,60 @@
       <c r="BF21" t="n">
         <v>155</v>
       </c>
+      <c r="BG21" t="n">
+        <v>123.4154142791247</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>130</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>1674.813687929064</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>40.92448763184535</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>88</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>160</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>122.4274899609624</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>128</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>53.75224377632456</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>7.331592171985875</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>116</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>132.046477566577</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>128</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>31.50353921404433</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>5.612801369551957</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4462,6 +5632,60 @@
       <c r="BF22" t="n">
         <v>120</v>
       </c>
+      <c r="BG22" t="n">
+        <v>111.7436163189797</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>117</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>1137.848911603327</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>33.73201612123603</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>82</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>141</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>123.3543438434197</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>128</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>60.91096608268305</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>7.804547782074439</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>115</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>134.3233564462472</v>
+      </c>
+      <c r="BT22" t="n">
+        <v>128</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>112.6234536500043</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>10.61241978297147</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4639,6 +5863,60 @@
       </c>
       <c r="BF23" t="n">
         <v>137</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>125.4703677283604</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>134</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>1677.242104740956</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>40.95414636811461</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>94</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>159</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>120.5846018935643</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>128</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>95.82936654222338</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>9.789247496218664</v>
+      </c>
+      <c r="BQ23" t="n">
+        <v>112</v>
+      </c>
+      <c r="BR23" t="n">
+        <v>128</v>
+      </c>
+      <c r="BS23" t="n">
+        <v>134.7870206528958</v>
+      </c>
+      <c r="BT23" t="n">
+        <v>128</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>83.40241994848733</v>
+      </c>
+      <c r="BV23" t="n">
+        <v>9.132492537554429</v>
+      </c>
+      <c r="BW23" t="n">
+        <v>128</v>
+      </c>
+      <c r="BX23" t="n">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/stage2_excels/SP/SP_merge_data.xlsx
+++ b/stage2_excels/SP/SP_merge_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BX23"/>
+  <dimension ref="A1:BF23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,92 +546,92 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>lab_l_mean</t>
+          <t>yuv_y_mean</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>lab_l_median</t>
+          <t>yuv_y_median</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>lab_l_variance</t>
+          <t>yuv_y_variance</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>lab_l_std_dev</t>
+          <t>yuv_y_std_dev</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>lab_l_25</t>
+          <t>yuv_y_25</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>lab_l_75</t>
+          <t>yuv_y_75</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>lab_a_mean</t>
+          <t>yuv_u_mean</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>lab_a_median</t>
+          <t>yuv_u_median</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>lab_a_variance</t>
+          <t>yuv_u_variance</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>lab_a_std_dev</t>
+          <t>yuv_u_std_dev</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>lab_a_25</t>
+          <t>yuv_u_25</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>lab_a_75</t>
+          <t>yuv_u_75</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>lab_b_mean</t>
+          <t>yuv_v_mean</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>lab_b_median</t>
+          <t>yuv_v_median</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>lab_b_variance</t>
+          <t>yuv_v_variance</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>lab_b_std_dev</t>
+          <t>yuv_v_std_dev</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>lab_b_25</t>
+          <t>yuv_v_25</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>lab_b_75</t>
+          <t>yuv_v_75</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
@@ -722,96 +722,6 @@
       <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>xyz_z_75</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_mean</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_median</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_variance</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_std_dev</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_25</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_75</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_mean</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_median</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_variance</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_std_dev</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_25</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_75</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_mean</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_median</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_variance</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_std_dev</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_25</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_75</t>
         </is>
       </c>
     </row>
@@ -885,58 +795,58 @@
         <v>134</v>
       </c>
       <c r="W2" t="n">
-        <v>71.7805788734097</v>
+        <v>68.78029465803704</v>
       </c>
       <c r="X2" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y2" t="n">
-        <v>3441.131162118296</v>
+        <v>2995.55562549959</v>
       </c>
       <c r="Z2" t="n">
-        <v>58.66115547888821</v>
+        <v>54.73166931036902</v>
       </c>
       <c r="AA2" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AB2" t="n">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="AC2" t="n">
-        <v>132.7863622520014</v>
+        <v>120.5265747669877</v>
       </c>
       <c r="AD2" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AE2" t="n">
-        <v>38.7082531675707</v>
+        <v>99.7143612683204</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.221595709106363</v>
+        <v>9.985707850138636</v>
       </c>
       <c r="AG2" t="n">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="AH2" t="n">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="AI2" t="n">
-        <v>137.5804603202228</v>
+        <v>138.0008733238129</v>
       </c>
       <c r="AJ2" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AK2" t="n">
-        <v>151.5434623243623</v>
+        <v>144.9046875334614</v>
       </c>
       <c r="AL2" t="n">
-        <v>12.31029903472545</v>
+        <v>12.03763629345319</v>
       </c>
       <c r="AM2" t="n">
         <v>128</v>
       </c>
       <c r="AN2" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AO2" t="n">
         <v>67.02901397413683</v>
@@ -991,60 +901,6 @@
       </c>
       <c r="BF2" t="n">
         <v>58</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>68.78029465803704</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>44</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>2995.55562549959</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>54.73166931036902</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>29</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>98</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>120.5265747669877</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>125</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>99.7143612683204</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>9.985707850138636</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>116</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>138.0008733238129</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>133</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>144.9046875334614</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>12.03763629345319</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>146</v>
       </c>
     </row>
     <row r="3">
@@ -1117,58 +973,58 @@
         <v>120</v>
       </c>
       <c r="W3" t="n">
-        <v>66.16678790457762</v>
+        <v>63.43821418953176</v>
       </c>
       <c r="X3" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Y3" t="n">
-        <v>2057.910790367031</v>
+        <v>1647.779843045558</v>
       </c>
       <c r="Z3" t="n">
-        <v>45.3642016392555</v>
+        <v>40.59285458113975</v>
       </c>
       <c r="AA3" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AB3" t="n">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AC3" t="n">
-        <v>132.9652205707587</v>
+        <v>122.6413571185488</v>
       </c>
       <c r="AD3" t="n">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="AE3" t="n">
-        <v>31.76668906082771</v>
+        <v>63.91549314910007</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.636194554912713</v>
+        <v>7.994716577158947</v>
       </c>
       <c r="AG3" t="n">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="AH3" t="n">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="AI3" t="n">
-        <v>134.9947261130498</v>
+        <v>137.1424827650937</v>
       </c>
       <c r="AJ3" t="n">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AK3" t="n">
-        <v>99.82667126834332</v>
+        <v>107.2942975278393</v>
       </c>
       <c r="AL3" t="n">
-        <v>9.991329804802929</v>
+        <v>10.35829607260959</v>
       </c>
       <c r="AM3" t="n">
         <v>128</v>
       </c>
       <c r="AN3" t="n">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AO3" t="n">
         <v>61.97728586174278</v>
@@ -1223,60 +1079,6 @@
       </c>
       <c r="BF3" t="n">
         <v>80</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>63.43821418953176</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>53</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>1647.779843045558</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>40.59285458113975</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>26</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>96</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>122.6413571185488</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>126</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>63.91549314910007</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>7.994716577158947</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>119</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>137.1424827650937</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>134</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>107.2942975278393</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>10.35829607260959</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>144</v>
       </c>
     </row>
     <row r="4">
@@ -1349,58 +1151,58 @@
         <v>100</v>
       </c>
       <c r="W4" t="n">
-        <v>56.09523972487596</v>
+        <v>54.09702949610225</v>
       </c>
       <c r="X4" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Y4" t="n">
-        <v>1360.722416279823</v>
+        <v>1069.430729707402</v>
       </c>
       <c r="Z4" t="n">
-        <v>36.88797115971307</v>
+        <v>32.70215175959224</v>
       </c>
       <c r="AA4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AB4" t="n">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AC4" t="n">
-        <v>133.3865861571227</v>
+        <v>122.8739508397031</v>
       </c>
       <c r="AD4" t="n">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AE4" t="n">
-        <v>27.79422069916918</v>
+        <v>36.97929236419241</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.27202244865945</v>
+        <v>6.08106013489362</v>
       </c>
       <c r="AG4" t="n">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="AH4" t="n">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="AI4" t="n">
-        <v>134.9625529837923</v>
+        <v>137.3656029288848</v>
       </c>
       <c r="AJ4" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AK4" t="n">
-        <v>64.97986879892716</v>
+        <v>83.7022502350661</v>
       </c>
       <c r="AL4" t="n">
-        <v>8.061009167525315</v>
+        <v>9.148893388550666</v>
       </c>
       <c r="AM4" t="n">
         <v>128</v>
       </c>
       <c r="AN4" t="n">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AO4" t="n">
         <v>53.28309125491722</v>
@@ -1455,60 +1257,6 @@
       </c>
       <c r="BF4" t="n">
         <v>57</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>54.09702949610225</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>45</v>
-      </c>
-      <c r="BI4" t="n">
-        <v>1069.430729707402</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>32.70215175959224</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>27</v>
-      </c>
-      <c r="BL4" t="n">
-        <v>76</v>
-      </c>
-      <c r="BM4" t="n">
-        <v>122.8739508397031</v>
-      </c>
-      <c r="BN4" t="n">
-        <v>125</v>
-      </c>
-      <c r="BO4" t="n">
-        <v>36.97929236419241</v>
-      </c>
-      <c r="BP4" t="n">
-        <v>6.08106013489362</v>
-      </c>
-      <c r="BQ4" t="n">
-        <v>119</v>
-      </c>
-      <c r="BR4" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS4" t="n">
-        <v>137.3656029288848</v>
-      </c>
-      <c r="BT4" t="n">
-        <v>135</v>
-      </c>
-      <c r="BU4" t="n">
-        <v>83.7022502350661</v>
-      </c>
-      <c r="BV4" t="n">
-        <v>9.148893388550666</v>
-      </c>
-      <c r="BW4" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX4" t="n">
-        <v>145</v>
       </c>
     </row>
     <row r="5">
@@ -1581,58 +1329,58 @@
         <v>116</v>
       </c>
       <c r="W5" t="n">
-        <v>74.25193631440857</v>
+        <v>68.93612186046435</v>
       </c>
       <c r="X5" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="Y5" t="n">
-        <v>1127.497012317211</v>
+        <v>920.070344943714</v>
       </c>
       <c r="Z5" t="n">
-        <v>33.57822229239081</v>
+        <v>30.33266135609788</v>
       </c>
       <c r="AA5" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AB5" t="n">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="AC5" t="n">
-        <v>135.2746480737183</v>
+        <v>119.5850014704441</v>
       </c>
       <c r="AD5" t="n">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="AE5" t="n">
-        <v>63.96709710926214</v>
+        <v>99.7723738089378</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.997943304954227</v>
+        <v>9.988612206354686</v>
       </c>
       <c r="AG5" t="n">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="AH5" t="n">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="AI5" t="n">
-        <v>139.217857562984</v>
+        <v>141.2847908814211</v>
       </c>
       <c r="AJ5" t="n">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AK5" t="n">
-        <v>162.1211627268934</v>
+        <v>195.2216818950341</v>
       </c>
       <c r="AL5" t="n">
-        <v>12.73268089315418</v>
+        <v>13.97217527427401</v>
       </c>
       <c r="AM5" t="n">
         <v>128</v>
       </c>
       <c r="AN5" t="n">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AO5" t="n">
         <v>68.16738807477243</v>
@@ -1687,60 +1435,6 @@
       </c>
       <c r="BF5" t="n">
         <v>55</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>68.93612186046435</v>
-      </c>
-      <c r="BH5" t="n">
-        <v>63</v>
-      </c>
-      <c r="BI5" t="n">
-        <v>920.070344943714</v>
-      </c>
-      <c r="BJ5" t="n">
-        <v>30.33266135609788</v>
-      </c>
-      <c r="BK5" t="n">
-        <v>47</v>
-      </c>
-      <c r="BL5" t="n">
-        <v>86</v>
-      </c>
-      <c r="BM5" t="n">
-        <v>119.5850014704441</v>
-      </c>
-      <c r="BN5" t="n">
-        <v>123</v>
-      </c>
-      <c r="BO5" t="n">
-        <v>99.7723738089378</v>
-      </c>
-      <c r="BP5" t="n">
-        <v>9.988612206354686</v>
-      </c>
-      <c r="BQ5" t="n">
-        <v>113</v>
-      </c>
-      <c r="BR5" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS5" t="n">
-        <v>141.2847908814211</v>
-      </c>
-      <c r="BT5" t="n">
-        <v>139</v>
-      </c>
-      <c r="BU5" t="n">
-        <v>195.2216818950341</v>
-      </c>
-      <c r="BV5" t="n">
-        <v>13.97217527427401</v>
-      </c>
-      <c r="BW5" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX5" t="n">
-        <v>153</v>
       </c>
     </row>
     <row r="6">
@@ -1813,58 +1507,58 @@
         <v>89</v>
       </c>
       <c r="W6" t="n">
-        <v>51.28282886841539</v>
+        <v>49.51361395146507</v>
       </c>
       <c r="X6" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Y6" t="n">
-        <v>919.1972839745316</v>
+        <v>707.5216189024344</v>
       </c>
       <c r="Z6" t="n">
-        <v>30.31826650675351</v>
+        <v>26.59927854101374</v>
       </c>
       <c r="AA6" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AB6" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="AC6" t="n">
-        <v>134.774463689367</v>
+        <v>122.3833167453706</v>
       </c>
       <c r="AD6" t="n">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="AE6" t="n">
-        <v>38.05910739147681</v>
+        <v>35.493915844955</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.16920638262952</v>
+        <v>5.957677051079137</v>
       </c>
       <c r="AG6" t="n">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="AH6" t="n">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="AI6" t="n">
-        <v>135.9039073077628</v>
+        <v>138.9567549733991</v>
       </c>
       <c r="AJ6" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AK6" t="n">
-        <v>63.72828989766158</v>
+        <v>95.2656161529104</v>
       </c>
       <c r="AL6" t="n">
-        <v>7.983000056223323</v>
+        <v>9.760410654932016</v>
       </c>
       <c r="AM6" t="n">
         <v>128</v>
       </c>
       <c r="AN6" t="n">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AO6" t="n">
         <v>49.25064659075714</v>
@@ -1919,60 +1613,6 @@
       </c>
       <c r="BF6" t="n">
         <v>43</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>49.51361395146507</v>
-      </c>
-      <c r="BH6" t="n">
-        <v>42</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>707.5216189024344</v>
-      </c>
-      <c r="BJ6" t="n">
-        <v>26.59927854101374</v>
-      </c>
-      <c r="BK6" t="n">
-        <v>29</v>
-      </c>
-      <c r="BL6" t="n">
-        <v>62</v>
-      </c>
-      <c r="BM6" t="n">
-        <v>122.3833167453706</v>
-      </c>
-      <c r="BN6" t="n">
-        <v>123</v>
-      </c>
-      <c r="BO6" t="n">
-        <v>35.493915844955</v>
-      </c>
-      <c r="BP6" t="n">
-        <v>5.957677051079137</v>
-      </c>
-      <c r="BQ6" t="n">
-        <v>119</v>
-      </c>
-      <c r="BR6" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS6" t="n">
-        <v>138.9567549733991</v>
-      </c>
-      <c r="BT6" t="n">
-        <v>138</v>
-      </c>
-      <c r="BU6" t="n">
-        <v>95.2656161529104</v>
-      </c>
-      <c r="BV6" t="n">
-        <v>9.760410654932016</v>
-      </c>
-      <c r="BW6" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX6" t="n">
-        <v>146</v>
       </c>
     </row>
     <row r="7">
@@ -2045,58 +1685,58 @@
         <v>84</v>
       </c>
       <c r="W7" t="n">
-        <v>52.26018855308187</v>
+        <v>50.66468564626667</v>
       </c>
       <c r="X7" t="n">
         <v>39</v>
       </c>
       <c r="Y7" t="n">
-        <v>1084.135299978969</v>
+        <v>849.2878310335478</v>
       </c>
       <c r="Z7" t="n">
-        <v>32.92620992429843</v>
+        <v>29.14254331786345</v>
       </c>
       <c r="AA7" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AB7" t="n">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="AC7" t="n">
-        <v>131.2639285495416</v>
+        <v>125.3774684436015</v>
       </c>
       <c r="AD7" t="n">
         <v>128</v>
       </c>
       <c r="AE7" t="n">
-        <v>22.80687326846901</v>
+        <v>24.63273034880105</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.775654224131916</v>
+        <v>4.963137147893564</v>
       </c>
       <c r="AG7" t="n">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AH7" t="n">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="AI7" t="n">
-        <v>131.69399609766</v>
+        <v>133.2911587024449</v>
       </c>
       <c r="AJ7" t="n">
         <v>128</v>
       </c>
       <c r="AK7" t="n">
-        <v>42.53476137998933</v>
+        <v>60.79514737353071</v>
       </c>
       <c r="AL7" t="n">
-        <v>6.521867936411265</v>
+        <v>7.797124301531348</v>
       </c>
       <c r="AM7" t="n">
         <v>128</v>
       </c>
       <c r="AN7" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AO7" t="n">
         <v>49.98812750189575</v>
@@ -2151,60 +1791,6 @@
       </c>
       <c r="BF7" t="n">
         <v>48</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>50.66468564626667</v>
-      </c>
-      <c r="BH7" t="n">
-        <v>39</v>
-      </c>
-      <c r="BI7" t="n">
-        <v>849.2878310335478</v>
-      </c>
-      <c r="BJ7" t="n">
-        <v>29.14254331786345</v>
-      </c>
-      <c r="BK7" t="n">
-        <v>30</v>
-      </c>
-      <c r="BL7" t="n">
-        <v>63</v>
-      </c>
-      <c r="BM7" t="n">
-        <v>125.3774684436015</v>
-      </c>
-      <c r="BN7" t="n">
-        <v>128</v>
-      </c>
-      <c r="BO7" t="n">
-        <v>24.63273034880105</v>
-      </c>
-      <c r="BP7" t="n">
-        <v>4.963137147893564</v>
-      </c>
-      <c r="BQ7" t="n">
-        <v>124</v>
-      </c>
-      <c r="BR7" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS7" t="n">
-        <v>133.2911587024449</v>
-      </c>
-      <c r="BT7" t="n">
-        <v>128</v>
-      </c>
-      <c r="BU7" t="n">
-        <v>60.79514737353071</v>
-      </c>
-      <c r="BV7" t="n">
-        <v>7.797124301531348</v>
-      </c>
-      <c r="BW7" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX7" t="n">
-        <v>138</v>
       </c>
     </row>
     <row r="8">
@@ -2277,52 +1863,52 @@
         <v>158</v>
       </c>
       <c r="W8" t="n">
-        <v>111.1878665276026</v>
+        <v>103.5911618122167</v>
       </c>
       <c r="X8" t="n">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="Y8" t="n">
-        <v>1136.166076503378</v>
+        <v>1039.592994542014</v>
       </c>
       <c r="Z8" t="n">
-        <v>33.70706270951798</v>
+        <v>32.2427200239374</v>
       </c>
       <c r="AA8" t="n">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AB8" t="n">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="AC8" t="n">
-        <v>130.9296585399677</v>
+        <v>121.8355774649891</v>
       </c>
       <c r="AD8" t="n">
         <v>128</v>
       </c>
       <c r="AE8" t="n">
-        <v>19.6417277950869</v>
+        <v>77.82548057754728</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.431898892696775</v>
+        <v>8.821875116864174</v>
       </c>
       <c r="AG8" t="n">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="AH8" t="n">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="AI8" t="n">
-        <v>135.6809966925467</v>
+        <v>135.6084045354</v>
       </c>
       <c r="AJ8" t="n">
         <v>128</v>
       </c>
       <c r="AK8" t="n">
-        <v>117.993782939647</v>
+        <v>117.6624221448069</v>
       </c>
       <c r="AL8" t="n">
-        <v>10.8624943240329</v>
+        <v>10.84723108193086</v>
       </c>
       <c r="AM8" t="n">
         <v>128</v>
@@ -2383,60 +1969,6 @@
       </c>
       <c r="BF8" t="n">
         <v>109</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>103.5911618122167</v>
-      </c>
-      <c r="BH8" t="n">
-        <v>108</v>
-      </c>
-      <c r="BI8" t="n">
-        <v>1039.592994542014</v>
-      </c>
-      <c r="BJ8" t="n">
-        <v>32.2427200239374</v>
-      </c>
-      <c r="BK8" t="n">
-        <v>76</v>
-      </c>
-      <c r="BL8" t="n">
-        <v>132</v>
-      </c>
-      <c r="BM8" t="n">
-        <v>121.8355774649891</v>
-      </c>
-      <c r="BN8" t="n">
-        <v>128</v>
-      </c>
-      <c r="BO8" t="n">
-        <v>77.82548057754728</v>
-      </c>
-      <c r="BP8" t="n">
-        <v>8.821875116864174</v>
-      </c>
-      <c r="BQ8" t="n">
-        <v>113</v>
-      </c>
-      <c r="BR8" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS8" t="n">
-        <v>135.6084045354</v>
-      </c>
-      <c r="BT8" t="n">
-        <v>128</v>
-      </c>
-      <c r="BU8" t="n">
-        <v>117.6624221448069</v>
-      </c>
-      <c r="BV8" t="n">
-        <v>10.84723108193086</v>
-      </c>
-      <c r="BW8" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX8" t="n">
-        <v>147</v>
       </c>
     </row>
     <row r="9">
@@ -2509,58 +2041,58 @@
         <v>184</v>
       </c>
       <c r="W9" t="n">
-        <v>133.7938305789942</v>
+        <v>125.7834525875691</v>
       </c>
       <c r="X9" t="n">
+        <v>136</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>2113.526801350488</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>45.97310954623896</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>167</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>117.4574715469056</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>118</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>119.2199784467729</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>10.91879015490145</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>108</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>128</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>136.640396381367</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>137</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>77.81366349503701</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>8.821205331191255</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>128</v>
+      </c>
+      <c r="AN9" t="n">
         <v>145</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>2242.764574812633</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>47.35783541097115</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>94</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>176</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>129.325336241107</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>128</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>10.05507902436229</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>3.170974459746134</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>128</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>131</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>140.7754969094186</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>141</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>169.7223108783452</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>13.02775156649624</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>128</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>152</v>
       </c>
       <c r="AO9" t="n">
         <v>119.3499868183792</v>
@@ -2615,60 +2147,6 @@
       </c>
       <c r="BF9" t="n">
         <v>144</v>
-      </c>
-      <c r="BG9" t="n">
-        <v>125.7834525875691</v>
-      </c>
-      <c r="BH9" t="n">
-        <v>136</v>
-      </c>
-      <c r="BI9" t="n">
-        <v>2113.526801350488</v>
-      </c>
-      <c r="BJ9" t="n">
-        <v>45.97310954623896</v>
-      </c>
-      <c r="BK9" t="n">
-        <v>85</v>
-      </c>
-      <c r="BL9" t="n">
-        <v>167</v>
-      </c>
-      <c r="BM9" t="n">
-        <v>117.4574715469056</v>
-      </c>
-      <c r="BN9" t="n">
-        <v>118</v>
-      </c>
-      <c r="BO9" t="n">
-        <v>119.2199784467729</v>
-      </c>
-      <c r="BP9" t="n">
-        <v>10.91879015490145</v>
-      </c>
-      <c r="BQ9" t="n">
-        <v>108</v>
-      </c>
-      <c r="BR9" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS9" t="n">
-        <v>136.640396381367</v>
-      </c>
-      <c r="BT9" t="n">
-        <v>137</v>
-      </c>
-      <c r="BU9" t="n">
-        <v>77.81366349503701</v>
-      </c>
-      <c r="BV9" t="n">
-        <v>8.821205331191255</v>
-      </c>
-      <c r="BW9" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX9" t="n">
-        <v>145</v>
       </c>
     </row>
     <row r="10">
@@ -2741,52 +2219,52 @@
         <v>165</v>
       </c>
       <c r="W10" t="n">
-        <v>134.5826821965128</v>
+        <v>126.8033286139682</v>
       </c>
       <c r="X10" t="n">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="Y10" t="n">
-        <v>1114.892760962053</v>
+        <v>1068.158853438541</v>
       </c>
       <c r="Z10" t="n">
-        <v>33.39000989760341</v>
+        <v>32.68269960450851</v>
       </c>
       <c r="AA10" t="n">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="AB10" t="n">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="AC10" t="n">
-        <v>130.1501660126193</v>
+        <v>121.9274682594644</v>
       </c>
       <c r="AD10" t="n">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="AE10" t="n">
-        <v>7.791253839014139</v>
+        <v>41.83845317400782</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.791281755576484</v>
+        <v>6.468265082230924</v>
       </c>
       <c r="AG10" t="n">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="AH10" t="n">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AI10" t="n">
-        <v>135.2572341489689</v>
+        <v>135.2175374447161</v>
       </c>
       <c r="AJ10" t="n">
         <v>135</v>
       </c>
       <c r="AK10" t="n">
-        <v>59.01586083267802</v>
+        <v>53.5067230630505</v>
       </c>
       <c r="AL10" t="n">
-        <v>7.682178130756799</v>
+        <v>7.314828983855365</v>
       </c>
       <c r="AM10" t="n">
         <v>128</v>
@@ -2847,60 +2325,6 @@
       </c>
       <c r="BF10" t="n">
         <v>144</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>126.8033286139682</v>
-      </c>
-      <c r="BH10" t="n">
-        <v>131</v>
-      </c>
-      <c r="BI10" t="n">
-        <v>1068.158853438541</v>
-      </c>
-      <c r="BJ10" t="n">
-        <v>32.68269960450851</v>
-      </c>
-      <c r="BK10" t="n">
-        <v>107</v>
-      </c>
-      <c r="BL10" t="n">
-        <v>150</v>
-      </c>
-      <c r="BM10" t="n">
-        <v>121.9274682594644</v>
-      </c>
-      <c r="BN10" t="n">
-        <v>122</v>
-      </c>
-      <c r="BO10" t="n">
-        <v>41.83845317400782</v>
-      </c>
-      <c r="BP10" t="n">
-        <v>6.468265082230924</v>
-      </c>
-      <c r="BQ10" t="n">
-        <v>118</v>
-      </c>
-      <c r="BR10" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS10" t="n">
-        <v>135.2175374447161</v>
-      </c>
-      <c r="BT10" t="n">
-        <v>135</v>
-      </c>
-      <c r="BU10" t="n">
-        <v>53.5067230630505</v>
-      </c>
-      <c r="BV10" t="n">
-        <v>7.314828983855365</v>
-      </c>
-      <c r="BW10" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX10" t="n">
-        <v>141</v>
       </c>
     </row>
     <row r="11">
@@ -2973,58 +2397,58 @@
         <v>172</v>
       </c>
       <c r="W11" t="n">
-        <v>114.0427093613509</v>
+        <v>106.9109733597433</v>
       </c>
       <c r="X11" t="n">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="Y11" t="n">
-        <v>1781.960429173817</v>
+        <v>1621.488777372853</v>
       </c>
       <c r="Z11" t="n">
-        <v>42.21327313978173</v>
+        <v>40.26771383345289</v>
       </c>
       <c r="AA11" t="n">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AB11" t="n">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="AC11" t="n">
-        <v>132.8440729263524</v>
+        <v>119.9385876564018</v>
       </c>
       <c r="AD11" t="n">
         <v>128</v>
       </c>
       <c r="AE11" t="n">
-        <v>37.64407825630209</v>
+        <v>103.6502492636417</v>
       </c>
       <c r="AF11" t="n">
-        <v>6.135477019458397</v>
+        <v>10.18087664514416</v>
       </c>
       <c r="AG11" t="n">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="AH11" t="n">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="AI11" t="n">
-        <v>137.9281880833305</v>
+        <v>139.0929741952269</v>
       </c>
       <c r="AJ11" t="n">
         <v>128</v>
       </c>
       <c r="AK11" t="n">
-        <v>151.9327567395592</v>
+        <v>183.7553231369559</v>
       </c>
       <c r="AL11" t="n">
-        <v>12.32610062994616</v>
+        <v>13.55563805716854</v>
       </c>
       <c r="AM11" t="n">
         <v>128</v>
       </c>
       <c r="AN11" t="n">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AO11" t="n">
         <v>104.0738808685355</v>
@@ -3079,60 +2503,6 @@
       </c>
       <c r="BF11" t="n">
         <v>111</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>106.9109733597433</v>
-      </c>
-      <c r="BH11" t="n">
-        <v>111</v>
-      </c>
-      <c r="BI11" t="n">
-        <v>1621.488777372853</v>
-      </c>
-      <c r="BJ11" t="n">
-        <v>40.26771383345289</v>
-      </c>
-      <c r="BK11" t="n">
-        <v>72</v>
-      </c>
-      <c r="BL11" t="n">
-        <v>141</v>
-      </c>
-      <c r="BM11" t="n">
-        <v>119.9385876564018</v>
-      </c>
-      <c r="BN11" t="n">
-        <v>128</v>
-      </c>
-      <c r="BO11" t="n">
-        <v>103.6502492636417</v>
-      </c>
-      <c r="BP11" t="n">
-        <v>10.18087664514416</v>
-      </c>
-      <c r="BQ11" t="n">
-        <v>110</v>
-      </c>
-      <c r="BR11" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS11" t="n">
-        <v>139.0929741952269</v>
-      </c>
-      <c r="BT11" t="n">
-        <v>128</v>
-      </c>
-      <c r="BU11" t="n">
-        <v>183.7553231369559</v>
-      </c>
-      <c r="BV11" t="n">
-        <v>13.55563805716854</v>
-      </c>
-      <c r="BW11" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX11" t="n">
-        <v>153</v>
       </c>
     </row>
     <row r="12">
@@ -3205,58 +2575,58 @@
         <v>160</v>
       </c>
       <c r="W12" t="n">
-        <v>127.5219422636042</v>
+        <v>119.8882158786938</v>
       </c>
       <c r="X12" t="n">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="Y12" t="n">
-        <v>1260.196206776016</v>
+        <v>1186.224518677172</v>
       </c>
       <c r="Z12" t="n">
-        <v>35.4992423408728</v>
+        <v>34.44161027996763</v>
       </c>
       <c r="AA12" t="n">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="AB12" t="n">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="AC12" t="n">
-        <v>129.5549121096299</v>
+        <v>122.988548659811</v>
       </c>
       <c r="AD12" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AE12" t="n">
-        <v>6.108224043798811</v>
+        <v>35.33483415641474</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.471482155266109</v>
+        <v>5.944311075003961</v>
       </c>
       <c r="AG12" t="n">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="AH12" t="n">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AI12" t="n">
-        <v>134.0705397995656</v>
+        <v>133.717055199155</v>
       </c>
       <c r="AJ12" t="n">
         <v>131</v>
       </c>
       <c r="AK12" t="n">
-        <v>50.11742614412736</v>
+        <v>43.56426760674143</v>
       </c>
       <c r="AL12" t="n">
-        <v>7.079366224749738</v>
+        <v>6.600323295622831</v>
       </c>
       <c r="AM12" t="n">
         <v>128</v>
       </c>
       <c r="AN12" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AO12" t="n">
         <v>114.6522989804254</v>
@@ -3311,60 +2681,6 @@
       </c>
       <c r="BF12" t="n">
         <v>138</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>119.8882158786938</v>
-      </c>
-      <c r="BH12" t="n">
-        <v>123</v>
-      </c>
-      <c r="BI12" t="n">
-        <v>1186.224518677172</v>
-      </c>
-      <c r="BJ12" t="n">
-        <v>34.44161027996763</v>
-      </c>
-      <c r="BK12" t="n">
-        <v>96</v>
-      </c>
-      <c r="BL12" t="n">
-        <v>147</v>
-      </c>
-      <c r="BM12" t="n">
-        <v>122.988548659811</v>
-      </c>
-      <c r="BN12" t="n">
-        <v>126</v>
-      </c>
-      <c r="BO12" t="n">
-        <v>35.33483415641474</v>
-      </c>
-      <c r="BP12" t="n">
-        <v>5.944311075003961</v>
-      </c>
-      <c r="BQ12" t="n">
-        <v>118</v>
-      </c>
-      <c r="BR12" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS12" t="n">
-        <v>133.717055199155</v>
-      </c>
-      <c r="BT12" t="n">
-        <v>131</v>
-      </c>
-      <c r="BU12" t="n">
-        <v>43.56426760674143</v>
-      </c>
-      <c r="BV12" t="n">
-        <v>6.600323295622831</v>
-      </c>
-      <c r="BW12" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX12" t="n">
-        <v>139</v>
       </c>
     </row>
     <row r="13">
@@ -3437,58 +2753,58 @@
         <v>162</v>
       </c>
       <c r="W13" t="n">
-        <v>121.3782343000625</v>
+        <v>113.945222921512</v>
       </c>
       <c r="X13" t="n">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="Y13" t="n">
-        <v>1618.118702194532</v>
+        <v>1510.103030388284</v>
       </c>
       <c r="Z13" t="n">
-        <v>40.22584619612784</v>
+        <v>38.86004413775522</v>
       </c>
       <c r="AA13" t="n">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AB13" t="n">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="AC13" t="n">
-        <v>129.9128006176763</v>
+        <v>120.0914336715691</v>
       </c>
       <c r="AD13" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AE13" t="n">
-        <v>4.837100072686481</v>
+        <v>41.34581394873481</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.199340826858466</v>
+        <v>6.430071068715711</v>
       </c>
       <c r="AG13" t="n">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="AH13" t="n">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AI13" t="n">
-        <v>137.7994920009025</v>
+        <v>136.1157064318047</v>
       </c>
       <c r="AJ13" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AK13" t="n">
-        <v>61.73648369219832</v>
+        <v>38.16923237567388</v>
       </c>
       <c r="AL13" t="n">
-        <v>7.857256753613077</v>
+        <v>6.178125312396462</v>
       </c>
       <c r="AM13" t="n">
         <v>128</v>
       </c>
       <c r="AN13" t="n">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AO13" t="n">
         <v>108.7505000498524</v>
@@ -3543,60 +2859,6 @@
       </c>
       <c r="BF13" t="n">
         <v>141</v>
-      </c>
-      <c r="BG13" t="n">
-        <v>113.945222921512</v>
-      </c>
-      <c r="BH13" t="n">
-        <v>115</v>
-      </c>
-      <c r="BI13" t="n">
-        <v>1510.103030388284</v>
-      </c>
-      <c r="BJ13" t="n">
-        <v>38.86004413775522</v>
-      </c>
-      <c r="BK13" t="n">
-        <v>83</v>
-      </c>
-      <c r="BL13" t="n">
-        <v>149</v>
-      </c>
-      <c r="BM13" t="n">
-        <v>120.0914336715691</v>
-      </c>
-      <c r="BN13" t="n">
-        <v>120</v>
-      </c>
-      <c r="BO13" t="n">
-        <v>41.34581394873481</v>
-      </c>
-      <c r="BP13" t="n">
-        <v>6.430071068715711</v>
-      </c>
-      <c r="BQ13" t="n">
-        <v>116</v>
-      </c>
-      <c r="BR13" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS13" t="n">
-        <v>136.1157064318047</v>
-      </c>
-      <c r="BT13" t="n">
-        <v>137</v>
-      </c>
-      <c r="BU13" t="n">
-        <v>38.16923237567388</v>
-      </c>
-      <c r="BV13" t="n">
-        <v>6.178125312396462</v>
-      </c>
-      <c r="BW13" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX13" t="n">
-        <v>140</v>
       </c>
     </row>
     <row r="14">
@@ -3669,58 +2931,58 @@
         <v>158</v>
       </c>
       <c r="W14" t="n">
-        <v>115.6901106471322</v>
+        <v>109.0979437012887</v>
       </c>
       <c r="X14" t="n">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="Y14" t="n">
-        <v>2541.357269627094</v>
+        <v>2284.268969843717</v>
       </c>
       <c r="Z14" t="n">
-        <v>50.41187627560686</v>
+        <v>47.7940265079614</v>
       </c>
       <c r="AA14" t="n">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="AB14" t="n">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="AC14" t="n">
-        <v>129.3231158012896</v>
+        <v>121.7611207057506</v>
       </c>
       <c r="AD14" t="n">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AE14" t="n">
-        <v>7.572821344715888</v>
+        <v>43.96282747086256</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.751875968265264</v>
+        <v>6.630447003849934</v>
       </c>
       <c r="AG14" t="n">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="AH14" t="n">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AI14" t="n">
-        <v>135.9723051080165</v>
+        <v>134.0278273875171</v>
       </c>
       <c r="AJ14" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AK14" t="n">
-        <v>67.59794238429487</v>
+        <v>42.59878348920789</v>
       </c>
       <c r="AL14" t="n">
-        <v>8.221796785636025</v>
+        <v>6.526774355622224</v>
       </c>
       <c r="AM14" t="n">
         <v>128</v>
       </c>
       <c r="AN14" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AO14" t="n">
         <v>103.9345307174831</v>
@@ -3775,60 +3037,6 @@
       </c>
       <c r="BF14" t="n">
         <v>148</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>109.0979437012887</v>
-      </c>
-      <c r="BH14" t="n">
-        <v>118</v>
-      </c>
-      <c r="BI14" t="n">
-        <v>2284.268969843717</v>
-      </c>
-      <c r="BJ14" t="n">
-        <v>47.7940265079614</v>
-      </c>
-      <c r="BK14" t="n">
-        <v>67</v>
-      </c>
-      <c r="BL14" t="n">
-        <v>149</v>
-      </c>
-      <c r="BM14" t="n">
-        <v>121.7611207057506</v>
-      </c>
-      <c r="BN14" t="n">
-        <v>123</v>
-      </c>
-      <c r="BO14" t="n">
-        <v>43.96282747086256</v>
-      </c>
-      <c r="BP14" t="n">
-        <v>6.630447003849934</v>
-      </c>
-      <c r="BQ14" t="n">
-        <v>118</v>
-      </c>
-      <c r="BR14" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS14" t="n">
-        <v>134.0278273875171</v>
-      </c>
-      <c r="BT14" t="n">
-        <v>133</v>
-      </c>
-      <c r="BU14" t="n">
-        <v>42.59878348920789</v>
-      </c>
-      <c r="BV14" t="n">
-        <v>6.526774355622224</v>
-      </c>
-      <c r="BW14" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX14" t="n">
-        <v>139</v>
       </c>
     </row>
     <row r="15">
@@ -3901,58 +3109,58 @@
         <v>159</v>
       </c>
       <c r="W15" t="n">
-        <v>128.7000499374608</v>
+        <v>120.1746067229285</v>
       </c>
       <c r="X15" t="n">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="Y15" t="n">
-        <v>1267.651486349238</v>
+        <v>1230.433691365475</v>
       </c>
       <c r="Z15" t="n">
-        <v>35.60409367403189</v>
+        <v>35.07753827402195</v>
       </c>
       <c r="AA15" t="n">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="AB15" t="n">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="AC15" t="n">
-        <v>128.9762589363513</v>
+        <v>118.2263078028423</v>
       </c>
       <c r="AD15" t="n">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="AE15" t="n">
-        <v>8.445132390921168</v>
+        <v>88.24439515090936</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.906050995925772</v>
+        <v>9.393848793274744</v>
       </c>
       <c r="AG15" t="n">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="AH15" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AI15" t="n">
-        <v>140.0257236469995</v>
+        <v>135.8743178676931</v>
       </c>
       <c r="AJ15" t="n">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AK15" t="n">
-        <v>130.4328353309125</v>
+        <v>61.51658588442093</v>
       </c>
       <c r="AL15" t="n">
-        <v>11.42071956274702</v>
+        <v>7.843250976758357</v>
       </c>
       <c r="AM15" t="n">
         <v>128</v>
       </c>
       <c r="AN15" t="n">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="AO15" t="n">
         <v>114.0050303773174</v>
@@ -4007,60 +3215,6 @@
       </c>
       <c r="BF15" t="n">
         <v>137</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>120.1746067229285</v>
-      </c>
-      <c r="BH15" t="n">
-        <v>117</v>
-      </c>
-      <c r="BI15" t="n">
-        <v>1230.433691365475</v>
-      </c>
-      <c r="BJ15" t="n">
-        <v>35.07753827402195</v>
-      </c>
-      <c r="BK15" t="n">
-        <v>94</v>
-      </c>
-      <c r="BL15" t="n">
-        <v>145</v>
-      </c>
-      <c r="BM15" t="n">
-        <v>118.2263078028423</v>
-      </c>
-      <c r="BN15" t="n">
-        <v>118</v>
-      </c>
-      <c r="BO15" t="n">
-        <v>88.24439515090936</v>
-      </c>
-      <c r="BP15" t="n">
-        <v>9.393848793274744</v>
-      </c>
-      <c r="BQ15" t="n">
-        <v>112</v>
-      </c>
-      <c r="BR15" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS15" t="n">
-        <v>135.8743178676931</v>
-      </c>
-      <c r="BT15" t="n">
-        <v>135</v>
-      </c>
-      <c r="BU15" t="n">
-        <v>61.51658588442093</v>
-      </c>
-      <c r="BV15" t="n">
-        <v>7.843250976758357</v>
-      </c>
-      <c r="BW15" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX15" t="n">
-        <v>141</v>
       </c>
     </row>
     <row r="16">
@@ -4133,58 +3287,58 @@
         <v>137</v>
       </c>
       <c r="W16" t="n">
-        <v>100.3164459971249</v>
+        <v>93.03829102300682</v>
       </c>
       <c r="X16" t="n">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="Y16" t="n">
-        <v>1116.241885842096</v>
+        <v>1046.04552056255</v>
       </c>
       <c r="Z16" t="n">
-        <v>33.41020631247427</v>
+        <v>32.34262698920033</v>
       </c>
       <c r="AA16" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="AB16" t="n">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="AC16" t="n">
-        <v>130.6575384153898</v>
+        <v>117.7300410137205</v>
       </c>
       <c r="AD16" t="n">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="AE16" t="n">
-        <v>8.486973665641406</v>
+        <v>55.54204816783632</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.913241092948094</v>
+        <v>7.452653766802555</v>
       </c>
       <c r="AG16" t="n">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="AH16" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AI16" t="n">
-        <v>141.1450730789094</v>
+        <v>138.1932676404406</v>
       </c>
       <c r="AJ16" t="n">
+        <v>139</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>59.64714835898332</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>7.723156631778441</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>128</v>
+      </c>
+      <c r="AN16" t="n">
         <v>144</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>89.91481929585305</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>9.482342500450669</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>128</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>149</v>
       </c>
       <c r="AO16" t="n">
         <v>88.93188131031941</v>
@@ -4239,60 +3393,6 @@
       </c>
       <c r="BF16" t="n">
         <v>94</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>93.03829102300682</v>
-      </c>
-      <c r="BH16" t="n">
-        <v>82</v>
-      </c>
-      <c r="BI16" t="n">
-        <v>1046.04552056255</v>
-      </c>
-      <c r="BJ16" t="n">
-        <v>32.34262698920033</v>
-      </c>
-      <c r="BK16" t="n">
-        <v>68</v>
-      </c>
-      <c r="BL16" t="n">
-        <v>116</v>
-      </c>
-      <c r="BM16" t="n">
-        <v>117.7300410137205</v>
-      </c>
-      <c r="BN16" t="n">
-        <v>116</v>
-      </c>
-      <c r="BO16" t="n">
-        <v>55.54204816783632</v>
-      </c>
-      <c r="BP16" t="n">
-        <v>7.452653766802555</v>
-      </c>
-      <c r="BQ16" t="n">
-        <v>112</v>
-      </c>
-      <c r="BR16" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS16" t="n">
-        <v>138.1932676404406</v>
-      </c>
-      <c r="BT16" t="n">
-        <v>139</v>
-      </c>
-      <c r="BU16" t="n">
-        <v>59.64714835898332</v>
-      </c>
-      <c r="BV16" t="n">
-        <v>7.723156631778441</v>
-      </c>
-      <c r="BW16" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX16" t="n">
-        <v>144</v>
       </c>
     </row>
     <row r="17">
@@ -4365,52 +3465,52 @@
         <v>130</v>
       </c>
       <c r="W17" t="n">
-        <v>93.8983580603232</v>
+        <v>86.91257807169059</v>
       </c>
       <c r="X17" t="n">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="Y17" t="n">
-        <v>860.1380349715965</v>
+        <v>773.4599997482612</v>
       </c>
       <c r="Z17" t="n">
-        <v>29.32810997953323</v>
+        <v>27.81114883905843</v>
       </c>
       <c r="AA17" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="AB17" t="n">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="AC17" t="n">
-        <v>134.0787904562963</v>
+        <v>116.3546321692937</v>
       </c>
       <c r="AD17" t="n">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="AE17" t="n">
-        <v>22.36292249733837</v>
+        <v>69.23474911069641</v>
       </c>
       <c r="AF17" t="n">
-        <v>4.728945178085529</v>
+        <v>8.320742100960491</v>
       </c>
       <c r="AG17" t="n">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="AH17" t="n">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="AI17" t="n">
-        <v>142.9686015286098</v>
+        <v>142.6680957109891</v>
       </c>
       <c r="AJ17" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AK17" t="n">
-        <v>110.0282894768607</v>
+        <v>109.593004244621</v>
       </c>
       <c r="AL17" t="n">
-        <v>10.48943704289514</v>
+        <v>10.46866773971841</v>
       </c>
       <c r="AM17" t="n">
         <v>128</v>
@@ -4471,60 +3571,6 @@
       </c>
       <c r="BF17" t="n">
         <v>80</v>
-      </c>
-      <c r="BG17" t="n">
-        <v>86.91257807169059</v>
-      </c>
-      <c r="BH17" t="n">
-        <v>81</v>
-      </c>
-      <c r="BI17" t="n">
-        <v>773.4599997482612</v>
-      </c>
-      <c r="BJ17" t="n">
-        <v>27.81114883905843</v>
-      </c>
-      <c r="BK17" t="n">
-        <v>66</v>
-      </c>
-      <c r="BL17" t="n">
-        <v>103</v>
-      </c>
-      <c r="BM17" t="n">
-        <v>116.3546321692937</v>
-      </c>
-      <c r="BN17" t="n">
-        <v>114</v>
-      </c>
-      <c r="BO17" t="n">
-        <v>69.23474911069641</v>
-      </c>
-      <c r="BP17" t="n">
-        <v>8.320742100960491</v>
-      </c>
-      <c r="BQ17" t="n">
-        <v>110</v>
-      </c>
-      <c r="BR17" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS17" t="n">
-        <v>142.6680957109891</v>
-      </c>
-      <c r="BT17" t="n">
-        <v>146</v>
-      </c>
-      <c r="BU17" t="n">
-        <v>109.593004244621</v>
-      </c>
-      <c r="BV17" t="n">
-        <v>10.46866773971841</v>
-      </c>
-      <c r="BW17" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX17" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="18">
@@ -4597,58 +3643,58 @@
         <v>150</v>
       </c>
       <c r="W18" t="n">
-        <v>104.2299469826951</v>
+        <v>96.95671619655209</v>
       </c>
       <c r="X18" t="n">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="Y18" t="n">
-        <v>1563.120662831818</v>
+        <v>1437.927478785792</v>
       </c>
       <c r="Z18" t="n">
-        <v>39.53632080545454</v>
+        <v>37.92001422449353</v>
       </c>
       <c r="AA18" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AB18" t="n">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="AC18" t="n">
-        <v>131.1715060375485</v>
+        <v>116.2893343865298</v>
       </c>
       <c r="AD18" t="n">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="AE18" t="n">
-        <v>11.40042546657873</v>
+        <v>71.63765250174258</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.376451608801573</v>
+        <v>8.4639029118807</v>
       </c>
       <c r="AG18" t="n">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="AH18" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AI18" t="n">
-        <v>142.8084509013828</v>
+        <v>139.5969867250591</v>
       </c>
       <c r="AJ18" t="n">
+        <v>141</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>76.53568921272947</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>8.74846782086609</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>128</v>
+      </c>
+      <c r="AN18" t="n">
         <v>146</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>109.2658442798917</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>10.45303038739923</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>128</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>151</v>
       </c>
       <c r="AO18" t="n">
         <v>92.7236310101718</v>
@@ -4703,60 +3749,6 @@
       </c>
       <c r="BF18" t="n">
         <v>101</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>96.95671619655209</v>
-      </c>
-      <c r="BH18" t="n">
-        <v>89</v>
-      </c>
-      <c r="BI18" t="n">
-        <v>1437.927478785792</v>
-      </c>
-      <c r="BJ18" t="n">
-        <v>37.92001422449353</v>
-      </c>
-      <c r="BK18" t="n">
-        <v>65</v>
-      </c>
-      <c r="BL18" t="n">
-        <v>127</v>
-      </c>
-      <c r="BM18" t="n">
-        <v>116.2893343865298</v>
-      </c>
-      <c r="BN18" t="n">
-        <v>114</v>
-      </c>
-      <c r="BO18" t="n">
-        <v>71.63765250174258</v>
-      </c>
-      <c r="BP18" t="n">
-        <v>8.4639029118807</v>
-      </c>
-      <c r="BQ18" t="n">
-        <v>109</v>
-      </c>
-      <c r="BR18" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS18" t="n">
-        <v>139.5969867250591</v>
-      </c>
-      <c r="BT18" t="n">
-        <v>141</v>
-      </c>
-      <c r="BU18" t="n">
-        <v>76.53568921272947</v>
-      </c>
-      <c r="BV18" t="n">
-        <v>8.74846782086609</v>
-      </c>
-      <c r="BW18" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX18" t="n">
-        <v>146</v>
       </c>
     </row>
     <row r="19">
@@ -4829,58 +3821,58 @@
         <v>188</v>
       </c>
       <c r="W19" t="n">
-        <v>150.3310227292953</v>
+        <v>142.9587713365253</v>
       </c>
       <c r="X19" t="n">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="Y19" t="n">
-        <v>2395.007816224374</v>
+        <v>2398.211130590842</v>
       </c>
       <c r="Z19" t="n">
-        <v>48.93881707013742</v>
+        <v>48.97153388031502</v>
       </c>
       <c r="AA19" t="n">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="AB19" t="n">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="AC19" t="n">
-        <v>127.8003640208081</v>
+        <v>124.5422385992493</v>
       </c>
       <c r="AD19" t="n">
         <v>128</v>
       </c>
       <c r="AE19" t="n">
-        <v>2.222440746287592</v>
+        <v>31.18527308169181</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.490785278397795</v>
+        <v>5.584377591253283</v>
       </c>
       <c r="AG19" t="n">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="AH19" t="n">
         <v>128</v>
       </c>
       <c r="AI19" t="n">
-        <v>132.4577809662255</v>
+        <v>130.1557759285153</v>
       </c>
       <c r="AJ19" t="n">
         <v>128</v>
       </c>
       <c r="AK19" t="n">
-        <v>51.63276940941896</v>
+        <v>22.23960634668132</v>
       </c>
       <c r="AL19" t="n">
-        <v>7.185594575914992</v>
+        <v>4.715888712287571</v>
       </c>
       <c r="AM19" t="n">
         <v>128</v>
       </c>
       <c r="AN19" t="n">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AO19" t="n">
         <v>135.4898453862082</v>
@@ -4935,60 +3927,6 @@
       </c>
       <c r="BF19" t="n">
         <v>201</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>142.9587713365253</v>
-      </c>
-      <c r="BH19" t="n">
-        <v>152</v>
-      </c>
-      <c r="BI19" t="n">
-        <v>2398.211130590842</v>
-      </c>
-      <c r="BJ19" t="n">
-        <v>48.97153388031502</v>
-      </c>
-      <c r="BK19" t="n">
-        <v>103</v>
-      </c>
-      <c r="BL19" t="n">
-        <v>185</v>
-      </c>
-      <c r="BM19" t="n">
-        <v>124.5422385992493</v>
-      </c>
-      <c r="BN19" t="n">
-        <v>128</v>
-      </c>
-      <c r="BO19" t="n">
-        <v>31.18527308169181</v>
-      </c>
-      <c r="BP19" t="n">
-        <v>5.584377591253283</v>
-      </c>
-      <c r="BQ19" t="n">
-        <v>121</v>
-      </c>
-      <c r="BR19" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS19" t="n">
-        <v>130.1557759285153</v>
-      </c>
-      <c r="BT19" t="n">
-        <v>128</v>
-      </c>
-      <c r="BU19" t="n">
-        <v>22.23960634668132</v>
-      </c>
-      <c r="BV19" t="n">
-        <v>4.715888712287571</v>
-      </c>
-      <c r="BW19" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX19" t="n">
-        <v>132</v>
       </c>
     </row>
     <row r="20">
@@ -5061,58 +3999,58 @@
         <v>155</v>
       </c>
       <c r="W20" t="n">
-        <v>109.4397190987401</v>
+        <v>102.0021740684243</v>
       </c>
       <c r="X20" t="n">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="Y20" t="n">
-        <v>1347.609060681797</v>
+        <v>1242.845706361596</v>
       </c>
       <c r="Z20" t="n">
-        <v>36.70979515989972</v>
+        <v>35.25401688264184</v>
       </c>
       <c r="AA20" t="n">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AB20" t="n">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="AC20" t="n">
-        <v>130.7913034789455</v>
+        <v>118.4426461559205</v>
       </c>
       <c r="AD20" t="n">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="AE20" t="n">
-        <v>9.142104532177306</v>
+        <v>64.27591403164671</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.023591330219298</v>
+        <v>8.017226080861553</v>
       </c>
       <c r="AG20" t="n">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="AH20" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AI20" t="n">
-        <v>139.978239796594</v>
+        <v>137.9531999973997</v>
       </c>
       <c r="AJ20" t="n">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AK20" t="n">
-        <v>97.07667775026842</v>
+        <v>73.80528888042024</v>
       </c>
       <c r="AL20" t="n">
-        <v>9.852749755792464</v>
+        <v>8.591000458643931</v>
       </c>
       <c r="AM20" t="n">
         <v>128</v>
       </c>
       <c r="AN20" t="n">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AO20" t="n">
         <v>97.68688369383705</v>
@@ -5167,60 +4105,6 @@
       </c>
       <c r="BF20" t="n">
         <v>112</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>102.0021740684243</v>
-      </c>
-      <c r="BH20" t="n">
-        <v>104</v>
-      </c>
-      <c r="BI20" t="n">
-        <v>1242.845706361596</v>
-      </c>
-      <c r="BJ20" t="n">
-        <v>35.25401688264184</v>
-      </c>
-      <c r="BK20" t="n">
-        <v>66</v>
-      </c>
-      <c r="BL20" t="n">
-        <v>134</v>
-      </c>
-      <c r="BM20" t="n">
-        <v>118.4426461559205</v>
-      </c>
-      <c r="BN20" t="n">
-        <v>116</v>
-      </c>
-      <c r="BO20" t="n">
-        <v>64.27591403164671</v>
-      </c>
-      <c r="BP20" t="n">
-        <v>8.017226080861553</v>
-      </c>
-      <c r="BQ20" t="n">
-        <v>112</v>
-      </c>
-      <c r="BR20" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS20" t="n">
-        <v>137.9531999973997</v>
-      </c>
-      <c r="BT20" t="n">
-        <v>139</v>
-      </c>
-      <c r="BU20" t="n">
-        <v>73.80528888042024</v>
-      </c>
-      <c r="BV20" t="n">
-        <v>8.591000458643931</v>
-      </c>
-      <c r="BW20" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX20" t="n">
-        <v>145</v>
       </c>
     </row>
     <row r="21">
@@ -5293,58 +4177,58 @@
         <v>168</v>
       </c>
       <c r="W21" t="n">
-        <v>131.5708541658287</v>
+        <v>123.4154142791247</v>
       </c>
       <c r="X21" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="Y21" t="n">
-        <v>1737.779279582131</v>
+        <v>1674.813687929064</v>
       </c>
       <c r="Z21" t="n">
-        <v>41.68667988197347</v>
+        <v>40.92448763184535</v>
       </c>
       <c r="AA21" t="n">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="AB21" t="n">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="AC21" t="n">
-        <v>128.0497981006924</v>
+        <v>122.4274899609624</v>
       </c>
       <c r="AD21" t="n">
         <v>128</v>
       </c>
       <c r="AE21" t="n">
-        <v>2.675529567406592</v>
+        <v>53.75224377632456</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.635704608848001</v>
+        <v>7.331592171985875</v>
       </c>
       <c r="AG21" t="n">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="AH21" t="n">
         <v>128</v>
       </c>
       <c r="AI21" t="n">
-        <v>134.9412138566683</v>
+        <v>132.046477566577</v>
       </c>
       <c r="AJ21" t="n">
         <v>128</v>
       </c>
       <c r="AK21" t="n">
-        <v>82.78769149195449</v>
+        <v>31.50353921404433</v>
       </c>
       <c r="AL21" t="n">
-        <v>9.098774175236713</v>
+        <v>5.612801369551957</v>
       </c>
       <c r="AM21" t="n">
         <v>128</v>
       </c>
       <c r="AN21" t="n">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="AO21" t="n">
         <v>116.8382525099554</v>
@@ -5399,60 +4283,6 @@
       </c>
       <c r="BF21" t="n">
         <v>155</v>
-      </c>
-      <c r="BG21" t="n">
-        <v>123.4154142791247</v>
-      </c>
-      <c r="BH21" t="n">
-        <v>130</v>
-      </c>
-      <c r="BI21" t="n">
-        <v>1674.813687929064</v>
-      </c>
-      <c r="BJ21" t="n">
-        <v>40.92448763184535</v>
-      </c>
-      <c r="BK21" t="n">
-        <v>88</v>
-      </c>
-      <c r="BL21" t="n">
-        <v>160</v>
-      </c>
-      <c r="BM21" t="n">
-        <v>122.4274899609624</v>
-      </c>
-      <c r="BN21" t="n">
-        <v>128</v>
-      </c>
-      <c r="BO21" t="n">
-        <v>53.75224377632456</v>
-      </c>
-      <c r="BP21" t="n">
-        <v>7.331592171985875</v>
-      </c>
-      <c r="BQ21" t="n">
-        <v>116</v>
-      </c>
-      <c r="BR21" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS21" t="n">
-        <v>132.046477566577</v>
-      </c>
-      <c r="BT21" t="n">
-        <v>128</v>
-      </c>
-      <c r="BU21" t="n">
-        <v>31.50353921404433</v>
-      </c>
-      <c r="BV21" t="n">
-        <v>5.612801369551957</v>
-      </c>
-      <c r="BW21" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX21" t="n">
-        <v>136</v>
       </c>
     </row>
     <row r="22">
@@ -5525,58 +4355,58 @@
         <v>168</v>
       </c>
       <c r="W22" t="n">
-        <v>119.3353550903218</v>
+        <v>111.7436163189797</v>
       </c>
       <c r="X22" t="n">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="Y22" t="n">
-        <v>1193.854001263841</v>
+        <v>1137.848911603327</v>
       </c>
       <c r="Z22" t="n">
-        <v>34.55219242340261</v>
+        <v>33.73201612123603</v>
       </c>
       <c r="AA22" t="n">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AB22" t="n">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="AC22" t="n">
-        <v>130.6207698940418</v>
+        <v>123.3543438434197</v>
       </c>
       <c r="AD22" t="n">
         <v>128</v>
       </c>
       <c r="AE22" t="n">
-        <v>21.48602442992621</v>
+        <v>60.91096608268305</v>
       </c>
       <c r="AF22" t="n">
-        <v>4.6353019782886</v>
+        <v>7.804547782074439</v>
       </c>
       <c r="AG22" t="n">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="AH22" t="n">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AI22" t="n">
-        <v>133.7127789150353</v>
+        <v>134.3233564462472</v>
       </c>
       <c r="AJ22" t="n">
         <v>128</v>
       </c>
       <c r="AK22" t="n">
-        <v>91.86160904310158</v>
+        <v>112.6234536500043</v>
       </c>
       <c r="AL22" t="n">
-        <v>9.584446204299004</v>
+        <v>10.61241978297147</v>
       </c>
       <c r="AM22" t="n">
         <v>128</v>
       </c>
       <c r="AN22" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AO22" t="n">
         <v>108.4362717873926</v>
@@ -5631,60 +4461,6 @@
       </c>
       <c r="BF22" t="n">
         <v>120</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>111.7436163189797</v>
-      </c>
-      <c r="BH22" t="n">
-        <v>117</v>
-      </c>
-      <c r="BI22" t="n">
-        <v>1137.848911603327</v>
-      </c>
-      <c r="BJ22" t="n">
-        <v>33.73201612123603</v>
-      </c>
-      <c r="BK22" t="n">
-        <v>82</v>
-      </c>
-      <c r="BL22" t="n">
-        <v>141</v>
-      </c>
-      <c r="BM22" t="n">
-        <v>123.3543438434197</v>
-      </c>
-      <c r="BN22" t="n">
-        <v>128</v>
-      </c>
-      <c r="BO22" t="n">
-        <v>60.91096608268305</v>
-      </c>
-      <c r="BP22" t="n">
-        <v>7.804547782074439</v>
-      </c>
-      <c r="BQ22" t="n">
-        <v>115</v>
-      </c>
-      <c r="BR22" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS22" t="n">
-        <v>134.3233564462472</v>
-      </c>
-      <c r="BT22" t="n">
-        <v>128</v>
-      </c>
-      <c r="BU22" t="n">
-        <v>112.6234536500043</v>
-      </c>
-      <c r="BV22" t="n">
-        <v>10.61241978297147</v>
-      </c>
-      <c r="BW22" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX22" t="n">
-        <v>145</v>
       </c>
     </row>
     <row r="23">
@@ -5757,58 +4533,58 @@
         <v>179</v>
       </c>
       <c r="W23" t="n">
-        <v>133.5660800452885</v>
+        <v>125.4703677283604</v>
       </c>
       <c r="X23" t="n">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="Y23" t="n">
-        <v>1774.343078730871</v>
+        <v>1677.242104740956</v>
       </c>
       <c r="Z23" t="n">
-        <v>42.12295192327897</v>
+        <v>40.95414636811461</v>
       </c>
       <c r="AA23" t="n">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="AB23" t="n">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="AC23" t="n">
-        <v>129.4149316817705</v>
+        <v>120.5846018935643</v>
       </c>
       <c r="AD23" t="n">
         <v>128</v>
       </c>
       <c r="AE23" t="n">
-        <v>9.545068987268458</v>
+        <v>95.82936654222338</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.089509505935927</v>
+        <v>9.789247496218664</v>
       </c>
       <c r="AG23" t="n">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="AH23" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AI23" t="n">
-        <v>136.9776533978671</v>
+        <v>134.7870206528958</v>
       </c>
       <c r="AJ23" t="n">
         <v>128</v>
       </c>
       <c r="AK23" t="n">
-        <v>137.6606467722727</v>
+        <v>83.40241994848733</v>
       </c>
       <c r="AL23" t="n">
-        <v>11.73288740132934</v>
+        <v>9.132492537554429</v>
       </c>
       <c r="AM23" t="n">
         <v>128</v>
       </c>
       <c r="AN23" t="n">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="AO23" t="n">
         <v>119.5294862586705</v>
@@ -5863,60 +4639,6 @@
       </c>
       <c r="BF23" t="n">
         <v>137</v>
-      </c>
-      <c r="BG23" t="n">
-        <v>125.4703677283604</v>
-      </c>
-      <c r="BH23" t="n">
-        <v>134</v>
-      </c>
-      <c r="BI23" t="n">
-        <v>1677.242104740956</v>
-      </c>
-      <c r="BJ23" t="n">
-        <v>40.95414636811461</v>
-      </c>
-      <c r="BK23" t="n">
-        <v>94</v>
-      </c>
-      <c r="BL23" t="n">
-        <v>159</v>
-      </c>
-      <c r="BM23" t="n">
-        <v>120.5846018935643</v>
-      </c>
-      <c r="BN23" t="n">
-        <v>128</v>
-      </c>
-      <c r="BO23" t="n">
-        <v>95.82936654222338</v>
-      </c>
-      <c r="BP23" t="n">
-        <v>9.789247496218664</v>
-      </c>
-      <c r="BQ23" t="n">
-        <v>112</v>
-      </c>
-      <c r="BR23" t="n">
-        <v>128</v>
-      </c>
-      <c r="BS23" t="n">
-        <v>134.7870206528958</v>
-      </c>
-      <c r="BT23" t="n">
-        <v>128</v>
-      </c>
-      <c r="BU23" t="n">
-        <v>83.40241994848733</v>
-      </c>
-      <c r="BV23" t="n">
-        <v>9.132492537554429</v>
-      </c>
-      <c r="BW23" t="n">
-        <v>128</v>
-      </c>
-      <c r="BX23" t="n">
-        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/stage2_excels/SP/SP_merge_data.xlsx
+++ b/stage2_excels/SP/SP_merge_data.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BF23"/>
+  <dimension ref="A1:BF25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -759,16 +759,16 @@
         <v>16</v>
       </c>
       <c r="K2" t="n">
-        <v>144.1528560636751</v>
+        <v>144.1536127854047</v>
       </c>
       <c r="L2" t="n">
         <v>151</v>
       </c>
       <c r="M2" t="n">
-        <v>2424.421833313796</v>
+        <v>2424.392191071312</v>
       </c>
       <c r="N2" t="n">
-        <v>49.23841826575867</v>
+        <v>49.23811725758116</v>
       </c>
       <c r="O2" t="n">
         <v>113</v>
@@ -795,16 +795,16 @@
         <v>134</v>
       </c>
       <c r="W2" t="n">
-        <v>68.78029465803704</v>
+        <v>68.78022306834286</v>
       </c>
       <c r="X2" t="n">
         <v>44</v>
       </c>
       <c r="Y2" t="n">
-        <v>2995.55562549959</v>
+        <v>2995.552224177392</v>
       </c>
       <c r="Z2" t="n">
-        <v>54.73166931036902</v>
+        <v>54.73163823765366</v>
       </c>
       <c r="AA2" t="n">
         <v>29</v>
@@ -813,16 +813,16 @@
         <v>98</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.5265747669877</v>
+        <v>120.5265421355919</v>
       </c>
       <c r="AD2" t="n">
         <v>125</v>
       </c>
       <c r="AE2" t="n">
-        <v>99.7143612683204</v>
+        <v>99.71443309867129</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.985707850138636</v>
+        <v>9.985711446795932</v>
       </c>
       <c r="AG2" t="n">
         <v>116</v>
@@ -831,16 +831,16 @@
         <v>128</v>
       </c>
       <c r="AI2" t="n">
-        <v>138.0008733238129</v>
+        <v>138.0009119985458</v>
       </c>
       <c r="AJ2" t="n">
         <v>133</v>
       </c>
       <c r="AK2" t="n">
-        <v>144.9046875334614</v>
+        <v>144.9058689775053</v>
       </c>
       <c r="AL2" t="n">
-        <v>12.03763629345319</v>
+        <v>12.03768536627807</v>
       </c>
       <c r="AM2" t="n">
         <v>128</v>
@@ -849,16 +849,16 @@
         <v>146</v>
       </c>
       <c r="AO2" t="n">
-        <v>67.02901397413683</v>
+        <v>67.0288467886235</v>
       </c>
       <c r="AP2" t="n">
         <v>44</v>
       </c>
       <c r="AQ2" t="n">
-        <v>2663.219841352181</v>
+        <v>2663.221828101528</v>
       </c>
       <c r="AR2" t="n">
-        <v>51.60639341546918</v>
+        <v>51.60641266452773</v>
       </c>
       <c r="AS2" t="n">
         <v>29</v>
@@ -867,16 +867,16 @@
         <v>96</v>
       </c>
       <c r="AU2" t="n">
-        <v>67.54964680988607</v>
+        <v>67.5493381597076</v>
       </c>
       <c r="AV2" t="n">
         <v>42</v>
       </c>
       <c r="AW2" t="n">
-        <v>3014.527059941582</v>
+        <v>3014.546862109325</v>
       </c>
       <c r="AX2" t="n">
-        <v>54.90470890498903</v>
+        <v>54.90488923683687</v>
       </c>
       <c r="AY2" t="n">
         <v>27</v>
@@ -885,16 +885,16 @@
         <v>96</v>
       </c>
       <c r="BA2" t="n">
-        <v>48.93111785378384</v>
+        <v>48.93035480195376</v>
       </c>
       <c r="BB2" t="n">
         <v>26</v>
       </c>
       <c r="BC2" t="n">
-        <v>2527.132938093012</v>
+        <v>2527.172266736575</v>
       </c>
       <c r="BD2" t="n">
-        <v>50.27059715273942</v>
+        <v>50.27098832066637</v>
       </c>
       <c r="BE2" t="n">
         <v>17</v>
@@ -937,16 +937,16 @@
         <v>16</v>
       </c>
       <c r="K3" t="n">
-        <v>101.4649468138614</v>
+        <v>101.4663891498236</v>
       </c>
       <c r="L3" t="n">
         <v>100</v>
       </c>
       <c r="M3" t="n">
-        <v>2087.511551959863</v>
+        <v>2087.368603148143</v>
       </c>
       <c r="N3" t="n">
-        <v>45.6892936250919</v>
+        <v>45.68772924044424</v>
       </c>
       <c r="O3" t="n">
         <v>67</v>
@@ -973,16 +973,16 @@
         <v>120</v>
       </c>
       <c r="W3" t="n">
-        <v>63.43821418953176</v>
+        <v>63.43694957748828</v>
       </c>
       <c r="X3" t="n">
         <v>53</v>
       </c>
       <c r="Y3" t="n">
-        <v>1647.779843045558</v>
+        <v>1647.895347101604</v>
       </c>
       <c r="Z3" t="n">
-        <v>40.59285458113975</v>
+        <v>40.59427727034446</v>
       </c>
       <c r="AA3" t="n">
         <v>26</v>
@@ -991,16 +991,16 @@
         <v>96</v>
       </c>
       <c r="AC3" t="n">
-        <v>122.6413571185488</v>
+        <v>122.6412960101987</v>
       </c>
       <c r="AD3" t="n">
         <v>126</v>
       </c>
       <c r="AE3" t="n">
-        <v>63.91549314910007</v>
+        <v>63.91568530623704</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.994716577158947</v>
+        <v>7.994728594907837</v>
       </c>
       <c r="AG3" t="n">
         <v>119</v>
@@ -1009,16 +1009,16 @@
         <v>128</v>
       </c>
       <c r="AI3" t="n">
-        <v>137.1424827650937</v>
+        <v>137.1432934024384</v>
       </c>
       <c r="AJ3" t="n">
         <v>134</v>
       </c>
       <c r="AK3" t="n">
-        <v>107.2942975278393</v>
+        <v>107.2839482621302</v>
       </c>
       <c r="AL3" t="n">
-        <v>10.35829607260959</v>
+        <v>10.35779649646247</v>
       </c>
       <c r="AM3" t="n">
         <v>128</v>
@@ -1027,16 +1027,16 @@
         <v>144</v>
       </c>
       <c r="AO3" t="n">
-        <v>61.97728586174278</v>
+        <v>61.97667871378557</v>
       </c>
       <c r="AP3" t="n">
         <v>52</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1498.659971913943</v>
+        <v>1498.709832165981</v>
       </c>
       <c r="AR3" t="n">
-        <v>38.71252990846689</v>
+        <v>38.71317388391168</v>
       </c>
       <c r="AS3" t="n">
         <v>26</v>
@@ -1045,16 +1045,16 @@
         <v>94</v>
       </c>
       <c r="AU3" t="n">
-        <v>62.27442943905663</v>
+        <v>62.27317105662912</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>1636.541110421577</v>
+        <v>1636.652542916453</v>
       </c>
       <c r="AX3" t="n">
-        <v>40.45418532638591</v>
+        <v>40.45556257075722</v>
       </c>
       <c r="AY3" t="n">
         <v>26</v>
@@ -1063,16 +1063,16 @@
         <v>95</v>
       </c>
       <c r="BA3" t="n">
-        <v>53.96637349135473</v>
+        <v>53.96500537184578</v>
       </c>
       <c r="BB3" t="n">
         <v>39</v>
       </c>
       <c r="BC3" t="n">
-        <v>1515.306384187431</v>
+        <v>1515.39872103458</v>
       </c>
       <c r="BD3" t="n">
-        <v>38.92693648603022</v>
+        <v>38.9281224956275</v>
       </c>
       <c r="BE3" t="n">
         <v>22</v>
@@ -1115,16 +1115,16 @@
         <v>13</v>
       </c>
       <c r="K4" t="n">
-        <v>116.1663464275548</v>
+        <v>116.1668632729764</v>
       </c>
       <c r="L4" t="n">
         <v>118</v>
       </c>
       <c r="M4" t="n">
-        <v>1701.09441475043</v>
+        <v>1701.052122344552</v>
       </c>
       <c r="N4" t="n">
-        <v>41.24432584914476</v>
+        <v>41.24381314020992</v>
       </c>
       <c r="O4" t="n">
         <v>89</v>
@@ -1151,16 +1151,16 @@
         <v>100</v>
       </c>
       <c r="W4" t="n">
-        <v>54.09702949610225</v>
+        <v>54.09668126822192</v>
       </c>
       <c r="X4" t="n">
         <v>45</v>
       </c>
       <c r="Y4" t="n">
-        <v>1069.430729707402</v>
+        <v>1069.454901736925</v>
       </c>
       <c r="Z4" t="n">
-        <v>32.70215175959224</v>
+        <v>32.70252133608241</v>
       </c>
       <c r="AA4" t="n">
         <v>27</v>
@@ -1169,16 +1169,16 @@
         <v>76</v>
       </c>
       <c r="AC4" t="n">
-        <v>122.8739508397031</v>
+        <v>122.8739150243669</v>
       </c>
       <c r="AD4" t="n">
         <v>125</v>
       </c>
       <c r="AE4" t="n">
-        <v>36.97929236419241</v>
+        <v>36.97995049867326</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.08106013489362</v>
+        <v>6.081114248118782</v>
       </c>
       <c r="AG4" t="n">
         <v>119</v>
@@ -1187,16 +1187,16 @@
         <v>128</v>
       </c>
       <c r="AI4" t="n">
-        <v>137.3656029288848</v>
+        <v>137.3658348974903</v>
       </c>
       <c r="AJ4" t="n">
         <v>135</v>
       </c>
       <c r="AK4" t="n">
-        <v>83.7022502350661</v>
+        <v>83.69962969328019</v>
       </c>
       <c r="AL4" t="n">
-        <v>9.148893388550666</v>
+        <v>9.148750171104258</v>
       </c>
       <c r="AM4" t="n">
         <v>128</v>
@@ -1205,16 +1205,16 @@
         <v>145</v>
       </c>
       <c r="AO4" t="n">
-        <v>53.28309125491722</v>
+        <v>53.28298678655312</v>
       </c>
       <c r="AP4" t="n">
         <v>45</v>
       </c>
       <c r="AQ4" t="n">
-        <v>986.2083769473109</v>
+        <v>986.210215649105</v>
       </c>
       <c r="AR4" t="n">
-        <v>31.40395479788032</v>
+        <v>31.40398407287051</v>
       </c>
       <c r="AS4" t="n">
         <v>27</v>
@@ -1223,16 +1223,16 @@
         <v>75</v>
       </c>
       <c r="AU4" t="n">
-        <v>52.83068740183576</v>
+        <v>52.83032416413301</v>
       </c>
       <c r="AV4" t="n">
         <v>43</v>
       </c>
       <c r="AW4" t="n">
-        <v>1053.22510431189</v>
+        <v>1053.247417260681</v>
       </c>
       <c r="AX4" t="n">
-        <v>32.45342977732693</v>
+        <v>32.45377354423798</v>
       </c>
       <c r="AY4" t="n">
         <v>26</v>
@@ -1241,16 +1241,16 @@
         <v>74</v>
       </c>
       <c r="BA4" t="n">
-        <v>44.12395531635902</v>
+        <v>44.12345518907573</v>
       </c>
       <c r="BB4" t="n">
         <v>31</v>
       </c>
       <c r="BC4" t="n">
-        <v>1048.727278465378</v>
+        <v>1048.746438859711</v>
       </c>
       <c r="BD4" t="n">
-        <v>32.38405901775405</v>
+        <v>32.38435484705093</v>
       </c>
       <c r="BE4" t="n">
         <v>21</v>
@@ -1284,7 +1284,7 @@
         <v>732.0272905743145</v>
       </c>
       <c r="H5" t="n">
-        <v>27.05600285656243</v>
+        <v>27.05600285656244</v>
       </c>
       <c r="I5" t="n">
         <v>8</v>
@@ -1293,16 +1293,16 @@
         <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>145.3373270155602</v>
+        <v>145.3375110163802</v>
       </c>
       <c r="L5" t="n">
         <v>154</v>
       </c>
       <c r="M5" t="n">
-        <v>2394.470526699244</v>
+        <v>2394.481611759653</v>
       </c>
       <c r="N5" t="n">
-        <v>48.93332736182206</v>
+        <v>48.93344062867083</v>
       </c>
       <c r="O5" t="n">
         <v>116</v>
@@ -1329,16 +1329,16 @@
         <v>116</v>
       </c>
       <c r="W5" t="n">
-        <v>68.93612186046435</v>
+        <v>68.93600494165915</v>
       </c>
       <c r="X5" t="n">
         <v>63</v>
       </c>
       <c r="Y5" t="n">
-        <v>920.070344943714</v>
+        <v>920.0682033788602</v>
       </c>
       <c r="Z5" t="n">
-        <v>30.33266135609788</v>
+        <v>30.33262605477574</v>
       </c>
       <c r="AA5" t="n">
         <v>47</v>
@@ -1347,16 +1347,16 @@
         <v>86</v>
       </c>
       <c r="AC5" t="n">
-        <v>119.5850014704441</v>
+        <v>119.5849813743751</v>
       </c>
       <c r="AD5" t="n">
         <v>123</v>
       </c>
       <c r="AE5" t="n">
-        <v>99.7723738089378</v>
+        <v>99.77274189505576</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.988612206354686</v>
+        <v>9.988630631625927</v>
       </c>
       <c r="AG5" t="n">
         <v>113</v>
@@ -1365,16 +1365,16 @@
         <v>128</v>
       </c>
       <c r="AI5" t="n">
-        <v>141.2847908814211</v>
+        <v>141.2848607354923</v>
       </c>
       <c r="AJ5" t="n">
         <v>139</v>
       </c>
       <c r="AK5" t="n">
-        <v>195.2216818950341</v>
+        <v>195.2247169071905</v>
       </c>
       <c r="AL5" t="n">
-        <v>13.97217527427401</v>
+        <v>13.97228388300175</v>
       </c>
       <c r="AM5" t="n">
         <v>128</v>
@@ -1383,16 +1383,16 @@
         <v>153</v>
       </c>
       <c r="AO5" t="n">
-        <v>68.16738807477243</v>
+        <v>68.16724621873955</v>
       </c>
       <c r="AP5" t="n">
         <v>63</v>
       </c>
       <c r="AQ5" t="n">
-        <v>797.5440375562184</v>
+        <v>797.5411142255613</v>
       </c>
       <c r="AR5" t="n">
-        <v>28.24082218272369</v>
+        <v>28.24077042549585</v>
       </c>
       <c r="AS5" t="n">
         <v>48</v>
@@ -1401,16 +1401,16 @@
         <v>84</v>
       </c>
       <c r="AU5" t="n">
-        <v>67.03460060781427</v>
+        <v>67.03446938076367</v>
       </c>
       <c r="AV5" t="n">
         <v>60</v>
       </c>
       <c r="AW5" t="n">
-        <v>942.44648163261</v>
+        <v>942.4445394605964</v>
       </c>
       <c r="AX5" t="n">
-        <v>30.69929122361964</v>
+        <v>30.69925959140703</v>
       </c>
       <c r="AY5" t="n">
         <v>44</v>
@@ -1419,16 +1419,16 @@
         <v>84</v>
       </c>
       <c r="BA5" t="n">
-        <v>47.47228043179832</v>
+        <v>47.47206580811744</v>
       </c>
       <c r="BB5" t="n">
         <v>37</v>
       </c>
       <c r="BC5" t="n">
-        <v>894.106375650702</v>
+        <v>894.1078215118889</v>
       </c>
       <c r="BD5" t="n">
-        <v>29.9016115895231</v>
+        <v>29.90163576649092</v>
       </c>
       <c r="BE5" t="n">
         <v>28</v>
@@ -1471,16 +1471,16 @@
         <v>11</v>
       </c>
       <c r="K6" t="n">
-        <v>128.5687318945338</v>
+        <v>128.5687736251982</v>
       </c>
       <c r="L6" t="n">
         <v>131</v>
       </c>
       <c r="M6" t="n">
-        <v>1424.764409649181</v>
+        <v>1424.765062233506</v>
       </c>
       <c r="N6" t="n">
-        <v>37.74605157694221</v>
+        <v>37.74606022134636</v>
       </c>
       <c r="O6" t="n">
         <v>106</v>
@@ -1507,16 +1507,16 @@
         <v>89</v>
       </c>
       <c r="W6" t="n">
-        <v>49.51361395146507</v>
+        <v>49.51360845036569</v>
       </c>
       <c r="X6" t="n">
         <v>42</v>
       </c>
       <c r="Y6" t="n">
-        <v>707.5216189024344</v>
+        <v>707.5212991421017</v>
       </c>
       <c r="Z6" t="n">
-        <v>26.59927854101374</v>
+        <v>26.59927253031747</v>
       </c>
       <c r="AA6" t="n">
         <v>29</v>
@@ -1525,16 +1525,16 @@
         <v>62</v>
       </c>
       <c r="AC6" t="n">
-        <v>122.3833167453706</v>
+        <v>122.3833015951344</v>
       </c>
       <c r="AD6" t="n">
         <v>123</v>
       </c>
       <c r="AE6" t="n">
-        <v>35.493915844955</v>
+        <v>35.49424994300382</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.957677051079137</v>
+        <v>5.957705090301452</v>
       </c>
       <c r="AG6" t="n">
         <v>119</v>
@@ -1543,16 +1543,16 @@
         <v>128</v>
       </c>
       <c r="AI6" t="n">
-        <v>138.9567549733991</v>
+        <v>138.9567589930571</v>
       </c>
       <c r="AJ6" t="n">
         <v>138</v>
       </c>
       <c r="AK6" t="n">
-        <v>95.2656161529104</v>
+        <v>95.26580480607092</v>
       </c>
       <c r="AL6" t="n">
-        <v>9.760410654932016</v>
+        <v>9.76042031912924</v>
       </c>
       <c r="AM6" t="n">
         <v>128</v>
@@ -1561,16 +1561,16 @@
         <v>146</v>
       </c>
       <c r="AO6" t="n">
-        <v>49.25064659075714</v>
+        <v>49.25063347275094</v>
       </c>
       <c r="AP6" t="n">
         <v>42</v>
       </c>
       <c r="AQ6" t="n">
-        <v>636.687355707014</v>
+        <v>636.6864368286291</v>
       </c>
       <c r="AR6" t="n">
-        <v>25.23266445912944</v>
+        <v>25.2326462510104</v>
       </c>
       <c r="AS6" t="n">
         <v>30</v>
@@ -1579,16 +1579,16 @@
         <v>62</v>
       </c>
       <c r="AU6" t="n">
-        <v>48.00677904707418</v>
+        <v>48.00677143016736</v>
       </c>
       <c r="AV6" t="n">
         <v>40</v>
       </c>
       <c r="AW6" t="n">
-        <v>709.1439660555368</v>
+        <v>709.1434998347864</v>
       </c>
       <c r="AX6" t="n">
-        <v>26.62975715352164</v>
+        <v>26.629748399765</v>
       </c>
       <c r="AY6" t="n">
         <v>28</v>
@@ -1597,16 +1597,16 @@
         <v>60</v>
       </c>
       <c r="BA6" t="n">
-        <v>38.47127072010237</v>
+        <v>38.47123009659931</v>
       </c>
       <c r="BB6" t="n">
         <v>29</v>
       </c>
       <c r="BC6" t="n">
-        <v>733.7305343648301</v>
+        <v>733.7284847737224</v>
       </c>
       <c r="BD6" t="n">
-        <v>27.08746083273273</v>
+        <v>27.08742299986697</v>
       </c>
       <c r="BE6" t="n">
         <v>22</v>
@@ -1649,16 +1649,16 @@
         <v>11</v>
       </c>
       <c r="K7" t="n">
-        <v>111.8406261685113</v>
+        <v>111.8407757379572</v>
       </c>
       <c r="L7" t="n">
         <v>117</v>
       </c>
       <c r="M7" t="n">
-        <v>1369.694077066822</v>
+        <v>1369.682636774335</v>
       </c>
       <c r="N7" t="n">
-        <v>37.00937823129188</v>
+        <v>37.00922367159752</v>
       </c>
       <c r="O7" t="n">
         <v>89</v>
@@ -1685,16 +1685,16 @@
         <v>84</v>
       </c>
       <c r="W7" t="n">
-        <v>50.66468564626667</v>
+        <v>50.66458418111709</v>
       </c>
       <c r="X7" t="n">
         <v>39</v>
       </c>
       <c r="Y7" t="n">
-        <v>849.2878310335478</v>
+        <v>849.2940799900753</v>
       </c>
       <c r="Z7" t="n">
-        <v>29.14254331786345</v>
+        <v>29.14265053131021</v>
       </c>
       <c r="AA7" t="n">
         <v>30</v>
@@ -1703,16 +1703,16 @@
         <v>63</v>
       </c>
       <c r="AC7" t="n">
-        <v>125.3774684436015</v>
+        <v>125.3774600867503</v>
       </c>
       <c r="AD7" t="n">
         <v>128</v>
       </c>
       <c r="AE7" t="n">
-        <v>24.63273034880105</v>
+        <v>24.63298302997928</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.963137147893564</v>
+        <v>4.963162603620727</v>
       </c>
       <c r="AG7" t="n">
         <v>124</v>
@@ -1721,16 +1721,16 @@
         <v>128</v>
       </c>
       <c r="AI7" t="n">
-        <v>133.2911587024449</v>
+        <v>133.2912017287279</v>
       </c>
       <c r="AJ7" t="n">
         <v>128</v>
       </c>
       <c r="AK7" t="n">
-        <v>60.79514737353071</v>
+        <v>60.7949195669751</v>
       </c>
       <c r="AL7" t="n">
-        <v>7.797124301531348</v>
+        <v>7.797109693147525</v>
       </c>
       <c r="AM7" t="n">
         <v>128</v>
@@ -1739,16 +1739,16 @@
         <v>138</v>
       </c>
       <c r="AO7" t="n">
-        <v>49.98812750189575</v>
+        <v>49.98811495320233</v>
       </c>
       <c r="AP7" t="n">
         <v>39</v>
       </c>
       <c r="AQ7" t="n">
-        <v>760.8688008483263</v>
+        <v>760.8680752357216</v>
       </c>
       <c r="AR7" t="n">
-        <v>27.58385036299911</v>
+        <v>27.58383721014394</v>
       </c>
       <c r="AS7" t="n">
         <v>30</v>
@@ -1757,16 +1757,16 @@
         <v>63</v>
       </c>
       <c r="AU7" t="n">
-        <v>49.44503654358789</v>
+        <v>49.44493077602912</v>
       </c>
       <c r="AV7" t="n">
         <v>37</v>
       </c>
       <c r="AW7" t="n">
-        <v>852.5812740597537</v>
+        <v>852.5869753041748</v>
       </c>
       <c r="AX7" t="n">
-        <v>29.19899440151585</v>
+        <v>29.19909202876307</v>
       </c>
       <c r="AY7" t="n">
         <v>29</v>
@@ -1775,16 +1775,16 @@
         <v>62</v>
       </c>
       <c r="BA7" t="n">
-        <v>42.86839073763012</v>
+        <v>42.86824338011606</v>
       </c>
       <c r="BB7" t="n">
         <v>31</v>
       </c>
       <c r="BC7" t="n">
-        <v>939.139498589493</v>
+        <v>939.1423068998212</v>
       </c>
       <c r="BD7" t="n">
-        <v>30.64538298976688</v>
+        <v>30.64542880920124</v>
       </c>
       <c r="BE7" t="n">
         <v>24</v>
@@ -1827,16 +1827,16 @@
         <v>16</v>
       </c>
       <c r="K8" t="n">
-        <v>121.483665137449</v>
+        <v>121.4839683829061</v>
       </c>
       <c r="L8" t="n">
         <v>119</v>
       </c>
       <c r="M8" t="n">
-        <v>1084.183343120665</v>
+        <v>1084.187155073473</v>
       </c>
       <c r="N8" t="n">
-        <v>32.92693947394238</v>
+        <v>32.92699735890707</v>
       </c>
       <c r="O8" t="n">
         <v>98</v>
@@ -1863,16 +1863,16 @@
         <v>158</v>
       </c>
       <c r="W8" t="n">
-        <v>103.5911618122167</v>
+        <v>103.5911565609602</v>
       </c>
       <c r="X8" t="n">
         <v>108</v>
       </c>
       <c r="Y8" t="n">
-        <v>1039.592994542014</v>
+        <v>1039.593195855045</v>
       </c>
       <c r="Z8" t="n">
-        <v>32.2427200239374</v>
+        <v>32.24272314577422</v>
       </c>
       <c r="AA8" t="n">
         <v>76</v>
@@ -1881,16 +1881,16 @@
         <v>132</v>
       </c>
       <c r="AC8" t="n">
-        <v>121.8355774649891</v>
+        <v>121.8355069423332</v>
       </c>
       <c r="AD8" t="n">
         <v>128</v>
       </c>
       <c r="AE8" t="n">
-        <v>77.82548057754728</v>
+        <v>77.82708295839562</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.821875116864174</v>
+        <v>8.821965935005396</v>
       </c>
       <c r="AG8" t="n">
         <v>113</v>
@@ -1899,16 +1899,16 @@
         <v>128</v>
       </c>
       <c r="AI8" t="n">
-        <v>135.6084045354</v>
+        <v>135.6083926827931</v>
       </c>
       <c r="AJ8" t="n">
         <v>128</v>
       </c>
       <c r="AK8" t="n">
-        <v>117.6624221448069</v>
+        <v>117.6630099368844</v>
       </c>
       <c r="AL8" t="n">
-        <v>10.84723108193086</v>
+        <v>10.84725817600394</v>
       </c>
       <c r="AM8" t="n">
         <v>128</v>
@@ -1917,16 +1917,16 @@
         <v>147</v>
       </c>
       <c r="AO8" t="n">
-        <v>100.1334376582951</v>
+        <v>100.1333988797858</v>
       </c>
       <c r="AP8" t="n">
         <v>105</v>
       </c>
       <c r="AQ8" t="n">
-        <v>940.854211576692</v>
+        <v>940.8561794310474</v>
       </c>
       <c r="AR8" t="n">
-        <v>30.67334692492314</v>
+        <v>30.67337900250065</v>
       </c>
       <c r="AS8" t="n">
         <v>73</v>
@@ -1935,16 +1935,16 @@
         <v>127</v>
       </c>
       <c r="AU8" t="n">
-        <v>102.310922855811</v>
+        <v>102.3109216439826</v>
       </c>
       <c r="AV8" t="n">
         <v>107</v>
       </c>
       <c r="AW8" t="n">
-        <v>1036.398867853111</v>
+        <v>1036.398927986271</v>
       </c>
       <c r="AX8" t="n">
-        <v>32.19314939320338</v>
+        <v>32.19315032714679</v>
       </c>
       <c r="AY8" t="n">
         <v>74</v>
@@ -1953,16 +1953,16 @@
         <v>131</v>
       </c>
       <c r="BA8" t="n">
-        <v>80.15273642974344</v>
+        <v>80.15247225114902</v>
       </c>
       <c r="BB8" t="n">
         <v>83</v>
       </c>
       <c r="BC8" t="n">
-        <v>1058.425014165307</v>
+        <v>1058.431292893306</v>
       </c>
       <c r="BD8" t="n">
-        <v>32.53344454811552</v>
+        <v>32.53354104448677</v>
       </c>
       <c r="BE8" t="n">
         <v>49</v>
@@ -2005,16 +2005,16 @@
         <v>21</v>
       </c>
       <c r="K9" t="n">
-        <v>107.6407836951947</v>
+        <v>107.6408640458466</v>
       </c>
       <c r="L9" t="n">
         <v>105</v>
       </c>
       <c r="M9" t="n">
-        <v>1830.090840016893</v>
+        <v>1830.093516998164</v>
       </c>
       <c r="N9" t="n">
-        <v>42.77956100776272</v>
+        <v>42.7795922958385</v>
       </c>
       <c r="O9" t="n">
         <v>73</v>
@@ -2041,16 +2041,16 @@
         <v>184</v>
       </c>
       <c r="W9" t="n">
-        <v>125.7834525875691</v>
+        <v>125.783433575616</v>
       </c>
       <c r="X9" t="n">
         <v>136</v>
       </c>
       <c r="Y9" t="n">
-        <v>2113.526801350488</v>
+        <v>2113.525641836771</v>
       </c>
       <c r="Z9" t="n">
-        <v>45.97310954623896</v>
+        <v>45.97309693545532</v>
       </c>
       <c r="AA9" t="n">
         <v>85</v>
@@ -2059,16 +2059,16 @@
         <v>167</v>
       </c>
       <c r="AC9" t="n">
-        <v>117.4574715469056</v>
+        <v>117.4574570175646</v>
       </c>
       <c r="AD9" t="n">
         <v>118</v>
       </c>
       <c r="AE9" t="n">
-        <v>119.2199784467729</v>
+        <v>119.2202277823266</v>
       </c>
       <c r="AF9" t="n">
-        <v>10.91879015490145</v>
+        <v>10.91880157262356</v>
       </c>
       <c r="AG9" t="n">
         <v>108</v>
@@ -2077,16 +2077,16 @@
         <v>128</v>
       </c>
       <c r="AI9" t="n">
-        <v>136.640396381367</v>
+        <v>136.640405194288</v>
       </c>
       <c r="AJ9" t="n">
         <v>137</v>
       </c>
       <c r="AK9" t="n">
-        <v>77.81366349503701</v>
+        <v>77.81381060182508</v>
       </c>
       <c r="AL9" t="n">
-        <v>8.821205331191255</v>
+        <v>8.821213669434897</v>
       </c>
       <c r="AM9" t="n">
         <v>128</v>
@@ -2095,16 +2095,16 @@
         <v>145</v>
       </c>
       <c r="AO9" t="n">
-        <v>119.3499868183792</v>
+        <v>119.3499648490113</v>
       </c>
       <c r="AP9" t="n">
         <v>128</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1849.101694374655</v>
+        <v>1849.100738875082</v>
       </c>
       <c r="AR9" t="n">
-        <v>43.00118247646981</v>
+        <v>43.00117136631376</v>
       </c>
       <c r="AS9" t="n">
         <v>82</v>
@@ -2113,16 +2113,16 @@
         <v>158</v>
       </c>
       <c r="AU9" t="n">
-        <v>125.6430915632557</v>
+        <v>125.6430755087176</v>
       </c>
       <c r="AV9" t="n">
         <v>136</v>
       </c>
       <c r="AW9" t="n">
-        <v>2151.565738941644</v>
+        <v>2151.564768433978</v>
       </c>
       <c r="AX9" t="n">
-        <v>46.38497320190714</v>
+        <v>46.38496274046125</v>
       </c>
       <c r="AY9" t="n">
         <v>85</v>
@@ -2131,16 +2131,16 @@
         <v>167</v>
       </c>
       <c r="BA9" t="n">
-        <v>101.0311698857424</v>
+        <v>101.0310900355397</v>
       </c>
       <c r="BB9" t="n">
         <v>107</v>
       </c>
       <c r="BC9" t="n">
-        <v>2312.904920538207</v>
+        <v>2312.907421990351</v>
       </c>
       <c r="BD9" t="n">
-        <v>48.09267013317317</v>
+        <v>48.09269613975027</v>
       </c>
       <c r="BE9" t="n">
         <v>53</v>
@@ -2183,16 +2183,16 @@
         <v>18</v>
       </c>
       <c r="K10" t="n">
-        <v>63.70601804464886</v>
+        <v>63.70606243610744</v>
       </c>
       <c r="L10" t="n">
         <v>61</v>
       </c>
       <c r="M10" t="n">
-        <v>686.5651684070039</v>
+        <v>686.5708322208476</v>
       </c>
       <c r="N10" t="n">
-        <v>26.20238860117535</v>
+        <v>26.20249667914964</v>
       </c>
       <c r="O10" t="n">
         <v>45</v>
@@ -2219,16 +2219,16 @@
         <v>165</v>
       </c>
       <c r="W10" t="n">
-        <v>126.8033286139682</v>
+        <v>126.8033251189267</v>
       </c>
       <c r="X10" t="n">
         <v>131</v>
       </c>
       <c r="Y10" t="n">
-        <v>1068.158853438541</v>
+        <v>1068.159117369202</v>
       </c>
       <c r="Z10" t="n">
-        <v>32.68269960450851</v>
+        <v>32.68270364228152</v>
       </c>
       <c r="AA10" t="n">
         <v>107</v>
@@ -2237,16 +2237,16 @@
         <v>150</v>
       </c>
       <c r="AC10" t="n">
-        <v>121.9274682594644</v>
+        <v>121.9274634502924</v>
       </c>
       <c r="AD10" t="n">
         <v>122</v>
       </c>
       <c r="AE10" t="n">
-        <v>41.83845317400782</v>
+        <v>41.83865042187124</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.468265082230924</v>
+        <v>6.468280329567608</v>
       </c>
       <c r="AG10" t="n">
         <v>118</v>
@@ -2255,16 +2255,16 @@
         <v>128</v>
       </c>
       <c r="AI10" t="n">
-        <v>135.2175374447161</v>
+        <v>135.2175376370831</v>
       </c>
       <c r="AJ10" t="n">
         <v>135</v>
       </c>
       <c r="AK10" t="n">
-        <v>53.5067230630505</v>
+        <v>53.50675202677245</v>
       </c>
       <c r="AL10" t="n">
-        <v>7.314828983855365</v>
+        <v>7.314830963649976</v>
       </c>
       <c r="AM10" t="n">
         <v>128</v>
@@ -2273,16 +2273,16 @@
         <v>141</v>
       </c>
       <c r="AO10" t="n">
-        <v>121.3890368809487</v>
+        <v>121.3890340213693</v>
       </c>
       <c r="AP10" t="n">
         <v>126</v>
       </c>
       <c r="AQ10" t="n">
-        <v>956.712748476529</v>
+        <v>956.712996307582</v>
       </c>
       <c r="AR10" t="n">
-        <v>30.93077348655428</v>
+        <v>30.93077749277541</v>
       </c>
       <c r="AS10" t="n">
         <v>102</v>
@@ -2309,16 +2309,16 @@
         <v>150</v>
       </c>
       <c r="BA10" t="n">
-        <v>118.4611888351853</v>
+        <v>118.4611478478805</v>
       </c>
       <c r="BB10" t="n">
         <v>119</v>
       </c>
       <c r="BC10" t="n">
-        <v>1136.51358941314</v>
+        <v>1136.517683689479</v>
       </c>
       <c r="BD10" t="n">
-        <v>33.71221721295026</v>
+        <v>33.71227793682116</v>
       </c>
       <c r="BE10" t="n">
         <v>97</v>
@@ -2361,16 +2361,16 @@
         <v>15</v>
       </c>
       <c r="K11" t="n">
-        <v>127.0683775497756</v>
+        <v>127.0684455460131</v>
       </c>
       <c r="L11" t="n">
         <v>128</v>
       </c>
       <c r="M11" t="n">
-        <v>1254.788419292776</v>
+        <v>1254.789733249433</v>
       </c>
       <c r="N11" t="n">
-        <v>35.42299280541914</v>
+        <v>35.4230113520778</v>
       </c>
       <c r="O11" t="n">
         <v>103</v>
@@ -2397,16 +2397,16 @@
         <v>172</v>
       </c>
       <c r="W11" t="n">
-        <v>106.9109733597433</v>
+        <v>106.910949854316</v>
       </c>
       <c r="X11" t="n">
         <v>111</v>
       </c>
       <c r="Y11" t="n">
-        <v>1621.488777372853</v>
+        <v>1621.488743722533</v>
       </c>
       <c r="Z11" t="n">
-        <v>40.26771383345289</v>
+        <v>40.26771341562038</v>
       </c>
       <c r="AA11" t="n">
         <v>72</v>
@@ -2415,16 +2415,16 @@
         <v>141</v>
       </c>
       <c r="AC11" t="n">
-        <v>119.9385876564018</v>
+        <v>119.9385841006376</v>
       </c>
       <c r="AD11" t="n">
         <v>128</v>
       </c>
       <c r="AE11" t="n">
-        <v>103.6502492636417</v>
+        <v>103.6503193495488</v>
       </c>
       <c r="AF11" t="n">
-        <v>10.18087664514416</v>
+        <v>10.18088008718052</v>
       </c>
       <c r="AG11" t="n">
         <v>110</v>
@@ -2433,16 +2433,16 @@
         <v>128</v>
       </c>
       <c r="AI11" t="n">
-        <v>139.0929741952269</v>
+        <v>139.0929795288731</v>
       </c>
       <c r="AJ11" t="n">
         <v>128</v>
       </c>
       <c r="AK11" t="n">
-        <v>183.7553231369559</v>
+        <v>183.7559044015284</v>
       </c>
       <c r="AL11" t="n">
-        <v>13.55563805716854</v>
+        <v>13.55565949710778</v>
       </c>
       <c r="AM11" t="n">
         <v>128</v>
@@ -2451,16 +2451,16 @@
         <v>153</v>
       </c>
       <c r="AO11" t="n">
-        <v>104.0738808685355</v>
+        <v>104.073845113801</v>
       </c>
       <c r="AP11" t="n">
         <v>108</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1458.423654380082</v>
+        <v>1458.424282059215</v>
       </c>
       <c r="AR11" t="n">
-        <v>38.18931335308455</v>
+        <v>38.18932157107815</v>
       </c>
       <c r="AS11" t="n">
         <v>71</v>
@@ -2469,16 +2469,16 @@
         <v>136</v>
       </c>
       <c r="AU11" t="n">
-        <v>105.0648729928931</v>
+        <v>105.0648498185282</v>
       </c>
       <c r="AV11" t="n">
         <v>109</v>
       </c>
       <c r="AW11" t="n">
-        <v>1621.685917129646</v>
+        <v>1621.685982375613</v>
       </c>
       <c r="AX11" t="n">
-        <v>40.27016162283989</v>
+        <v>40.270162432943</v>
       </c>
       <c r="AY11" t="n">
         <v>70</v>
@@ -2487,16 +2487,16 @@
         <v>139</v>
       </c>
       <c r="BA11" t="n">
-        <v>81.35470020813891</v>
+        <v>81.35463697522893</v>
       </c>
       <c r="BB11" t="n">
         <v>83</v>
       </c>
       <c r="BC11" t="n">
-        <v>1433.350143200029</v>
+        <v>1433.351847669072</v>
       </c>
       <c r="BD11" t="n">
-        <v>37.85961097528643</v>
+        <v>37.85963348566745</v>
       </c>
       <c r="BE11" t="n">
         <v>47</v>
@@ -2539,16 +2539,16 @@
         <v>19</v>
       </c>
       <c r="K12" t="n">
-        <v>63.04158342481053</v>
+        <v>63.04165981051889</v>
       </c>
       <c r="L12" t="n">
         <v>62</v>
       </c>
       <c r="M12" t="n">
-        <v>556.0629399143012</v>
+        <v>556.0729152581474</v>
       </c>
       <c r="N12" t="n">
-        <v>23.58098683079869</v>
+        <v>23.58119834228421</v>
       </c>
       <c r="O12" t="n">
         <v>46</v>
@@ -2575,16 +2575,16 @@
         <v>160</v>
       </c>
       <c r="W12" t="n">
-        <v>119.8882158786938</v>
+        <v>119.8882146146931</v>
       </c>
       <c r="X12" t="n">
         <v>123</v>
       </c>
       <c r="Y12" t="n">
-        <v>1186.224518677172</v>
+        <v>1186.224581594619</v>
       </c>
       <c r="Z12" t="n">
-        <v>34.44161027996763</v>
+        <v>34.44161119336056</v>
       </c>
       <c r="AA12" t="n">
         <v>96</v>
@@ -2593,16 +2593,16 @@
         <v>147</v>
       </c>
       <c r="AC12" t="n">
-        <v>122.988548659811</v>
+        <v>122.9885103295183</v>
       </c>
       <c r="AD12" t="n">
         <v>126</v>
       </c>
       <c r="AE12" t="n">
-        <v>35.33483415641474</v>
+        <v>35.33571487381331</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.944311075003961</v>
+        <v>5.94438515523795</v>
       </c>
       <c r="AG12" t="n">
         <v>118</v>
@@ -2611,16 +2611,16 @@
         <v>128</v>
       </c>
       <c r="AI12" t="n">
-        <v>133.717055199155</v>
+        <v>133.7170556948059</v>
       </c>
       <c r="AJ12" t="n">
         <v>131</v>
       </c>
       <c r="AK12" t="n">
-        <v>43.56426760674143</v>
+        <v>43.56428060893162</v>
       </c>
       <c r="AL12" t="n">
-        <v>6.600323295622831</v>
+        <v>6.600324280588918</v>
       </c>
       <c r="AM12" t="n">
         <v>128</v>
@@ -2647,16 +2647,16 @@
         <v>140</v>
       </c>
       <c r="AU12" t="n">
-        <v>119.3615244481452</v>
+        <v>119.3615235001446</v>
       </c>
       <c r="AV12" t="n">
         <v>122</v>
       </c>
       <c r="AW12" t="n">
-        <v>1191.567496502275</v>
+        <v>1191.56755311976</v>
       </c>
       <c r="AX12" t="n">
-        <v>34.51908887126476</v>
+        <v>34.51908969135426</v>
       </c>
       <c r="AY12" t="n">
         <v>95</v>
@@ -2665,16 +2665,16 @@
         <v>146</v>
       </c>
       <c r="BA12" t="n">
-        <v>111.7767243735691</v>
+        <v>111.7766485335221</v>
       </c>
       <c r="BB12" t="n">
         <v>114</v>
       </c>
       <c r="BC12" t="n">
-        <v>1213.167948285678</v>
+        <v>1213.174569377585</v>
       </c>
       <c r="BD12" t="n">
-        <v>34.83056055083922</v>
+        <v>34.83065559787218</v>
       </c>
       <c r="BE12" t="n">
         <v>87</v>
@@ -2717,16 +2717,16 @@
         <v>19</v>
       </c>
       <c r="K13" t="n">
-        <v>73.62955164798798</v>
+        <v>73.62962496261082</v>
       </c>
       <c r="L13" t="n">
         <v>67</v>
       </c>
       <c r="M13" t="n">
-        <v>1483.715226667645</v>
+        <v>1483.723211179201</v>
       </c>
       <c r="N13" t="n">
-        <v>38.51902421749082</v>
+        <v>38.51912786109261</v>
       </c>
       <c r="O13" t="n">
         <v>45</v>
@@ -2753,16 +2753,16 @@
         <v>162</v>
       </c>
       <c r="W13" t="n">
-        <v>113.945222921512</v>
+        <v>113.9452453042114</v>
       </c>
       <c r="X13" t="n">
         <v>115</v>
       </c>
       <c r="Y13" t="n">
-        <v>1510.103030388284</v>
+        <v>1510.100536151525</v>
       </c>
       <c r="Z13" t="n">
-        <v>38.86004413775522</v>
+        <v>38.86001204517987</v>
       </c>
       <c r="AA13" t="n">
         <v>83</v>
@@ -2771,16 +2771,16 @@
         <v>149</v>
       </c>
       <c r="AC13" t="n">
-        <v>120.0914336715691</v>
+        <v>120.0914496645614</v>
       </c>
       <c r="AD13" t="n">
         <v>120</v>
       </c>
       <c r="AE13" t="n">
-        <v>41.34581394873481</v>
+        <v>41.34642896998579</v>
       </c>
       <c r="AF13" t="n">
-        <v>6.430071068715711</v>
+        <v>6.430118892367839</v>
       </c>
       <c r="AG13" t="n">
         <v>116</v>
@@ -2789,16 +2789,16 @@
         <v>128</v>
       </c>
       <c r="AI13" t="n">
-        <v>136.1157064318047</v>
+        <v>136.1157686696063</v>
       </c>
       <c r="AJ13" t="n">
         <v>137</v>
       </c>
       <c r="AK13" t="n">
-        <v>38.16923237567388</v>
+        <v>38.16794989805098</v>
       </c>
       <c r="AL13" t="n">
-        <v>6.178125312396462</v>
+        <v>6.178021519714137</v>
       </c>
       <c r="AM13" t="n">
         <v>128</v>
@@ -2807,16 +2807,16 @@
         <v>140</v>
       </c>
       <c r="AO13" t="n">
-        <v>108.7505000498524</v>
+        <v>108.7505722849277</v>
       </c>
       <c r="AP13" t="n">
         <v>110</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1353.993144412389</v>
+        <v>1353.985456895082</v>
       </c>
       <c r="AR13" t="n">
-        <v>36.79664583100461</v>
+        <v>36.79654137137187</v>
       </c>
       <c r="AS13" t="n">
         <v>80</v>
@@ -2825,16 +2825,16 @@
         <v>142</v>
       </c>
       <c r="AU13" t="n">
-        <v>113.5897691224558</v>
+        <v>113.5898126161102</v>
       </c>
       <c r="AV13" t="n">
         <v>115</v>
       </c>
       <c r="AW13" t="n">
-        <v>1515.34768856794</v>
+        <v>1515.343587266774</v>
       </c>
       <c r="AX13" t="n">
-        <v>38.92746701967571</v>
+        <v>38.92741434088288</v>
       </c>
       <c r="AY13" t="n">
         <v>83</v>
@@ -2843,16 +2843,16 @@
         <v>149</v>
       </c>
       <c r="BA13" t="n">
-        <v>103.7299578187856</v>
+        <v>103.7299985146027</v>
       </c>
       <c r="BB13" t="n">
         <v>104</v>
       </c>
       <c r="BC13" t="n">
-        <v>1774.621576265031</v>
+        <v>1774.617292116405</v>
       </c>
       <c r="BD13" t="n">
-        <v>42.12625756300969</v>
+        <v>42.1262067140682</v>
       </c>
       <c r="BE13" t="n">
         <v>70</v>
@@ -2895,16 +2895,16 @@
         <v>22</v>
       </c>
       <c r="K14" t="n">
-        <v>74.66921445399699</v>
+        <v>74.66923424156916</v>
       </c>
       <c r="L14" t="n">
         <v>71</v>
       </c>
       <c r="M14" t="n">
-        <v>2306.512432998087</v>
+        <v>2306.514634264267</v>
       </c>
       <c r="N14" t="n">
-        <v>48.02616404625802</v>
+        <v>48.02618696361671</v>
       </c>
       <c r="O14" t="n">
         <v>32</v>
@@ -2931,16 +2931,16 @@
         <v>158</v>
       </c>
       <c r="W14" t="n">
-        <v>109.0979437012887</v>
+        <v>109.0979400261182</v>
       </c>
       <c r="X14" t="n">
         <v>118</v>
       </c>
       <c r="Y14" t="n">
-        <v>2284.268969843717</v>
+        <v>2284.269045292092</v>
       </c>
       <c r="Z14" t="n">
-        <v>47.7940265079614</v>
+        <v>47.79402729726897</v>
       </c>
       <c r="AA14" t="n">
         <v>67</v>
@@ -2949,16 +2949,16 @@
         <v>149</v>
       </c>
       <c r="AC14" t="n">
-        <v>121.7611207057506</v>
+        <v>121.7611161519336</v>
       </c>
       <c r="AD14" t="n">
         <v>123</v>
       </c>
       <c r="AE14" t="n">
-        <v>43.96282747086256</v>
+        <v>43.96294995595719</v>
       </c>
       <c r="AF14" t="n">
-        <v>6.630447003849934</v>
+        <v>6.630456240407382</v>
       </c>
       <c r="AG14" t="n">
         <v>118</v>
@@ -2967,16 +2967,16 @@
         <v>128</v>
       </c>
       <c r="AI14" t="n">
-        <v>134.0278273875171</v>
+        <v>134.0278293798126</v>
       </c>
       <c r="AJ14" t="n">
         <v>133</v>
       </c>
       <c r="AK14" t="n">
-        <v>42.59878348920789</v>
+        <v>42.59883005496074</v>
       </c>
       <c r="AL14" t="n">
-        <v>6.526774355622224</v>
+        <v>6.526777922908113</v>
       </c>
       <c r="AM14" t="n">
         <v>128</v>
@@ -2985,16 +2985,16 @@
         <v>139</v>
       </c>
       <c r="AO14" t="n">
-        <v>103.9345307174831</v>
+        <v>103.9345266339604</v>
       </c>
       <c r="AP14" t="n">
         <v>113</v>
       </c>
       <c r="AQ14" t="n">
-        <v>2039.91571940014</v>
+        <v>2039.915795635661</v>
       </c>
       <c r="AR14" t="n">
-        <v>45.16542615098567</v>
+        <v>45.1654269949445</v>
       </c>
       <c r="AS14" t="n">
         <v>64</v>
@@ -3003,16 +3003,16 @@
         <v>142</v>
       </c>
       <c r="AU14" t="n">
-        <v>108.8616765882658</v>
+        <v>108.8616755673851</v>
       </c>
       <c r="AV14" t="n">
         <v>118</v>
       </c>
       <c r="AW14" t="n">
-        <v>2297.686868309642</v>
+        <v>2297.686923767306</v>
       </c>
       <c r="AX14" t="n">
-        <v>47.93419310168517</v>
+        <v>47.93419368016225</v>
       </c>
       <c r="AY14" t="n">
         <v>66</v>
@@ -3021,16 +3021,16 @@
         <v>149</v>
       </c>
       <c r="BA14" t="n">
-        <v>101.3226611827679</v>
+        <v>101.3226421943871</v>
       </c>
       <c r="BB14" t="n">
         <v>103</v>
       </c>
       <c r="BC14" t="n">
-        <v>3044.04699725334</v>
+        <v>3044.048254368512</v>
       </c>
       <c r="BD14" t="n">
-        <v>55.1728828071666</v>
+        <v>55.17289419967482</v>
       </c>
       <c r="BE14" t="n">
         <v>50</v>
@@ -3073,16 +3073,16 @@
         <v>22</v>
       </c>
       <c r="K15" t="n">
-        <v>89.71945831550812</v>
+        <v>89.7196435084053</v>
       </c>
       <c r="L15" t="n">
         <v>88</v>
       </c>
       <c r="M15" t="n">
-        <v>1991.106992152221</v>
+        <v>1991.121196872473</v>
       </c>
       <c r="N15" t="n">
-        <v>44.62182192775438</v>
+        <v>44.62198109533544</v>
       </c>
       <c r="O15" t="n">
         <v>51</v>
@@ -3109,16 +3109,16 @@
         <v>159</v>
       </c>
       <c r="W15" t="n">
-        <v>120.1746067229285</v>
+        <v>120.1744771046918</v>
       </c>
       <c r="X15" t="n">
         <v>117</v>
       </c>
       <c r="Y15" t="n">
-        <v>1230.433691365475</v>
+        <v>1230.439095419239</v>
       </c>
       <c r="Z15" t="n">
-        <v>35.07753827402195</v>
+        <v>35.07761530405451</v>
       </c>
       <c r="AA15" t="n">
         <v>94</v>
@@ -3127,16 +3127,16 @@
         <v>145</v>
       </c>
       <c r="AC15" t="n">
-        <v>118.2263078028423</v>
+        <v>118.2262855861686</v>
       </c>
       <c r="AD15" t="n">
         <v>118</v>
       </c>
       <c r="AE15" t="n">
-        <v>88.24439515090936</v>
+        <v>88.24482773047528</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.393848793274744</v>
+        <v>9.39387181786484</v>
       </c>
       <c r="AG15" t="n">
         <v>112</v>
@@ -3145,16 +3145,16 @@
         <v>128</v>
       </c>
       <c r="AI15" t="n">
-        <v>135.8743178676931</v>
+        <v>135.874402252043</v>
       </c>
       <c r="AJ15" t="n">
         <v>135</v>
       </c>
       <c r="AK15" t="n">
-        <v>61.51658588442093</v>
+        <v>61.51806648934462</v>
       </c>
       <c r="AL15" t="n">
-        <v>7.843250976758357</v>
+        <v>7.843345363385742</v>
       </c>
       <c r="AM15" t="n">
         <v>128</v>
@@ -3163,16 +3163,16 @@
         <v>141</v>
       </c>
       <c r="AO15" t="n">
-        <v>114.0050303773174</v>
+        <v>114.0050009470898</v>
       </c>
       <c r="AP15" t="n">
         <v>111</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1076.790227341285</v>
+        <v>1076.791449930221</v>
       </c>
       <c r="AR15" t="n">
-        <v>32.81448197581801</v>
+        <v>32.81450060461412</v>
       </c>
       <c r="AS15" t="n">
         <v>90</v>
@@ -3181,16 +3181,16 @@
         <v>138</v>
       </c>
       <c r="AU15" t="n">
-        <v>120.1275440318473</v>
+        <v>120.1275427794972</v>
       </c>
       <c r="AV15" t="n">
         <v>117</v>
       </c>
       <c r="AW15" t="n">
-        <v>1254.566895298842</v>
+        <v>1254.566983282809</v>
       </c>
       <c r="AX15" t="n">
-        <v>35.41986582835742</v>
+        <v>35.4198670703718</v>
       </c>
       <c r="AY15" t="n">
         <v>94</v>
@@ -3199,16 +3199,16 @@
         <v>145</v>
       </c>
       <c r="BA15" t="n">
-        <v>101.9608114602559</v>
+        <v>101.9606295564019</v>
       </c>
       <c r="BB15" t="n">
         <v>96</v>
       </c>
       <c r="BC15" t="n">
-        <v>1729.907610014688</v>
+        <v>1729.919525924769</v>
       </c>
       <c r="BD15" t="n">
-        <v>41.59215803507541</v>
+        <v>41.59230128190515</v>
       </c>
       <c r="BE15" t="n">
         <v>68</v>
@@ -3251,16 +3251,16 @@
         <v>20</v>
       </c>
       <c r="K16" t="n">
-        <v>111.9400010399889</v>
+        <v>111.9401121443892</v>
       </c>
       <c r="L16" t="n">
         <v>114</v>
       </c>
       <c r="M16" t="n">
-        <v>1172.779162923039</v>
+        <v>1172.782752254391</v>
       </c>
       <c r="N16" t="n">
-        <v>34.24586344250994</v>
+        <v>34.24591584779697</v>
       </c>
       <c r="O16" t="n">
         <v>89</v>
@@ -3287,16 +3287,16 @@
         <v>137</v>
       </c>
       <c r="W16" t="n">
-        <v>93.03829102300682</v>
+        <v>93.03828779542832</v>
       </c>
       <c r="X16" t="n">
         <v>82</v>
       </c>
       <c r="Y16" t="n">
-        <v>1046.04552056255</v>
+        <v>1046.045478851192</v>
       </c>
       <c r="Z16" t="n">
-        <v>32.34262698920033</v>
+        <v>32.34262634436467</v>
       </c>
       <c r="AA16" t="n">
         <v>68</v>
@@ -3305,16 +3305,16 @@
         <v>116</v>
       </c>
       <c r="AC16" t="n">
-        <v>117.7300410137205</v>
+        <v>117.7299850567321</v>
       </c>
       <c r="AD16" t="n">
         <v>116</v>
       </c>
       <c r="AE16" t="n">
-        <v>55.54204816783632</v>
+        <v>55.54300637309422</v>
       </c>
       <c r="AF16" t="n">
-        <v>7.452653766802555</v>
+        <v>7.452718052703606</v>
       </c>
       <c r="AG16" t="n">
         <v>112</v>
@@ -3323,16 +3323,16 @@
         <v>128</v>
       </c>
       <c r="AI16" t="n">
-        <v>138.1932676404406</v>
+        <v>138.1932699337598</v>
       </c>
       <c r="AJ16" t="n">
         <v>139</v>
       </c>
       <c r="AK16" t="n">
-        <v>59.64714835898332</v>
+        <v>59.64717728567877</v>
       </c>
       <c r="AL16" t="n">
-        <v>7.723156631778441</v>
+        <v>7.723158504503114</v>
       </c>
       <c r="AM16" t="n">
         <v>128</v>
@@ -3341,16 +3341,16 @@
         <v>144</v>
       </c>
       <c r="AO16" t="n">
-        <v>88.93188131031941</v>
+        <v>88.93183063733701</v>
       </c>
       <c r="AP16" t="n">
         <v>78</v>
       </c>
       <c r="AQ16" t="n">
-        <v>968.0686613793451</v>
+        <v>968.0682184273694</v>
       </c>
       <c r="AR16" t="n">
-        <v>31.11380178279962</v>
+        <v>31.1137946645434</v>
       </c>
       <c r="AS16" t="n">
         <v>64</v>
@@ -3359,16 +3359,16 @@
         <v>111</v>
       </c>
       <c r="AU16" t="n">
-        <v>92.55984672875236</v>
+        <v>92.55984705151022</v>
       </c>
       <c r="AV16" t="n">
         <v>82</v>
       </c>
       <c r="AW16" t="n">
-        <v>1029.189929935731</v>
+        <v>1029.189947971539</v>
       </c>
       <c r="AX16" t="n">
-        <v>32.08099016451536</v>
+        <v>32.08099044561341</v>
       </c>
       <c r="AY16" t="n">
         <v>68</v>
@@ -3377,16 +3377,16 @@
         <v>115</v>
       </c>
       <c r="BA16" t="n">
-        <v>73.33866658404065</v>
+        <v>73.33855620085609</v>
       </c>
       <c r="BB16" t="n">
         <v>61</v>
       </c>
       <c r="BC16" t="n">
-        <v>1234.446864226757</v>
+        <v>1234.447786542878</v>
       </c>
       <c r="BD16" t="n">
-        <v>35.13469601728121</v>
+        <v>35.13470914271068</v>
       </c>
       <c r="BE16" t="n">
         <v>47</v>
@@ -3405,7 +3405,7 @@
         <v>683333.3333333333</v>
       </c>
       <c r="C17" t="n">
-        <v>6367.852673106659</v>
+        <v>6367.85267310666</v>
       </c>
       <c r="D17" t="n">
         <v>107.3098528518497</v>
@@ -3429,16 +3429,16 @@
         <v>16</v>
       </c>
       <c r="K17" t="n">
-        <v>136.8246940156981</v>
+        <v>136.8250440378556</v>
       </c>
       <c r="L17" t="n">
         <v>139</v>
       </c>
       <c r="M17" t="n">
-        <v>788.0128001151113</v>
+        <v>788.0067392009463</v>
       </c>
       <c r="N17" t="n">
-        <v>28.07156568692084</v>
+        <v>28.07145773202643</v>
       </c>
       <c r="O17" t="n">
         <v>117</v>
@@ -3456,7 +3456,7 @@
         <v>917.0010731140408</v>
       </c>
       <c r="T17" t="n">
-        <v>30.2820255781221</v>
+        <v>30.28202557812209</v>
       </c>
       <c r="U17" t="n">
         <v>86</v>
@@ -3465,16 +3465,16 @@
         <v>130</v>
       </c>
       <c r="W17" t="n">
-        <v>86.91257807169059</v>
+        <v>86.91311161105139</v>
       </c>
       <c r="X17" t="n">
         <v>81</v>
       </c>
       <c r="Y17" t="n">
-        <v>773.4599997482612</v>
+        <v>773.4573978217827</v>
       </c>
       <c r="Z17" t="n">
-        <v>27.81114883905843</v>
+        <v>27.81110206054019</v>
       </c>
       <c r="AA17" t="n">
         <v>66</v>
@@ -3483,16 +3483,16 @@
         <v>103</v>
       </c>
       <c r="AC17" t="n">
-        <v>116.3546321692937</v>
+        <v>116.3545283325251</v>
       </c>
       <c r="AD17" t="n">
         <v>114</v>
       </c>
       <c r="AE17" t="n">
-        <v>69.23474911069641</v>
+        <v>69.2354051172528</v>
       </c>
       <c r="AF17" t="n">
-        <v>8.320742100960491</v>
+        <v>8.320781520821996</v>
       </c>
       <c r="AG17" t="n">
         <v>110</v>
@@ -3501,16 +3501,16 @@
         <v>128</v>
       </c>
       <c r="AI17" t="n">
-        <v>142.6680957109891</v>
+        <v>142.6677616658953</v>
       </c>
       <c r="AJ17" t="n">
         <v>146</v>
       </c>
       <c r="AK17" t="n">
-        <v>109.593004244621</v>
+        <v>109.5889170120926</v>
       </c>
       <c r="AL17" t="n">
-        <v>10.46866773971841</v>
+        <v>10.46847252525852</v>
       </c>
       <c r="AM17" t="n">
         <v>128</v>
@@ -3519,16 +3519,16 @@
         <v>151</v>
       </c>
       <c r="AO17" t="n">
-        <v>84.3712221217768</v>
+        <v>84.37164863662487</v>
       </c>
       <c r="AP17" t="n">
         <v>79</v>
       </c>
       <c r="AQ17" t="n">
-        <v>700.1290116294285</v>
+        <v>700.1267749922424</v>
       </c>
       <c r="AR17" t="n">
-        <v>26.45995108894627</v>
+        <v>26.45990882433729</v>
       </c>
       <c r="AS17" t="n">
         <v>64</v>
@@ -3537,16 +3537,16 @@
         <v>100</v>
       </c>
       <c r="AU17" t="n">
-        <v>85.56345587851135</v>
+        <v>85.56406509496843</v>
       </c>
       <c r="AV17" t="n">
         <v>80</v>
       </c>
       <c r="AW17" t="n">
-        <v>771.6724479861984</v>
+        <v>771.6715305675298</v>
       </c>
       <c r="AX17" t="n">
-        <v>27.77899292606192</v>
+        <v>27.77897641324334</v>
       </c>
       <c r="AY17" t="n">
         <v>64</v>
@@ -3555,16 +3555,16 @@
         <v>102</v>
       </c>
       <c r="BA17" t="n">
-        <v>62.20503300186343</v>
+        <v>62.20558838942357</v>
       </c>
       <c r="BB17" t="n">
         <v>56</v>
       </c>
       <c r="BC17" t="n">
-        <v>740.3696512047178</v>
+        <v>740.3473893999866</v>
       </c>
       <c r="BD17" t="n">
-        <v>27.20973449346241</v>
+        <v>27.20932541243878</v>
       </c>
       <c r="BE17" t="n">
         <v>41</v>
@@ -3607,16 +3607,16 @@
         <v>19</v>
       </c>
       <c r="K18" t="n">
-        <v>121.9665192444366</v>
+        <v>121.966871748353</v>
       </c>
       <c r="L18" t="n">
         <v>125</v>
       </c>
       <c r="M18" t="n">
-        <v>947.470541614477</v>
+        <v>947.4744426374946</v>
       </c>
       <c r="N18" t="n">
-        <v>30.7810094313763</v>
+        <v>30.78107279867768</v>
       </c>
       <c r="O18" t="n">
         <v>102</v>
@@ -3643,16 +3643,16 @@
         <v>150</v>
       </c>
       <c r="W18" t="n">
-        <v>96.95671619655209</v>
+        <v>96.95668397582877</v>
       </c>
       <c r="X18" t="n">
         <v>89</v>
       </c>
       <c r="Y18" t="n">
-        <v>1437.927478785792</v>
+        <v>1437.927314891866</v>
       </c>
       <c r="Z18" t="n">
-        <v>37.92001422449353</v>
+        <v>37.92001206344568</v>
       </c>
       <c r="AA18" t="n">
         <v>65</v>
@@ -3661,16 +3661,16 @@
         <v>127</v>
       </c>
       <c r="AC18" t="n">
-        <v>116.2893343865298</v>
+        <v>116.2891824062872</v>
       </c>
       <c r="AD18" t="n">
         <v>114</v>
       </c>
       <c r="AE18" t="n">
-        <v>71.63765250174258</v>
+        <v>71.63990680990173</v>
       </c>
       <c r="AF18" t="n">
-        <v>8.4639029118807</v>
+        <v>8.464036082738644</v>
       </c>
       <c r="AG18" t="n">
         <v>109</v>
@@ -3679,16 +3679,16 @@
         <v>128</v>
       </c>
       <c r="AI18" t="n">
-        <v>139.5969867250591</v>
+        <v>139.5970093887795</v>
       </c>
       <c r="AJ18" t="n">
         <v>141</v>
       </c>
       <c r="AK18" t="n">
-        <v>76.53568921272947</v>
+        <v>76.53591145325956</v>
       </c>
       <c r="AL18" t="n">
-        <v>8.74846782086609</v>
+        <v>8.748480522539875</v>
       </c>
       <c r="AM18" t="n">
         <v>128</v>
@@ -3697,16 +3697,16 @@
         <v>146</v>
       </c>
       <c r="AO18" t="n">
-        <v>92.7236310101718</v>
+        <v>92.723463746711</v>
       </c>
       <c r="AP18" t="n">
         <v>86</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1288.727199809057</v>
+        <v>1288.726940064751</v>
       </c>
       <c r="AR18" t="n">
-        <v>35.89884677547535</v>
+        <v>35.89884315775023</v>
       </c>
       <c r="AS18" t="n">
         <v>63</v>
@@ -3733,16 +3733,16 @@
         <v>126</v>
       </c>
       <c r="BA18" t="n">
-        <v>73.44060370263495</v>
+        <v>73.44025875136168</v>
       </c>
       <c r="BB18" t="n">
         <v>61</v>
       </c>
       <c r="BC18" t="n">
-        <v>1432.099646982</v>
+        <v>1432.102602412621</v>
       </c>
       <c r="BD18" t="n">
-        <v>37.84309246060633</v>
+        <v>37.84313150906807</v>
       </c>
       <c r="BE18" t="n">
         <v>43</v>
@@ -3785,16 +3785,16 @@
         <v>66</v>
       </c>
       <c r="K19" t="n">
-        <v>47.0120583277358</v>
+        <v>47.01205892666928</v>
       </c>
       <c r="L19" t="n">
         <v>25</v>
       </c>
       <c r="M19" t="n">
-        <v>2303.775016166525</v>
+        <v>2303.775112580371</v>
       </c>
       <c r="N19" t="n">
-        <v>47.99765636118627</v>
+        <v>47.99765736554619</v>
       </c>
       <c r="O19" t="n">
         <v>8</v>
@@ -3839,16 +3839,16 @@
         <v>185</v>
       </c>
       <c r="AC19" t="n">
-        <v>124.5422385992493</v>
+        <v>124.5422384276223</v>
       </c>
       <c r="AD19" t="n">
         <v>128</v>
       </c>
       <c r="AE19" t="n">
-        <v>31.18527308169181</v>
+        <v>31.18527927476135</v>
       </c>
       <c r="AF19" t="n">
-        <v>5.584377591253283</v>
+        <v>5.584378145752789</v>
       </c>
       <c r="AG19" t="n">
         <v>121</v>
@@ -3893,16 +3893,16 @@
         <v>176</v>
       </c>
       <c r="AU19" t="n">
-        <v>143.1110988495927</v>
+        <v>143.111098552943</v>
       </c>
       <c r="AV19" t="n">
         <v>152</v>
       </c>
       <c r="AW19" t="n">
-        <v>2407.458517744883</v>
+        <v>2407.458555485301</v>
       </c>
       <c r="AX19" t="n">
-        <v>49.0658589830534</v>
+        <v>49.0658593676428</v>
       </c>
       <c r="AY19" t="n">
         <v>103</v>
@@ -3954,7 +3954,7 @@
         <v>9.180821630034202</v>
       </c>
       <c r="H20" t="n">
-        <v>3.029987067634811</v>
+        <v>3.029987067634812</v>
       </c>
       <c r="I20" t="n">
         <v>16</v>
@@ -3963,16 +3963,16 @@
         <v>18</v>
       </c>
       <c r="K20" t="n">
-        <v>109.0343454201252</v>
+        <v>109.034475332061</v>
       </c>
       <c r="L20" t="n">
         <v>107</v>
       </c>
       <c r="M20" t="n">
-        <v>848.7229023860918</v>
+        <v>848.7277001870801</v>
       </c>
       <c r="N20" t="n">
-        <v>29.13284919787442</v>
+        <v>29.13293154124865</v>
       </c>
       <c r="O20" t="n">
         <v>87</v>
@@ -3999,16 +3999,16 @@
         <v>155</v>
       </c>
       <c r="W20" t="n">
-        <v>102.0021740684243</v>
+        <v>102.0021690995618</v>
       </c>
       <c r="X20" t="n">
         <v>104</v>
       </c>
       <c r="Y20" t="n">
-        <v>1242.845706361596</v>
+        <v>1242.84573122749</v>
       </c>
       <c r="Z20" t="n">
-        <v>35.25401688264184</v>
+        <v>35.25401723530936</v>
       </c>
       <c r="AA20" t="n">
         <v>66</v>
@@ -4017,16 +4017,16 @@
         <v>134</v>
       </c>
       <c r="AC20" t="n">
-        <v>118.4426461559205</v>
+        <v>118.4426165407017</v>
       </c>
       <c r="AD20" t="n">
         <v>116</v>
       </c>
       <c r="AE20" t="n">
-        <v>64.27591403164671</v>
+        <v>64.27639651588477</v>
       </c>
       <c r="AF20" t="n">
-        <v>8.017226080861553</v>
+        <v>8.017256171277351</v>
       </c>
       <c r="AG20" t="n">
         <v>112</v>
@@ -4035,16 +4035,16 @@
         <v>128</v>
       </c>
       <c r="AI20" t="n">
-        <v>137.9531999973997</v>
+        <v>137.9532031274642</v>
       </c>
       <c r="AJ20" t="n">
         <v>139</v>
       </c>
       <c r="AK20" t="n">
-        <v>73.80528888042024</v>
+        <v>73.80532986422357</v>
       </c>
       <c r="AL20" t="n">
-        <v>8.591000458643931</v>
+        <v>8.591002843918954</v>
       </c>
       <c r="AM20" t="n">
         <v>128</v>
@@ -4053,16 +4053,16 @@
         <v>145</v>
       </c>
       <c r="AO20" t="n">
-        <v>97.68688369383705</v>
+        <v>97.68688140051592</v>
       </c>
       <c r="AP20" t="n">
         <v>100</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1133.114933942615</v>
+        <v>1133.114960790752</v>
       </c>
       <c r="AR20" t="n">
-        <v>33.66177259061998</v>
+        <v>33.66177298941267</v>
       </c>
       <c r="AS20" t="n">
         <v>63</v>
@@ -4089,16 +4089,16 @@
         <v>133</v>
       </c>
       <c r="BA20" t="n">
-        <v>81.70175741019833</v>
+        <v>81.70162783755489</v>
       </c>
       <c r="BB20" t="n">
         <v>81</v>
       </c>
       <c r="BC20" t="n">
-        <v>1259.476222383962</v>
+        <v>1259.479640482623</v>
       </c>
       <c r="BD20" t="n">
-        <v>35.48910005035295</v>
+        <v>35.48914820734112</v>
       </c>
       <c r="BE20" t="n">
         <v>48</v>
@@ -4141,16 +4141,16 @@
         <v>24</v>
       </c>
       <c r="K21" t="n">
-        <v>80.43544291683695</v>
+        <v>80.43561888759808</v>
       </c>
       <c r="L21" t="n">
         <v>78</v>
       </c>
       <c r="M21" t="n">
-        <v>1943.878857257645</v>
+        <v>1943.895421198543</v>
       </c>
       <c r="N21" t="n">
-        <v>44.08944156209789</v>
+        <v>44.08962940645502</v>
       </c>
       <c r="O21" t="n">
         <v>42</v>
@@ -4177,16 +4177,16 @@
         <v>168</v>
       </c>
       <c r="W21" t="n">
-        <v>123.4154142791247</v>
+        <v>123.415352637053</v>
       </c>
       <c r="X21" t="n">
         <v>130</v>
       </c>
       <c r="Y21" t="n">
-        <v>1674.813687929064</v>
+        <v>1674.816636316624</v>
       </c>
       <c r="Z21" t="n">
-        <v>40.92448763184535</v>
+        <v>40.92452365411995</v>
       </c>
       <c r="AA21" t="n">
         <v>88</v>
@@ -4195,16 +4195,16 @@
         <v>160</v>
       </c>
       <c r="AC21" t="n">
-        <v>122.4274899609624</v>
+        <v>122.4274637867585</v>
       </c>
       <c r="AD21" t="n">
         <v>128</v>
       </c>
       <c r="AE21" t="n">
-        <v>53.75224377632456</v>
+        <v>53.75297800291904</v>
       </c>
       <c r="AF21" t="n">
-        <v>7.331592171985875</v>
+        <v>7.331642244607891</v>
       </c>
       <c r="AG21" t="n">
         <v>116</v>
@@ -4213,16 +4213,16 @@
         <v>128</v>
       </c>
       <c r="AI21" t="n">
-        <v>132.046477566577</v>
+        <v>132.0465039644979</v>
       </c>
       <c r="AJ21" t="n">
         <v>128</v>
       </c>
       <c r="AK21" t="n">
-        <v>31.50353921404433</v>
+        <v>31.50419670754845</v>
       </c>
       <c r="AL21" t="n">
-        <v>5.612801369551957</v>
+        <v>5.612859940132878</v>
       </c>
       <c r="AM21" t="n">
         <v>128</v>
@@ -4231,16 +4231,16 @@
         <v>136</v>
       </c>
       <c r="AO21" t="n">
-        <v>116.8382525099554</v>
+        <v>116.8381979201547</v>
       </c>
       <c r="AP21" t="n">
         <v>123</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1508.936206570697</v>
+        <v>1508.938742091454</v>
       </c>
       <c r="AR21" t="n">
-        <v>38.84502808044675</v>
+        <v>38.84506071679454</v>
       </c>
       <c r="AS21" t="n">
         <v>84</v>
@@ -4267,16 +4267,16 @@
         <v>160</v>
       </c>
       <c r="BA21" t="n">
-        <v>109.3203684733192</v>
+        <v>109.3201963456699</v>
       </c>
       <c r="BB21" t="n">
         <v>110</v>
       </c>
       <c r="BC21" t="n">
-        <v>2379.7520470365</v>
+        <v>2379.765687991343</v>
       </c>
       <c r="BD21" t="n">
-        <v>48.78270233429571</v>
+        <v>48.78284214753526</v>
       </c>
       <c r="BE21" t="n">
         <v>68</v>
@@ -4298,7 +4298,7 @@
         <v>2116.626397385719</v>
       </c>
       <c r="D22" t="n">
-        <v>57.08770025857025</v>
+        <v>57.08770025857024</v>
       </c>
       <c r="E22" t="n">
         <v>13.93720848813674</v>
@@ -4319,16 +4319,16 @@
         <v>15</v>
       </c>
       <c r="K22" t="n">
-        <v>117.1991195698219</v>
+        <v>117.199411520011</v>
       </c>
       <c r="L22" t="n">
         <v>116</v>
       </c>
       <c r="M22" t="n">
-        <v>1134.455907266257</v>
+        <v>1134.461921869001</v>
       </c>
       <c r="N22" t="n">
-        <v>33.68168504196691</v>
+        <v>33.68177432780229</v>
       </c>
       <c r="O22" t="n">
         <v>89</v>
@@ -4355,16 +4355,16 @@
         <v>168</v>
       </c>
       <c r="W22" t="n">
-        <v>111.7436163189797</v>
+        <v>111.7435763093393</v>
       </c>
       <c r="X22" t="n">
         <v>117</v>
       </c>
       <c r="Y22" t="n">
-        <v>1137.848911603327</v>
+        <v>1137.849891327099</v>
       </c>
       <c r="Z22" t="n">
-        <v>33.73201612123603</v>
+        <v>33.73203064339737</v>
       </c>
       <c r="AA22" t="n">
         <v>82</v>
@@ -4373,16 +4373,16 @@
         <v>141</v>
       </c>
       <c r="AC22" t="n">
-        <v>123.3543438434197</v>
+        <v>123.3542898207607</v>
       </c>
       <c r="AD22" t="n">
         <v>128</v>
       </c>
       <c r="AE22" t="n">
-        <v>60.91096608268305</v>
+        <v>60.91225321071784</v>
       </c>
       <c r="AF22" t="n">
-        <v>7.804547782074439</v>
+        <v>7.804630241767885</v>
       </c>
       <c r="AG22" t="n">
         <v>115</v>
@@ -4391,16 +4391,16 @@
         <v>128</v>
       </c>
       <c r="AI22" t="n">
-        <v>134.3233564462472</v>
+        <v>134.3233675143042</v>
       </c>
       <c r="AJ22" t="n">
         <v>128</v>
       </c>
       <c r="AK22" t="n">
-        <v>112.6234536500043</v>
+        <v>112.6236789212228</v>
       </c>
       <c r="AL22" t="n">
-        <v>10.61241978297147</v>
+        <v>10.61243039653136</v>
       </c>
       <c r="AM22" t="n">
         <v>128</v>
@@ -4409,16 +4409,16 @@
         <v>145</v>
       </c>
       <c r="AO22" t="n">
-        <v>108.4362717873926</v>
+        <v>108.4362574982353</v>
       </c>
       <c r="AP22" t="n">
         <v>114</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1035.167244515268</v>
+        <v>1035.167785681796</v>
       </c>
       <c r="AR22" t="n">
-        <v>32.17401505120659</v>
+        <v>32.1740234611992</v>
       </c>
       <c r="AS22" t="n">
         <v>81</v>
@@ -4427,16 +4427,16 @@
         <v>136</v>
       </c>
       <c r="AU22" t="n">
-        <v>110.0861921967865</v>
+        <v>110.086187433734</v>
       </c>
       <c r="AV22" t="n">
         <v>115</v>
       </c>
       <c r="AW22" t="n">
-        <v>1134.394229590591</v>
+        <v>1134.394454275109</v>
       </c>
       <c r="AX22" t="n">
-        <v>33.68076943287655</v>
+        <v>33.68077276837793</v>
       </c>
       <c r="AY22" t="n">
         <v>81</v>
@@ -4445,16 +4445,16 @@
         <v>139</v>
       </c>
       <c r="BA22" t="n">
-        <v>88.95977411700153</v>
+        <v>88.95948261819277</v>
       </c>
       <c r="BB22" t="n">
         <v>91</v>
       </c>
       <c r="BC22" t="n">
-        <v>1365.136967651861</v>
+        <v>1365.148950817862</v>
       </c>
       <c r="BD22" t="n">
-        <v>36.94775998151798</v>
+        <v>36.9479221447954</v>
       </c>
       <c r="BE22" t="n">
         <v>55</v>
@@ -4497,16 +4497,16 @@
         <v>20</v>
       </c>
       <c r="K23" t="n">
-        <v>105.326107236026</v>
+        <v>105.3262381633515</v>
       </c>
       <c r="L23" t="n">
         <v>101</v>
       </c>
       <c r="M23" t="n">
-        <v>1492.517330477179</v>
+        <v>1492.524507442429</v>
       </c>
       <c r="N23" t="n">
-        <v>38.63311184045597</v>
+        <v>38.63320472653582</v>
       </c>
       <c r="O23" t="n">
         <v>76</v>
@@ -4533,16 +4533,16 @@
         <v>179</v>
       </c>
       <c r="W23" t="n">
-        <v>125.4703677283604</v>
+        <v>125.4703057340272</v>
       </c>
       <c r="X23" t="n">
         <v>134</v>
       </c>
       <c r="Y23" t="n">
-        <v>1677.242104740956</v>
+        <v>1677.245355765541</v>
       </c>
       <c r="Z23" t="n">
-        <v>40.95414636811461</v>
+        <v>40.95418605912638</v>
       </c>
       <c r="AA23" t="n">
         <v>94</v>
@@ -4551,16 +4551,16 @@
         <v>159</v>
       </c>
       <c r="AC23" t="n">
-        <v>120.5846018935643</v>
+        <v>120.5845992301829</v>
       </c>
       <c r="AD23" t="n">
         <v>128</v>
       </c>
       <c r="AE23" t="n">
-        <v>95.82936654222338</v>
+        <v>95.82945521737918</v>
       </c>
       <c r="AF23" t="n">
-        <v>9.789247496218664</v>
+        <v>9.789252025429684</v>
       </c>
       <c r="AG23" t="n">
         <v>112</v>
@@ -4569,16 +4569,16 @@
         <v>128</v>
       </c>
       <c r="AI23" t="n">
-        <v>134.7870206528958</v>
+        <v>134.7870462879886</v>
       </c>
       <c r="AJ23" t="n">
         <v>128</v>
       </c>
       <c r="AK23" t="n">
-        <v>83.40241994848733</v>
+        <v>83.4029995002888</v>
       </c>
       <c r="AL23" t="n">
-        <v>9.132492537554429</v>
+        <v>9.132524267708726</v>
       </c>
       <c r="AM23" t="n">
         <v>128</v>
@@ -4587,16 +4587,16 @@
         <v>142</v>
       </c>
       <c r="AO23" t="n">
-        <v>119.5294862586705</v>
+        <v>119.5294854429556</v>
       </c>
       <c r="AP23" t="n">
         <v>128</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1494.631549946504</v>
+        <v>1494.631496157425</v>
       </c>
       <c r="AR23" t="n">
-        <v>38.66046494736585</v>
+        <v>38.66046425170583</v>
       </c>
       <c r="AS23" t="n">
         <v>90</v>
@@ -4605,16 +4605,16 @@
         <v>152</v>
       </c>
       <c r="AU23" t="n">
-        <v>125.0728184622387</v>
+        <v>125.0728188700962</v>
       </c>
       <c r="AV23" t="n">
         <v>134</v>
       </c>
       <c r="AW23" t="n">
-        <v>1691.247431238115</v>
+        <v>1691.247419350851</v>
       </c>
       <c r="AX23" t="n">
-        <v>41.12477879865271</v>
+        <v>41.12477865412592</v>
       </c>
       <c r="AY23" t="n">
         <v>94</v>
@@ -4623,16 +4623,16 @@
         <v>159</v>
       </c>
       <c r="BA23" t="n">
-        <v>101.6320734208677</v>
+        <v>101.6319942965213</v>
       </c>
       <c r="BB23" t="n">
         <v>105</v>
       </c>
       <c r="BC23" t="n">
-        <v>1934.247886341821</v>
+        <v>1934.253959840647</v>
       </c>
       <c r="BD23" t="n">
-        <v>43.98008511067049</v>
+        <v>43.98015415890043</v>
       </c>
       <c r="BE23" t="n">
         <v>66</v>
@@ -4641,7 +4641,363 @@
         <v>137</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>white1</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>11767.19805449268</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>27.40837426333759</v>
+      </c>
+      <c r="F24" t="n">
+        <v>28</v>
+      </c>
+      <c r="G24" t="n">
+        <v>7.884001026965782</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.807846332505713</v>
+      </c>
+      <c r="I24" t="n">
+        <v>26</v>
+      </c>
+      <c r="J24" t="n">
+        <v>30</v>
+      </c>
+      <c r="K24" t="n">
+        <v>33.34181741564579</v>
+      </c>
+      <c r="L24" t="n">
+        <v>28</v>
+      </c>
+      <c r="M24" t="n">
+        <v>449.4929538145141</v>
+      </c>
+      <c r="N24" t="n">
+        <v>21.20124887393462</v>
+      </c>
+      <c r="O24" t="n">
+        <v>23</v>
+      </c>
+      <c r="P24" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>177.2767934950412</v>
+      </c>
+      <c r="R24" t="n">
+        <v>238</v>
+      </c>
+      <c r="S24" t="n">
+        <v>8660.399184867849</v>
+      </c>
+      <c r="T24" t="n">
+        <v>93.0612657600779</v>
+      </c>
+      <c r="U24" t="n">
+        <v>90</v>
+      </c>
+      <c r="V24" t="n">
+        <v>247</v>
+      </c>
+      <c r="W24" t="n">
+        <v>173.534029098132</v>
+      </c>
+      <c r="X24" t="n">
+        <v>232</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>8324.099837980706</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>91.2365049636422</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>88</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>243</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>122.1247101658951</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>123</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>34.635050432007</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>5.885155089885652</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>118</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>128</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>130.3398069782021</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>6.193903926862957</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>2.488755497605772</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>128</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>132</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>163.8171583384639</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>218</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>7430.2840770784</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>86.19909556995596</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>83</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>229</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>174.1857003701606</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>232</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>8364.584327285955</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>91.45810148524818</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>89</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>243</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>174.0941638728146</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>225</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>8247.352604580004</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>90.81493602144972</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>99</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>white2</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>11723.13338625502</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>27.42442488728947</v>
+      </c>
+      <c r="F25" t="n">
+        <v>27</v>
+      </c>
+      <c r="G25" t="n">
+        <v>7.081289958757711</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.661069326184065</v>
+      </c>
+      <c r="I25" t="n">
+        <v>26</v>
+      </c>
+      <c r="J25" t="n">
+        <v>29</v>
+      </c>
+      <c r="K25" t="n">
+        <v>33.56868835230557</v>
+      </c>
+      <c r="L25" t="n">
+        <v>30</v>
+      </c>
+      <c r="M25" t="n">
+        <v>400.849822161999</v>
+      </c>
+      <c r="N25" t="n">
+        <v>20.02123428168201</v>
+      </c>
+      <c r="O25" t="n">
+        <v>24</v>
+      </c>
+      <c r="P25" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>181.0998166403602</v>
+      </c>
+      <c r="R25" t="n">
+        <v>239</v>
+      </c>
+      <c r="S25" t="n">
+        <v>8170.050565956416</v>
+      </c>
+      <c r="T25" t="n">
+        <v>90.38833202331161</v>
+      </c>
+      <c r="U25" t="n">
+        <v>106</v>
+      </c>
+      <c r="V25" t="n">
+        <v>247</v>
+      </c>
+      <c r="W25" t="n">
+        <v>177.1807729524768</v>
+      </c>
+      <c r="X25" t="n">
+        <v>233</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>7857.13487317933</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>88.64048100715232</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>103</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>243</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>121.8250823447145</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>121</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>34.68704306444805</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>5.889570702899156</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>118</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>128</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>130.443890697338</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>6.174920081417121</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>2.484938647415087</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>128</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>132</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>167.2325401840553</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>220</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>7014.204010634448</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>83.75084483534748</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>97</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>229</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>177.8408537419384</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>234</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>7897.339835282886</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>88.86697831749927</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>103</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>243</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>176.8895098911973</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>228</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>7833.520878010901</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>88.50717981051538</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>100</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>245</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>